--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Interger</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetType</t>
+    <t xml:space="preserve">datasetType</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">This will be "Water Quality and Physical Habitat Structure" for all values in this data set.</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetTitle</t>
+    <t xml:space="preserve">datasetTitle</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset Name</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
-    <t xml:space="preserve">Citation</t>
+    <t xml:space="preserve">citation</t>
   </si>
   <si>
     <t xml:space="preserve">bibliographicCitation</t>
@@ -529,7 +529,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetOrginization</t>
+    <t xml:space="preserve">datasetOrginization</t>
   </si>
   <si>
     <t xml:space="preserve">InstitutionID</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetOrginizationCode</t>
+    <t xml:space="preserve">datasetOrginizationCode</t>
   </si>
   <si>
     <t xml:space="preserve">Institution Code</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve">BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
   </si>
   <si>
-    <t xml:space="preserve">DatasetLink</t>
+    <t xml:space="preserve">datasetLink</t>
   </si>
   <si>
     <t xml:space="preserve">CollectionID</t>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadataID</t>
   </si>
   <si>
     <t xml:space="preserve">MetadataID</t>
@@ -630,7 +633,7 @@
     <t xml:space="preserve">Stream</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitude</t>
+    <t xml:space="preserve">latitude</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Latitude</t>
@@ -654,7 +657,7 @@
     <t xml:space="preserve">Lat</t>
   </si>
   <si>
-    <t xml:space="preserve">Longitude</t>
+    <t xml:space="preserve">longitude</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Longitude</t>
@@ -663,9 +666,6 @@
     <t xml:space="preserve">The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.</t>
   </si>
   <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIDLONG</t>
   </si>
   <si>
@@ -678,7 +678,7 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">SpatialReferenceID</t>
+    <t xml:space="preserve">spatialReferenceID</t>
   </si>
   <si>
     <t xml:space="preserve">geodeticDatum</t>
@@ -691,12 +691,6 @@
   </si>
   <si>
     <t xml:space="preserve">Description of the location the latitude and longitude represent. For this data type it is a location take at the bottom of the sampling reach, the middle of the sampling reach or the top of the sampling reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingFeatureTypeCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingFeatureGeotype</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
@@ -741,10 +735,10 @@
     <t xml:space="preserve">RchID</t>
   </si>
   <si>
-    <t xml:space="preserve">ActionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeginDataTime</t>
+    <t xml:space="preserve">actionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginDataTime</t>
   </si>
   <si>
     <t xml:space="preserve">The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded. Not suitable for a time in a geological context. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E). Format YYYY-MM-DD</t>
@@ -795,7 +789,7 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Year</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">Sample Year</t>
@@ -819,7 +813,7 @@
     <t xml:space="preserve">MeasurementOrFact</t>
   </si>
   <si>
-    <t xml:space="preserve">ResultID</t>
+    <t xml:space="preserve">resultID</t>
   </si>
   <si>
     <t xml:space="preserve">Unique integer identifier for each
@@ -829,7 +823,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">ResultTypeCV</t>
+    <t xml:space="preserve">resultTypeCV</t>
   </si>
   <si>
     <t xml:space="preserve">The nature of the measurement, fact, characteristic, or assertion. Recommended best practice is to use a controlled vocabulary.</t>
@@ -838,13 +832,13 @@
     <t xml:space="preserve">tail length, "temperature", "trap line length", "survey area", "trap type"</t>
   </si>
   <si>
-    <t xml:space="preserve">VariableID</t>
+    <t xml:space="preserve">variableID</t>
   </si>
   <si>
     <t xml:space="preserve">An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set.</t>
   </si>
   <si>
-    <t xml:space="preserve">MethodID</t>
+    <t xml:space="preserve">methodID</t>
   </si>
   <si>
     <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
@@ -862,13 +856,16 @@
     <t xml:space="preserve">tip of tail missing</t>
   </si>
   <si>
-    <t xml:space="preserve">DataValue</t>
+    <t xml:space="preserve">dataValue</t>
   </si>
   <si>
     <t xml:space="preserve">The value of the measurement, fact, characteristic, or assertion.</t>
   </si>
   <si>
     <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double</t>
   </si>
   <si>
     <t xml:space="preserve">SNSTY</t>
@@ -3137,9 +3134,11 @@
       <c r="D10" t="s">
         <v>182</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
@@ -3162,21 +3161,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
         <v>163</v>
@@ -3198,64 +3197,64 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
         <v>163</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
@@ -3266,10 +3265,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -3277,25 +3276,25 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -3303,43 +3302,43 @@
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
@@ -3347,7 +3346,7 @@
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -3372,7 +3371,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -3406,7 +3405,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -3438,16 +3437,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" t="s">
+        <v>228</v>
+      </c>
       <c r="H18" t="s">
         <v>163</v>
       </c>
@@ -3468,52 +3473,62 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>232</v>
+      </c>
       <c r="H19" t="s">
         <v>163</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>233</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="M19" t="s">
+        <v>234</v>
+      </c>
+      <c r="N19" t="s">
+        <v>235</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
+      <c r="Q19" t="s">
+        <v>234</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19"/>
+      <c r="T19" t="s">
+        <v>236</v>
+      </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" t="s">
-        <v>230</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="s">
         <v>163</v>
       </c>
@@ -3534,230 +3549,220 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" t="s">
-        <v>232</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+        <v>246</v>
+      </c>
+      <c r="E22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" t="s">
+        <v>249</v>
+      </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I22"/>
-      <c r="J22"/>
+      <c r="J22" t="s">
+        <v>250</v>
+      </c>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="M22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" t="s">
+        <v>252</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="s">
+        <v>253</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" t="s">
+        <v>254</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23"/>
+        <v>255</v>
+      </c>
+      <c r="E23" t="s">
+        <v>256</v>
+      </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" t="s">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s">
-        <v>245</v>
-      </c>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" t="s">
-        <v>249</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="H24" t="s">
         <v>154</v>
       </c>
       <c r="I24"/>
-      <c r="J24" t="s">
-        <v>252</v>
-      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" t="s">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s">
-        <v>254</v>
-      </c>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" t="s">
-        <v>255</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" t="s">
-        <v>256</v>
-      </c>
+      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" t="s">
-        <v>258</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I25"/>
-      <c r="J25" t="s">
-        <v>261</v>
-      </c>
+      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25" t="s">
-        <v>262</v>
-      </c>
+      <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="s">
-        <v>263</v>
-      </c>
+      <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" t="s">
-        <v>267</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G26"/>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -3776,19 +3781,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H27" t="s">
         <v>163</v>
@@ -3810,20 +3815,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28"/>
+        <v>275</v>
+      </c>
+      <c r="G28" t="s">
+        <v>276</v>
+      </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -3842,22 +3849,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -3876,67 +3883,95 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
       <c r="D30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30"/>
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" t="s">
-        <v>277</v>
-      </c>
-      <c r="G30" t="s">
-        <v>278</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30"/>
+      <c r="M30" t="s">
+        <v>281</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30"/>
+      <c r="Q30" t="s">
+        <v>282</v>
+      </c>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30"/>
+      <c r="T30" t="s">
+        <v>18</v>
+      </c>
       <c r="U30"/>
       <c r="V30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
       <c r="D31" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31"/>
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>281</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="M31" t="s">
+        <v>283</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31"/>
+      <c r="Q31" t="s">
+        <v>285</v>
+      </c>
       <c r="R31"/>
       <c r="S31"/>
-      <c r="T31"/>
+      <c r="T31" t="s">
+        <v>286</v>
+      </c>
       <c r="U31"/>
       <c r="V31"/>
     </row>
@@ -3948,39 +3983,37 @@
         <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
         <v>21</v>
       </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32" t="s">
-        <v>283</v>
-      </c>
+      <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
-      <c r="T32" t="s">
-        <v>18</v>
-      </c>
+      <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
     </row>
@@ -3992,45 +4025,43 @@
         <v>17</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G33"/>
       <c r="H33" t="s">
         <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33"/>
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33" t="s">
-        <v>287</v>
-      </c>
+      <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
     </row>
@@ -4039,41 +4070,57 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
         <v>21</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
       <c r="J34" t="s">
-        <v>288</v>
-      </c>
-      <c r="K34"/>
+        <v>291</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>289</v>
-      </c>
-      <c r="N34"/>
-      <c r="O34"/>
+        <v>293</v>
+      </c>
+      <c r="N34" t="s">
+        <v>294</v>
+      </c>
+      <c r="O34" t="s">
+        <v>295</v>
+      </c>
       <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
+      <c r="Q34" t="s">
+        <v>296</v>
+      </c>
+      <c r="R34" t="s">
+        <v>297</v>
+      </c>
       <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
+      <c r="T34" t="s">
+        <v>298</v>
+      </c>
+      <c r="U34" t="s">
+        <v>299</v>
+      </c>
       <c r="V34"/>
     </row>
     <row r="35">
@@ -4081,47 +4128,59 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35"/>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" t="s">
         <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35"/>
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35"/>
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>304</v>
+      </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>291</v>
-      </c>
-      <c r="R35"/>
+        <v>305</v>
+      </c>
+      <c r="R35" t="s">
+        <v>301</v>
+      </c>
       <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
+      <c r="T35" t="s">
+        <v>42</v>
+      </c>
+      <c r="U35" t="s">
+        <v>306</v>
+      </c>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -4132,16 +4191,16 @@
         <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
@@ -4151,34 +4210,30 @@
         <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
-      </c>
-      <c r="O36" t="s">
-        <v>296</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>297</v>
-      </c>
-      <c r="R36" t="s">
-        <v>298</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="U36" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="V36"/>
     </row>
@@ -4190,56 +4245,42 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37"/>
       <c r="H37" t="s">
         <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
-      </c>
-      <c r="K37" t="s">
-        <v>302</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="K37"/>
       <c r="L37"/>
-      <c r="M37" t="s">
-        <v>303</v>
-      </c>
-      <c r="N37" t="s">
-        <v>304</v>
-      </c>
-      <c r="O37" t="s">
-        <v>305</v>
-      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>306</v>
-      </c>
-      <c r="R37" t="s">
-        <v>302</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>42</v>
-      </c>
-      <c r="U37" t="s">
-        <v>307</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="U37"/>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -4250,16 +4291,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
@@ -4269,31 +4310,25 @@
         <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
-      </c>
-      <c r="K38" t="s">
-        <v>309</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38" t="s">
-        <v>313</v>
-      </c>
-      <c r="U38" t="s">
-        <v>307</v>
-      </c>
+      <c r="T38"/>
+      <c r="U38"/>
       <c r="V38"/>
     </row>
     <row r="39">
@@ -4304,42 +4339,34 @@
         <v>36</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G39"/>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s">
-        <v>314</v>
-      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
-      <c r="Q39" t="s">
-        <v>315</v>
-      </c>
+      <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
-      <c r="T39" t="s">
-        <v>316</v>
-      </c>
-      <c r="U39"/>
+      <c r="T39"/>
+      <c r="U39" t="s">
+        <v>320</v>
+      </c>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -4350,40 +4377,34 @@
         <v>36</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" t="s">
-        <v>317</v>
-      </c>
-      <c r="K40"/>
+        <v>62</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
       <c r="L40"/>
-      <c r="M40" t="s">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s">
-        <v>319</v>
-      </c>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40" t="s">
-        <v>320</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -4398,34 +4419,40 @@
         <v>36</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41"/>
+      <c r="M41" t="s">
+        <v>322</v>
+      </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="s">
+        <v>323</v>
+      </c>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
-      <c r="U41" t="s">
-        <v>321</v>
-      </c>
+      <c r="U41"/>
       <c r="V41"/>
     </row>
     <row r="42">
@@ -4436,34 +4463,40 @@
         <v>36</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
         <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42" t="s">
-        <v>322</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42"/>
       <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="M42" t="s">
+        <v>325</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
+      <c r="Q42" t="s">
+        <v>327</v>
+      </c>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -4475,19 +4508,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
@@ -4496,22 +4529,34 @@
       <c r="I43" t="s">
         <v>40</v>
       </c>
-      <c r="J43"/>
-      <c r="K43"/>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>323</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
+        <v>330</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>332</v>
+      </c>
       <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>324</v>
-      </c>
-      <c r="R43"/>
+      <c r="Q43"/>
+      <c r="R43" t="s">
+        <v>333</v>
+      </c>
       <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
+      <c r="T43" t="s">
+        <v>334</v>
+      </c>
+      <c r="U43" t="s">
+        <v>335</v>
+      </c>
       <c r="V43"/>
     </row>
     <row r="44">
@@ -4519,102 +4564,110 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44"/>
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>325</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
       <c r="M44" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
-      </c>
-      <c r="O44"/>
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>332</v>
+      </c>
       <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>328</v>
-      </c>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
+      <c r="Q44"/>
+      <c r="R44" t="s">
+        <v>333</v>
+      </c>
+      <c r="S44" t="n">
+        <v>88</v>
+      </c>
+      <c r="T44" t="s">
+        <v>340</v>
+      </c>
+      <c r="U44" t="s">
+        <v>335</v>
+      </c>
+      <c r="V44" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45"/>
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
       <c r="H45" t="s">
         <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" t="s">
-        <v>329</v>
-      </c>
-      <c r="K45" t="s">
-        <v>330</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>331</v>
-      </c>
-      <c r="N45" t="s">
-        <v>332</v>
-      </c>
-      <c r="O45" t="s">
-        <v>333</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45" t="s">
-        <v>334</v>
-      </c>
+      <c r="R45"/>
       <c r="S45"/>
       <c r="T45" t="s">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="V45"/>
     </row>
@@ -4623,19 +4676,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
@@ -4646,87 +4699,77 @@
       <c r="I46" t="s">
         <v>27</v>
       </c>
-      <c r="J46" t="s">
-        <v>337</v>
-      </c>
-      <c r="K46" t="s">
-        <v>330</v>
-      </c>
-      <c r="L46" t="s">
-        <v>338</v>
-      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N46" t="s">
-        <v>340</v>
-      </c>
-      <c r="O46" t="s">
-        <v>333</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46" t="s">
-        <v>334</v>
-      </c>
-      <c r="S46" t="n">
-        <v>88</v>
-      </c>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="T46" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="U46" t="s">
-        <v>336</v>
-      </c>
-      <c r="V46" t="s">
-        <v>342</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="V46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J47"/>
-      <c r="K47"/>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>343</v>
+        <v>87</v>
       </c>
       <c r="N47"/>
-      <c r="O47"/>
+      <c r="O47" t="s">
+        <v>348</v>
+      </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
+      <c r="R47" t="s">
+        <v>349</v>
+      </c>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="U47" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="V47"/>
     </row>
@@ -4735,43 +4778,55 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
+        <v>91</v>
+      </c>
+      <c r="J48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s">
+        <v>347</v>
+      </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>345</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>93</v>
+      </c>
+      <c r="N48" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" t="s">
+        <v>350</v>
+      </c>
       <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
+      <c r="Q48" t="s">
+        <v>351</v>
+      </c>
+      <c r="R48" t="s">
+        <v>349</v>
+      </c>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>346</v>
+        <v>93</v>
       </c>
       <c r="U48" t="s">
         <v>347</v>
@@ -4786,16 +4841,16 @@
         <v>86</v>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G49" t="s">
         <v>90</v>
@@ -4808,27 +4863,27 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="U49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V49"/>
     </row>
@@ -4840,55 +4895,53 @@
         <v>86</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
         <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>352</v>
       </c>
       <c r="K50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="O50" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="R50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S50"/>
-      <c r="T50" t="s">
-        <v>93</v>
-      </c>
+      <c r="T50"/>
       <c r="U50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V50"/>
     </row>
@@ -4900,49 +4953,49 @@
         <v>86</v>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J51"/>
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>357</v>
+      </c>
       <c r="K51" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51" t="s">
-        <v>350</v>
-      </c>
+      <c r="R51"/>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="U51" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="V51"/>
     </row>
@@ -4954,16 +5007,16 @@
         <v>86</v>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -4975,32 +5028,30 @@
         <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="O52" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P52"/>
-      <c r="Q52" t="s">
-        <v>357</v>
-      </c>
+      <c r="Q52"/>
       <c r="R52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5012,16 +5063,16 @@
         <v>86</v>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -5032,29 +5083,25 @@
       <c r="I53" t="s">
         <v>27</v>
       </c>
-      <c r="J53" t="s">
-        <v>358</v>
-      </c>
-      <c r="K53" t="s">
-        <v>359</v>
-      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="U53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V53"/>
     </row>
@@ -5066,16 +5113,16 @@
         <v>86</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
         <v>26</v>
@@ -5087,31 +5134,25 @@
         <v>27</v>
       </c>
       <c r="J54" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K54" t="s">
+        <v>347</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54" t="s">
         <v>348</v>
       </c>
-      <c r="L54"/>
-      <c r="M54" t="s">
-        <v>363</v>
-      </c>
-      <c r="N54" t="s">
-        <v>364</v>
-      </c>
-      <c r="O54" t="s">
-        <v>351</v>
-      </c>
       <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54" t="s">
-        <v>350</v>
-      </c>
+      <c r="Q54" t="s">
+        <v>367</v>
+      </c>
+      <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-      <c r="U54" t="s">
-        <v>348</v>
-      </c>
+      <c r="U54"/>
       <c r="V54"/>
     </row>
     <row r="55">
@@ -5119,48 +5160,46 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G55"/>
       <c r="H55" t="s">
         <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="J55"/>
-      <c r="K55"/>
+      <c r="K55" t="s">
+        <v>368</v>
+      </c>
       <c r="L55"/>
-      <c r="M55" t="s">
-        <v>365</v>
-      </c>
+      <c r="M55"/>
       <c r="N55"/>
-      <c r="O55" t="s">
-        <v>356</v>
-      </c>
+      <c r="O55"/>
       <c r="P55"/>
-      <c r="Q55"/>
+      <c r="Q55" t="s">
+        <v>369</v>
+      </c>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="U55" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="V55"/>
     </row>
@@ -5169,49 +5208,45 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
         <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
-        <v>367</v>
-      </c>
-      <c r="K56" t="s">
-        <v>348</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56"/>
-      <c r="M56"/>
+      <c r="M56" t="s">
+        <v>118</v>
+      </c>
       <c r="N56"/>
-      <c r="O56" t="s">
-        <v>349</v>
-      </c>
+      <c r="O56"/>
       <c r="P56"/>
-      <c r="Q56" t="s">
-        <v>368</v>
-      </c>
+      <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
-      <c r="U56"/>
+      <c r="U56" t="s">
+        <v>371</v>
+      </c>
       <c r="V56"/>
     </row>
     <row r="57">
@@ -5222,44 +5257,42 @@
         <v>114</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57"/>
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
       <c r="H57" t="s">
         <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J57"/>
-      <c r="K57" t="s">
-        <v>369</v>
-      </c>
+      <c r="K57"/>
       <c r="L57"/>
-      <c r="M57"/>
+      <c r="M57" t="s">
+        <v>122</v>
+      </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57" t="s">
-        <v>371</v>
-      </c>
-      <c r="U57" t="s">
-        <v>372</v>
-      </c>
+      <c r="T57"/>
+      <c r="U57"/>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -5270,42 +5303,40 @@
         <v>114</v>
       </c>
       <c r="C58" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" t="s">
-        <v>120</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58"/>
+      <c r="Q58" t="s">
+        <v>373</v>
+      </c>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58" t="s">
-        <v>372</v>
-      </c>
+      <c r="U58"/>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -5316,37 +5347,35 @@
         <v>114</v>
       </c>
       <c r="C59" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" t="s">
-        <v>125</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
@@ -5362,35 +5391,35 @@
         <v>114</v>
       </c>
       <c r="C60" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
         <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="s">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -5398,94 +5427,6 @@
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" t="n">
-        <v>62</v>
-      </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61" t="s">
-        <v>132</v>
-      </c>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61" t="s">
-        <v>375</v>
-      </c>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" t="n">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" t="s">
-        <v>137</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62" t="s">
-        <v>376</v>
-      </c>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62" t="s">
-        <v>377</v>
-      </c>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -52,456 +52,63 @@
     <t xml:space="preserve">MaximamPossibleValue</t>
   </si>
   <si>
-    <t xml:space="preserve">CategoryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
+    <t xml:space="preserve">DarwinCoreTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DarwinCoreClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODM2Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODMTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the reach that was dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Sign at Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver value from the provider dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of transects in the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewAIMField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSACollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOAnalysisMethodID</t>
-  </si>
-  <si>
     <t xml:space="preserve">RecordLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
+    <t xml:space="preserve">Datasets</t>
   </si>
   <si>
     <t xml:space="preserve">datasetType</t>
   </si>
   <si>
+    <t xml:space="preserve">The nature or genre of the resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be "Water Quality and Physical Habitat Structure" for all values in this data set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vocabulary.odm2.org/datasettype/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/datasettype/?format=skos</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">The nature or genre of the resource.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will be "Water Quality and Physical Habitat Structure" for all values in this data set.</t>
+    <t xml:space="preserve">DatasetType</t>
   </si>
   <si>
     <t xml:space="preserve">datasetTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Dataset Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">The name identifying the data set from which the record was derived.</t>
   </si>
   <si>
@@ -511,15 +118,21 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
+    <t xml:space="preserve">datasetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatasetTitle</t>
+  </si>
+  <si>
     <t xml:space="preserve">citation</t>
   </si>
   <si>
-    <t xml:space="preserve">bibliographicCitation</t>
-  </si>
-  <si>
     <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
   </si>
   <si>
+    <t xml:space="preserve">bibilographicCitation</t>
+  </si>
+  <si>
     <t xml:space="preserve">modified</t>
   </si>
   <si>
@@ -532,33 +145,33 @@
     <t xml:space="preserve">datasetOrginization</t>
   </si>
   <si>
-    <t xml:space="preserve">InstitutionID</t>
-  </si>
-  <si>
     <t xml:space="preserve">An identifier for the institution having custody of the object(s) or information referred to in the record.</t>
   </si>
   <si>
     <t xml:space="preserve">http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
   </si>
   <si>
+    <t xml:space="preserve">DatasetOrginization</t>
+  </si>
+  <si>
     <t xml:space="preserve">datasetOrginizationCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Institution Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record</t>
   </si>
   <si>
     <t xml:space="preserve">BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
   </si>
   <si>
+    <t xml:space="preserve">institutionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatasetOrginizationCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">datasetLink</t>
   </si>
   <si>
-    <t xml:space="preserve">CollectionID</t>
-  </si>
-  <si>
     <t xml:space="preserve">An identifier for the collection or dataset from which the record was derived.</t>
   </si>
   <si>
@@ -568,31 +181,28 @@
     <t xml:space="preserve">metadataID</t>
   </si>
   <si>
+    <t xml:space="preserve">Integer identifier referencing the record in the ISOMetadata table for this source.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MetadataID</t>
   </si>
   <si>
-    <t xml:space="preserve">Integer identifier referencing the record in the ISOMetadata table for this source.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">locationID</t>
   </si>
   <si>
-    <t xml:space="preserve">Location Identification</t>
-  </si>
-  <si>
     <t xml:space="preserve">An identifier for the set of location information. Must be a global unique identifier.</t>
   </si>
   <si>
     <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
   </si>
   <si>
+    <t xml:space="preserve">SamplingFeatureID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplingFeature</t>
+  </si>
+  <si>
     <t xml:space="preserve">verbatimLocationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Identification</t>
   </si>
   <si>
     <t xml:space="preserve">Verbatim from the orgial data set  code or number that identifies a unique sampling location. A site is a stream segment with a fixed starting and ending location for sampling. Code will remain the same across all sampling events.
@@ -603,87 +213,36 @@
     <t xml:space="preserve">5483, 88693. WtR563</t>
   </si>
   <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
+    <t xml:space="preserve">verbatimSamplingFeatureID</t>
   </si>
   <si>
     <t xml:space="preserve">waterBody</t>
   </si>
   <si>
-    <t xml:space="preserve">Stream Name From The Data Set</t>
-  </si>
-  <si>
     <t xml:space="preserve">The name of the water body in which the Location occurs.</t>
   </si>
   <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
+    <t xml:space="preserve">samplingFeatureName</t>
   </si>
   <si>
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard Latitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.</t>
   </si>
   <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiddleReachLatitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
+    <t xml:space="preserve">Numeric</t>
   </si>
   <si>
     <t xml:space="preserve">longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard Longitude</t>
-  </si>
-  <si>
     <t xml:space="preserve">The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.</t>
   </si>
   <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiddleReachLongitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">spatialReferenceID</t>
   </si>
   <si>
-    <t xml:space="preserve">geodeticDatum</t>
-  </si>
-  <si>
     <t xml:space="preserve">The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based.</t>
   </si>
   <si>
@@ -693,13 +252,10 @@
     <t xml:space="preserve">Description of the location the latitude and longitude represent. For this data type it is a location take at the bottom of the sampling reach, the middle of the sampling reach or the top of the sampling reach.</t>
   </si>
   <si>
-    <t xml:space="preserve">Event</t>
+    <t xml:space="preserve">BottomOfReach, MiddleOfReach, TopOfReach, Other</t>
   </si>
   <si>
     <t xml:space="preserve">eventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Identification</t>
   </si>
   <si>
     <t xml:space="preserve">This is the identifier for an Event (something that occurs at a place and time). Must be a global unique identifer. 
@@ -709,10 +265,13 @@
     <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
   </si>
   <si>
+    <t xml:space="preserve">actionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
     <t xml:space="preserve">verbatimEventID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the Dataset Location Identification</t>
   </si>
   <si>
     <t xml:space="preserve">Verbatim from the orgial data set unique identifer that represents a single samping occurance at location. 
@@ -723,21 +282,12 @@
     <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
   </si>
   <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaluationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
     <t xml:space="preserve">actionType</t>
   </si>
   <si>
+    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/actiontype/?format=skos</t>
+  </si>
+  <si>
     <t xml:space="preserve">beginDataTime</t>
   </si>
   <si>
@@ -747,70 +297,25 @@
     <t xml:space="preserve">23078</t>
   </si>
   <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldEvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
     <t xml:space="preserve">samplingProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling Protocol</t>
-  </si>
-  <si>
     <t xml:space="preserve">The name of, reference to, or description of the method or protocol used during an Event.</t>
   </si>
   <si>
     <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
   </si>
   <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALXSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
+    <t xml:space="preserve">Wadable, Botable</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">The four-digit year in which the Event occurred, according to the Common Era Calendar.</t>
   </si>
   <si>
     <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementOrFact</t>
   </si>
   <si>
     <t xml:space="preserve">resultID</t>
@@ -823,6 +328,9 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">Results</t>
+  </si>
+  <si>
     <t xml:space="preserve">resultTypeCV</t>
   </si>
   <si>
@@ -832,12 +340,24 @@
     <t xml:space="preserve">tail length, "temperature", "trap line length", "survey area", "trap type"</t>
   </si>
   <si>
+    <t xml:space="preserve">http://vocabulary.odm2.org/resulttype/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/resulttype/?format=skos</t>
+  </si>
+  <si>
     <t xml:space="preserve">variableID</t>
   </si>
   <si>
     <t xml:space="preserve">An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/rascully/Stream-Monitoring-Data-Exchange-Specifications/blob/master/Tables/ControlledVocabulary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VariableID</t>
+  </si>
+  <si>
     <t xml:space="preserve">methodID</t>
   </si>
   <si>
@@ -847,6 +367,9 @@
     <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/api/v1/methods/</t>
+  </si>
+  <si>
     <t xml:space="preserve">measurementRemarks</t>
   </si>
   <si>
@@ -866,6 +389,573 @@
   </si>
   <si>
     <t xml:space="preserve">Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CategoryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctDry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the reach that was dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Sign at Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver value from the provider dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of transects in the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streambanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPhosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPCollectionMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPAnalysisMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewAIMField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMCollectionMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMAnalysisMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSAField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSACollectionMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSAAnalysisMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOCollectionMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBOAnalysisMethodID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliographicCitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiteID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Name From The Data Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lattitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiddleReachLatitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAT_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiddleReachLongitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LON_DD83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geodeticDatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the Dataset Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_survey_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EvaluationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FieldEvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRTCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProtocolVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALXSITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeasurementOrFact</t>
   </si>
   <si>
     <t xml:space="preserve">SNSTY</t>
@@ -1519,6 +1609,359 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,6 +2011,253 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,6 +2307,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,6 +2566,232 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,22 +2809,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1710,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1724,27 +2850,27 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1755,31 +2881,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -1790,27 +2916,27 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1821,29 +2947,29 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -1854,29 +2980,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1887,31 +3013,31 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
@@ -1922,29 +3048,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1955,29 +3081,29 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -1988,29 +3114,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -2021,25 +3147,25 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -2050,29 +3176,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -2083,29 +3209,29 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2116,29 +3242,29 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2149,29 +3275,29 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2182,31 +3308,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2217,31 +3343,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -2252,31 +3378,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -2287,31 +3413,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -2322,31 +3448,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -2357,31 +3483,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D21" t="n">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -2392,31 +3518,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D22" t="n">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -2427,31 +3553,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D23" t="n">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24">
@@ -2462,31 +3588,31 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D24" t="n">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
@@ -2497,31 +3623,31 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D25" t="n">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
@@ -2532,31 +3658,31 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -2567,29 +3693,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D27" t="n">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -2600,31 +3726,31 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D28" t="n">
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -2635,31 +3761,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -2670,29 +3796,29 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D30" t="n">
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -2703,29 +3829,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D31" t="n">
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -2736,29 +3862,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="D32" t="n">
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2777,19 +3903,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2801,66 +3927,66 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="Q1" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="R1" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2879,21 +4005,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2915,24 +4041,24 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -2951,22 +4077,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -2985,22 +4111,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3019,24 +4145,24 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -3055,24 +4181,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3091,24 +4217,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -3127,22 +4253,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -3161,24 +4287,24 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -3197,78 +4323,78 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="N12" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="N13" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -3276,117 +4402,117 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="N14" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="N15" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -3405,20 +4531,20 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -3437,24 +4563,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -3473,64 +4599,64 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="N19" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -3549,118 +4675,118 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="N21" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="N22" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -3669,34 +4795,34 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -3715,22 +4841,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -3749,20 +4875,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -3781,22 +4907,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -3815,22 +4941,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -3849,22 +4975,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -3886,41 +5012,41 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C30" t="n">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="U30"/>
       <c r="V30"/>
@@ -3930,47 +5056,47 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C31" t="n">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -3980,32 +5106,32 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C32" t="n">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -4022,42 +5148,42 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -4070,56 +5196,56 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="R34" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="S34"/>
       <c r="T34" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="U34" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="V34"/>
     </row>
@@ -4128,58 +5254,58 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="O35" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="R35" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="U35" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="V35"/>
     </row>
@@ -4188,52 +5314,52 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="U36" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="V36"/>
     </row>
@@ -4242,29 +5368,29 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -4273,12 +5399,12 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="U37"/>
       <c r="V37"/>
@@ -4288,42 +5414,42 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C38" t="n">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J38" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
@@ -4336,19 +5462,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C39" t="n">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -4365,7 +5491,7 @@
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="V39"/>
     </row>
@@ -4374,30 +5500,30 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -4416,38 +5542,38 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C41" t="n">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
@@ -4460,42 +5586,42 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -4508,54 +5634,54 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C43" t="n">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="S43"/>
       <c r="T43" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="U43" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="V43"/>
     </row>
@@ -4564,63 +5690,63 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C44" t="n">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="K44" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="O44" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="S44" t="n">
         <v>88</v>
       </c>
       <c r="T44" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="U44" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="V44" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
@@ -4628,34 +5754,34 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C45" t="n">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -4664,10 +5790,10 @@
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="U45" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="V45"/>
     </row>
@@ -4676,34 +5802,34 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C46" t="n">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -4712,10 +5838,10 @@
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="U46" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="V46"/>
     </row>
@@ -4724,52 +5850,52 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C47" t="n">
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="U47" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="V47"/>
     </row>
@@ -4778,58 +5904,58 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C48" t="n">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="N48" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="P48"/>
       <c r="Q48" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="R48" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="U48" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="V48"/>
     </row>
@@ -4838,52 +5964,52 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C49" t="n">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="U49" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="V49"/>
     </row>
@@ -4892,56 +6018,56 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C50" t="n">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J50" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="N50" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="O50" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="R50" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="V50"/>
     </row>
@@ -4950,52 +6076,52 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C51" t="n">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="K51" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="U51" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="V51"/>
     </row>
@@ -5004,54 +6130,54 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C52" t="n">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="V52"/>
     </row>
@@ -5060,48 +6186,48 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C53" t="n">
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="U53" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="V53"/>
     </row>
@@ -5110,44 +6236,44 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C54" t="n">
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="J54" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="R54"/>
       <c r="S54"/>
@@ -5160,30 +6286,30 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C55" t="n">
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -5191,15 +6317,15 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="U55" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="V55"/>
     </row>
@@ -5208,34 +6334,34 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C56" t="n">
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -5245,7 +6371,7 @@
       <c r="S56"/>
       <c r="T56"/>
       <c r="U56" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="V56"/>
     </row>
@@ -5254,40 +6380,40 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C57" t="n">
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="G57" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -5300,38 +6426,38 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C58" t="n">
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="R58"/>
       <c r="S58"/>
@@ -5344,38 +6470,38 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C59" t="n">
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
@@ -5388,38 +6514,38 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C60" t="n">
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">MetadataID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preProcessingCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code to pre-process the data sets before being integrated into this data set.</t>
   </si>
   <si>
     <t xml:space="preserve">locationID</t>
@@ -818,6 +824,9 @@
   </si>
   <si>
     <t xml:space="preserve">CollectionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Processing Code</t>
   </si>
   <si>
     <t xml:space="preserve">Location</t>
@@ -1963,6 +1972,37 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2029,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -2055,10 +2095,10 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -2066,13 +2106,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -2090,10 +2130,10 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -2123,10 +2163,10 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -2134,14 +2174,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -2157,7 +2197,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -2165,14 +2205,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -2188,7 +2228,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -2196,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
@@ -2221,7 +2261,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -2229,10 +2269,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
@@ -2243,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
@@ -2256,7 +2296,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2325,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -2351,10 +2391,10 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -2362,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -2387,7 +2427,7 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -2395,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2406,7 +2446,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2414,7 +2454,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -2422,13 +2462,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -2447,7 +2487,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -2455,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -2469,7 +2509,7 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -2482,7 +2522,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2490,13 +2530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -2515,7 +2555,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2584,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2611,7 +2651,7 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -2619,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -2635,10 +2675,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2650,7 +2690,7 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -2658,21 +2698,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -2684,10 +2724,10 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2735,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -2712,7 +2752,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -2724,7 +2764,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -2732,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -2757,7 +2797,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -2765,16 +2805,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -2790,7 +2830,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2809,22 +2849,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2836,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2850,23 +2890,23 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -2881,31 +2921,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -2916,23 +2956,23 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
@@ -2947,29 +2987,29 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -2980,29 +3020,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -3013,31 +3053,31 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
@@ -3048,29 +3088,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -3081,29 +3121,29 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
@@ -3114,29 +3154,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -3147,25 +3187,25 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -3176,29 +3216,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -3209,29 +3249,29 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -3242,29 +3282,29 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3275,29 +3315,29 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -3308,31 +3348,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -3343,31 +3383,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
@@ -3378,31 +3418,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
@@ -3413,31 +3453,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -3448,31 +3488,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
       </c>
       <c r="E20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
         <v>202</v>
       </c>
-      <c r="F20" t="s">
+      <c r="K20" t="s">
         <v>203</v>
-      </c>
-      <c r="G20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -3483,31 +3523,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D21" t="n">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -3518,31 +3558,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D22" t="n">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -3553,31 +3593,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D23" t="n">
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24">
@@ -3588,31 +3628,31 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D24" t="n">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
@@ -3623,31 +3663,31 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D25" t="n">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26">
@@ -3658,31 +3698,31 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D26" t="n">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -3693,29 +3733,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D27" t="n">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -3726,31 +3766,31 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D28" t="n">
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -3761,31 +3801,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
@@ -3796,29 +3836,29 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D30" t="n">
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
@@ -3829,29 +3869,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D31" t="n">
         <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
@@ -3862,29 +3902,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D32" t="n">
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3903,19 +3943,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -3927,46 +3967,46 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -4049,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -4085,7 +4125,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -4153,7 +4193,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -4189,7 +4229,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -4225,7 +4265,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -4287,7 +4327,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -4295,14 +4335,12 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
+      <c r="G11"/>
       <c r="H11" t="s">
         <v>32</v>
       </c>
@@ -4323,181 +4361,173 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12"/>
-      <c r="J12" t="s">
-        <v>268</v>
-      </c>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" t="s">
-        <v>269</v>
-      </c>
-      <c r="N12" t="s">
-        <v>270</v>
-      </c>
+      <c r="M12"/>
+      <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12" t="s">
-        <v>268</v>
-      </c>
+      <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12" t="s">
-        <v>271</v>
-      </c>
+      <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13"/>
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="I13"/>
-      <c r="J13"/>
+      <c r="J13" t="s">
+        <v>271</v>
+      </c>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N13" t="s">
         <v>273</v>
-      </c>
-      <c r="N13" t="s">
-        <v>274</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13"/>
+      <c r="Q13" t="s">
+        <v>271</v>
+      </c>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I14"/>
-      <c r="J14" t="s">
-        <v>277</v>
-      </c>
+      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14" t="s">
-        <v>280</v>
-      </c>
+      <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" t="s">
         <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -4505,40 +4535,52 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
         <v>74</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I16"/>
-      <c r="J16"/>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
+      <c r="M16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16" t="s">
+        <v>287</v>
+      </c>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
+      <c r="Q16" t="s">
+        <v>288</v>
+      </c>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16"/>
+      <c r="T16" t="s">
+        <v>289</v>
+      </c>
       <c r="U16"/>
       <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="s">
+        <v>290</v>
+      </c>
       <c r="F17" t="s">
         <v>76</v>
       </c>
@@ -4563,22 +4605,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
+      <c r="G18"/>
       <c r="H18" t="s">
         <v>32</v>
       </c>
@@ -4599,83 +4637,89 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
       </c>
       <c r="I19"/>
-      <c r="J19" t="s">
-        <v>291</v>
-      </c>
+      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" t="s">
-        <v>292</v>
-      </c>
-      <c r="N19" t="s">
-        <v>293</v>
-      </c>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19" t="s">
-        <v>294</v>
-      </c>
+      <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" t="s">
         <v>86</v>
       </c>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
       <c r="I20"/>
-      <c r="J20"/>
+      <c r="J20" t="s">
+        <v>294</v>
+      </c>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
+      <c r="M20" t="s">
+        <v>295</v>
+      </c>
+      <c r="N20" t="s">
+        <v>296</v>
+      </c>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20"/>
+      <c r="Q20" t="s">
+        <v>295</v>
+      </c>
       <c r="R20"/>
       <c r="S20"/>
-      <c r="T20"/>
+      <c r="T20" t="s">
+        <v>297</v>
+      </c>
       <c r="U20"/>
       <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -4683,180 +4727,176 @@
         <v>88</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
+      <c r="F21"/>
+      <c r="G21"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I21"/>
-      <c r="J21" t="s">
-        <v>295</v>
-      </c>
+      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" t="s">
-        <v>296</v>
-      </c>
-      <c r="N21" t="s">
-        <v>297</v>
-      </c>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" t="s">
-        <v>298</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
-      <c r="T21" t="s">
-        <v>299</v>
-      </c>
+      <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="G22" t="s">
-        <v>93</v>
-      </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U22"/>
       <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
         <v>95</v>
-      </c>
-      <c r="E23" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>97</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="M23" t="s">
+        <v>305</v>
+      </c>
+      <c r="N23" t="s">
+        <v>306</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U23"/>
       <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" t="s">
         <v>98</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>310</v>
+      </c>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24"/>
+      <c r="Q24" t="s">
+        <v>311</v>
+      </c>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24"/>
+      <c r="T24" t="s">
+        <v>312</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -4875,20 +4915,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26"/>
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -4907,22 +4949,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G27"/>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -4941,19 +4981,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -4975,22 +5015,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
         <v>119</v>
       </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -5009,45 +5049,35 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
       <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E30"/>
       <c r="F30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30"/>
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" t="s">
-        <v>311</v>
-      </c>
+      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30" t="s">
-        <v>312</v>
-      </c>
+      <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30" t="s">
-        <v>129</v>
-      </c>
+      <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
     </row>
@@ -5056,38 +5086,32 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
         <v>132</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>133</v>
       </c>
-      <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" t="s">
-        <v>135</v>
-      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" t="s">
-        <v>136</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>313</v>
-      </c>
-      <c r="N31" t="s">
         <v>314</v>
       </c>
+      <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31" t="s">
@@ -5096,7 +5120,7 @@
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -5106,40 +5130,48 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
         <v>138</v>
       </c>
-      <c r="E32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="s">
-        <v>317</v>
-      </c>
+      <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="s">
-        <v>318</v>
-      </c>
-      <c r="N32"/>
+        <v>316</v>
+      </c>
+      <c r="N32" t="s">
+        <v>317</v>
+      </c>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32"/>
+      <c r="Q32" t="s">
+        <v>318</v>
+      </c>
       <c r="R32"/>
       <c r="S32"/>
-      <c r="T32"/>
+      <c r="T32" t="s">
+        <v>319</v>
+      </c>
       <c r="U32"/>
       <c r="V32"/>
     </row>
@@ -5148,43 +5180,37 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
         <v>141</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>142</v>
-      </c>
-      <c r="F33" t="s">
-        <v>143</v>
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I33"/>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>319</v>
-      </c>
-      <c r="N33" t="s">
-        <v>141</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" t="s">
-        <v>320</v>
-      </c>
+      <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -5196,57 +5222,47 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
         <v>145</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>148</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>321</v>
-      </c>
-      <c r="K34" t="s">
-        <v>322</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K34"/>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
-      </c>
-      <c r="O34" t="s">
-        <v>325</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>326</v>
-      </c>
-      <c r="R34" t="s">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="R34"/>
       <c r="S34"/>
-      <c r="T34" t="s">
-        <v>328</v>
-      </c>
-      <c r="U34" t="s">
-        <v>329</v>
-      </c>
+      <c r="T34"/>
+      <c r="U34"/>
       <c r="V34"/>
     </row>
     <row r="35">
@@ -5254,58 +5270,56 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
         <v>151</v>
       </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" t="s">
-        <v>136</v>
-      </c>
       <c r="J35" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P35"/>
       <c r="Q35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="R35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S35"/>
       <c r="T35" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="U35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="V35"/>
     </row>
@@ -5314,52 +5328,58 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
         <v>154</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36"/>
+      <c r="G36" t="s">
+        <v>137</v>
+      </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s">
-        <v>340</v>
-      </c>
-      <c r="O36"/>
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>337</v>
+      </c>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>341</v>
-      </c>
-      <c r="R36"/>
+        <v>338</v>
+      </c>
+      <c r="R36" t="s">
+        <v>334</v>
+      </c>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="U36" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="V36"/>
     </row>
@@ -5368,34 +5388,40 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
         <v>158</v>
-      </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="s">
+        <v>342</v>
+      </c>
+      <c r="N37" t="s">
         <v>343</v>
       </c>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
@@ -5406,7 +5432,9 @@
       <c r="T37" t="s">
         <v>345</v>
       </c>
-      <c r="U37"/>
+      <c r="U37" t="s">
+        <v>339</v>
+      </c>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -5414,46 +5442,44 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
         <v>162</v>
-      </c>
-      <c r="E38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>164</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J38" t="s">
         <v>346</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38" t="s">
-        <v>347</v>
-      </c>
-      <c r="N38" t="s">
-        <v>348</v>
-      </c>
+      <c r="M38"/>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38"/>
+      <c r="T38" t="s">
+        <v>348</v>
+      </c>
       <c r="U38"/>
       <c r="V38"/>
     </row>
@@ -5462,37 +5488,47 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
         <v>165</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>166</v>
       </c>
-      <c r="F39" t="s">
-        <v>167</v>
-      </c>
       <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
+      <c r="H39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s">
+        <v>151</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="M39" t="s">
+        <v>350</v>
+      </c>
+      <c r="N39" t="s">
+        <v>351</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
-      <c r="Q39"/>
+      <c r="Q39" t="s">
+        <v>352</v>
+      </c>
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
-      <c r="U39" t="s">
-        <v>350</v>
-      </c>
+      <c r="U39"/>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -5500,31 +5536,25 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
         <v>168</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>169</v>
       </c>
-      <c r="F40" t="s">
-        <v>170</v>
-      </c>
       <c r="G40"/>
-      <c r="H40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s">
-        <v>171</v>
-      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40"/>
-      <c r="K40" t="s">
-        <v>351</v>
-      </c>
+      <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -5534,7 +5564,9 @@
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
-      <c r="U40"/>
+      <c r="U40" t="s">
+        <v>353</v>
+      </c>
       <c r="V40"/>
     </row>
     <row r="41">
@@ -5542,39 +5574,37 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
         <v>172</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" t="s">
-        <v>174</v>
       </c>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="J41"/>
-      <c r="K41"/>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
       <c r="L41"/>
-      <c r="M41" t="s">
-        <v>352</v>
-      </c>
+      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="s">
-        <v>353</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -5586,42 +5616,38 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" t="s">
         <v>175</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>176</v>
-      </c>
-      <c r="F42" t="s">
-        <v>177</v>
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" t="s">
-        <v>354</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
         <v>355</v>
       </c>
-      <c r="N42" t="s">
-        <v>356</v>
-      </c>
+      <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -5634,55 +5660,47 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>179</v>
-      </c>
-      <c r="E43" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" t="s">
-        <v>181</v>
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
-      </c>
-      <c r="K43" t="s">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
+        <v>358</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" t="s">
         <v>360</v>
       </c>
-      <c r="N43" t="s">
-        <v>361</v>
-      </c>
-      <c r="O43" t="s">
-        <v>362</v>
-      </c>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43" t="s">
-        <v>363</v>
-      </c>
+      <c r="R43"/>
       <c r="S43"/>
-      <c r="T43" t="s">
-        <v>364</v>
-      </c>
-      <c r="U43" t="s">
-        <v>365</v>
-      </c>
+      <c r="T43"/>
+      <c r="U43"/>
       <c r="V43"/>
     </row>
     <row r="44">
@@ -5690,146 +5708,154 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" t="s">
         <v>182</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>183</v>
       </c>
-      <c r="F44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
-      </c>
-      <c r="L44" t="s">
-        <v>367</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="L44"/>
       <c r="M44" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>363</v>
-      </c>
-      <c r="S44" t="n">
-        <v>88</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="S44"/>
       <c r="T44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U44" t="s">
-        <v>365</v>
-      </c>
-      <c r="V44" t="s">
-        <v>371</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="V44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
         <v>185</v>
       </c>
-      <c r="C45" t="n">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>186</v>
       </c>
-      <c r="E45" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" t="s">
-        <v>188</v>
-      </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+        <v>138</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>370</v>
+      </c>
       <c r="M45" t="s">
+        <v>371</v>
+      </c>
+      <c r="N45" t="s">
         <v>372</v>
       </c>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="O45" t="s">
+        <v>365</v>
+      </c>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
+      <c r="R45" t="s">
+        <v>366</v>
+      </c>
+      <c r="S45" t="n">
+        <v>88</v>
+      </c>
       <c r="T45" t="s">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="U45" t="s">
-        <v>373</v>
-      </c>
-      <c r="V45"/>
+        <v>368</v>
+      </c>
+      <c r="V45" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s">
         <v>192</v>
-      </c>
-      <c r="E46" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" t="s">
-        <v>136</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -5838,7 +5864,7 @@
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46" t="s">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="U46" t="s">
         <v>376</v>
@@ -5850,52 +5876,46 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
         <v>195</v>
       </c>
-      <c r="C47" t="n">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>196</v>
       </c>
-      <c r="E47" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" t="s">
-        <v>198</v>
-      </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="J47"/>
-      <c r="K47" t="s">
-        <v>377</v>
-      </c>
+      <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="N47"/>
-      <c r="O47" t="s">
-        <v>378</v>
-      </c>
+      <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>379</v>
-      </c>
+      <c r="R47"/>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="U47" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V47"/>
     </row>
@@ -5904,58 +5924,52 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s">
         <v>202</v>
       </c>
-      <c r="E48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F48" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I48" t="s">
-        <v>200</v>
-      </c>
-      <c r="J48" t="s">
-        <v>202</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>202</v>
-      </c>
-      <c r="N48" t="s">
-        <v>202</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N48"/>
       <c r="O48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P48"/>
-      <c r="Q48" t="s">
-        <v>381</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U48" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="V48"/>
     </row>
@@ -5964,52 +5978,58 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
         <v>205</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>206</v>
       </c>
-      <c r="F49" t="s">
-        <v>207</v>
-      </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
-      </c>
-      <c r="J49"/>
+        <v>202</v>
+      </c>
+      <c r="J49" t="s">
+        <v>204</v>
+      </c>
       <c r="K49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>205</v>
-      </c>
-      <c r="N49"/>
+        <v>204</v>
+      </c>
+      <c r="N49" t="s">
+        <v>204</v>
+      </c>
       <c r="O49" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P49"/>
-      <c r="Q49"/>
+      <c r="Q49" t="s">
+        <v>384</v>
+      </c>
       <c r="R49" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S49"/>
       <c r="T49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="V49"/>
     </row>
@@ -6018,56 +6038,52 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="s">
         <v>208</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>209</v>
       </c>
-      <c r="F50" t="s">
-        <v>210</v>
-      </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" t="s">
-        <v>382</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J50"/>
       <c r="K50" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>383</v>
-      </c>
-      <c r="N50" t="s">
-        <v>384</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N50"/>
       <c r="O50" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P50"/>
-      <c r="Q50" t="s">
-        <v>386</v>
-      </c>
+      <c r="Q50"/>
       <c r="R50" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="S50"/>
-      <c r="T50"/>
+      <c r="T50" t="s">
+        <v>207</v>
+      </c>
       <c r="U50" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="V50"/>
     </row>
@@ -6076,52 +6092,56 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" t="s">
         <v>211</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>212</v>
       </c>
-      <c r="F51" t="s">
-        <v>213</v>
-      </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
+        <v>386</v>
+      </c>
+      <c r="N51" t="s">
+        <v>387</v>
+      </c>
+      <c r="O51" t="s">
+        <v>388</v>
+      </c>
+      <c r="P51"/>
+      <c r="Q51" t="s">
         <v>389</v>
       </c>
-      <c r="N51"/>
-      <c r="O51" t="s">
-        <v>385</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
+      <c r="R51" t="s">
+        <v>382</v>
+      </c>
       <c r="S51"/>
-      <c r="T51" t="s">
-        <v>390</v>
-      </c>
+      <c r="T51"/>
       <c r="U51" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="V51"/>
     </row>
@@ -6130,54 +6150,52 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" t="s">
         <v>214</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>215</v>
       </c>
-      <c r="F52" t="s">
-        <v>216</v>
-      </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
         <v>391</v>
-      </c>
-      <c r="K52" t="s">
-        <v>377</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
         <v>392</v>
       </c>
-      <c r="N52" t="s">
-        <v>393</v>
-      </c>
+      <c r="N52"/>
       <c r="O52" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52" t="s">
-        <v>379</v>
-      </c>
+      <c r="R52"/>
       <c r="S52"/>
-      <c r="T52"/>
+      <c r="T52" t="s">
+        <v>393</v>
+      </c>
       <c r="U52" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="V52"/>
     </row>
@@ -6186,48 +6204,54 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
         <v>217</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>218</v>
       </c>
-      <c r="F53" t="s">
-        <v>219</v>
-      </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53"/>
+        <v>138</v>
+      </c>
+      <c r="J53" t="s">
+        <v>394</v>
+      </c>
+      <c r="K53" t="s">
+        <v>380</v>
+      </c>
       <c r="L53"/>
       <c r="M53" t="s">
-        <v>394</v>
-      </c>
-      <c r="N53"/>
+        <v>395</v>
+      </c>
+      <c r="N53" t="s">
+        <v>396</v>
+      </c>
       <c r="O53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="s">
+        <v>382</v>
+      </c>
       <c r="S53"/>
-      <c r="T53" t="s">
-        <v>395</v>
-      </c>
+      <c r="T53"/>
       <c r="U53" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="V53"/>
     </row>
@@ -6236,49 +6260,49 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" t="s">
         <v>220</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>221</v>
       </c>
-      <c r="F54" t="s">
-        <v>222</v>
-      </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
-      </c>
-      <c r="J54" t="s">
-        <v>396</v>
-      </c>
-      <c r="K54" t="s">
-        <v>377</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
       <c r="L54"/>
-      <c r="M54"/>
+      <c r="M54" t="s">
+        <v>397</v>
+      </c>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="P54"/>
-      <c r="Q54" t="s">
-        <v>397</v>
-      </c>
+      <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
+      <c r="T54" t="s">
+        <v>398</v>
+      </c>
+      <c r="U54" t="s">
+        <v>388</v>
+      </c>
       <c r="V54"/>
     </row>
     <row r="55">
@@ -6286,47 +6310,49 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="n">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
         <v>223</v>
       </c>
-      <c r="C55" t="n">
-        <v>60</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>224</v>
       </c>
-      <c r="E55" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55"/>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
-      </c>
-      <c r="J55"/>
+        <v>138</v>
+      </c>
+      <c r="J55" t="s">
+        <v>399</v>
+      </c>
       <c r="K55" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="O55"/>
+      <c r="O55" t="s">
+        <v>381</v>
+      </c>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55" t="s">
-        <v>400</v>
-      </c>
-      <c r="U55" t="s">
-        <v>401</v>
-      </c>
+      <c r="T55"/>
+      <c r="U55"/>
       <c r="V55"/>
     </row>
     <row r="56">
@@ -6334,44 +6360,46 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C56" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" t="s">
         <v>227</v>
       </c>
-      <c r="E56" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56"/>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s">
         <v>228</v>
       </c>
-      <c r="G56" t="s">
-        <v>229</v>
-      </c>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
       <c r="J56"/>
-      <c r="K56"/>
+      <c r="K56" t="s">
+        <v>401</v>
+      </c>
       <c r="L56"/>
-      <c r="M56" t="s">
-        <v>227</v>
-      </c>
+      <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
-      <c r="Q56"/>
+      <c r="Q56" t="s">
+        <v>402</v>
+      </c>
       <c r="R56"/>
       <c r="S56"/>
-      <c r="T56"/>
+      <c r="T56" t="s">
+        <v>403</v>
+      </c>
       <c r="U56" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="V56"/>
     </row>
@@ -6380,45 +6408,45 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" t="s">
         <v>231</v>
       </c>
-      <c r="E57" t="s">
-        <v>232</v>
-      </c>
-      <c r="F57" t="s">
-        <v>233</v>
-      </c>
-      <c r="G57" t="s">
-        <v>234</v>
-      </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" t="s">
-        <v>402</v>
-      </c>
+      <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
-      <c r="U57"/>
+      <c r="U57" t="s">
+        <v>404</v>
+      </c>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -6426,38 +6454,40 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C58" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s">
         <v>237</v>
-      </c>
-      <c r="E58" t="s">
-        <v>238</v>
-      </c>
-      <c r="F58" t="s">
-        <v>239</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" t="s">
-        <v>240</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="R58"/>
       <c r="S58"/>
@@ -6470,38 +6500,38 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" t="s">
         <v>241</v>
-      </c>
-      <c r="E59" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" t="s">
-        <v>243</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I59" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
@@ -6514,13 +6544,13 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C60" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
         <v>244</v>
@@ -6530,22 +6560,22 @@
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60" t="s">
-        <v>405</v>
+        <v>243</v>
       </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -6553,6 +6583,50 @@
       <c r="U60"/>
       <c r="V60"/>
     </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" t="n">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s">
+        <v>248</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61" t="s">
+        <v>408</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61" t="s">
+        <v>409</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -1,214 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F11F50-055D-4812-96C6-E1782DB3AEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RecordLevel" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeasurementOrFact" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="VariableCV" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Crosswalk" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RecordLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Event" sheetId="3" r:id="rId3"/>
+    <sheet name="MeasurementOrFact" sheetId="4" r:id="rId4"/>
+    <sheet name="VariableCV" sheetId="5" r:id="rId5"/>
+    <sheet name="Crosswalk" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
-  <si>
-    <t xml:space="preserve">TermID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForeginKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ControlledVocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ControlledVocabularyAPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinimamPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaximamPossibleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DarwinCoreTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DarwinCoreClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODM2Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODMTable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecordLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The nature or genre of the resource.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will be "Water Quality and Physical Habitat Structure" for all values in this data set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/datasettype/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/datasettype/?format=skos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name identifying the data set from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPA NARS 2018 dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibilographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The most recent date-time on which the datasets were combind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetOrginization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the institution having custody of the object(s) or information referred to in the record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetOrginization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetOrginizationCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetOrginizationCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the collection or dataset from which the record was derived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.epa.gov/national-aquatic-resource-surveys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metadataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer identifier referencing the record in the ISOMetadata table for this source.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetadataID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preProcessingCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code to pre-process the data sets before being integrated into this data set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the set of location information. Must be a global unique identifier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingFeatureID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingFeature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimLocationID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="410">
+  <si>
+    <t>TermID</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+  </si>
+  <si>
+    <t>ForeginKey</t>
+  </si>
+  <si>
+    <t>ControlledVocabulary</t>
+  </si>
+  <si>
+    <t>ControlledVocabularyAPI</t>
+  </si>
+  <si>
+    <t>MinimamPossibleValue</t>
+  </si>
+  <si>
+    <t>MaximamPossibleValue</t>
+  </si>
+  <si>
+    <t>DarwinCoreTerm</t>
+  </si>
+  <si>
+    <t>DarwinCoreClass</t>
+  </si>
+  <si>
+    <t>ODM2Term</t>
+  </si>
+  <si>
+    <t>ODMTable</t>
+  </si>
+  <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>datasetType</t>
+  </si>
+  <si>
+    <t>The nature or genre of the resource.</t>
+  </si>
+  <si>
+    <t>This will be "Water Quality and Physical Habitat Structure" for all values in this data set.</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/datasettype/</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/api/v1/datasettype/?format=skos</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>DatasetType</t>
+  </si>
+  <si>
+    <t>datasetTitle</t>
+  </si>
+  <si>
+    <t>The name identifying the data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t>EPA NARS 2018 dataset</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>DatasetTitle</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
+  </si>
+  <si>
+    <t>bibilographicCitation</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>The most recent date-time on which the datasets were combind.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>datasetOrginization</t>
+  </si>
+  <si>
+    <t>An identifier for the institution having custody of the object(s) or information referred to in the record.</t>
+  </si>
+  <si>
+    <t>http://biocol.org/urn:lsid:biocol.org:col:34777, http://grbio.org/cool/km06-gtbn</t>
+  </si>
+  <si>
+    <t>DatasetOrginization</t>
+  </si>
+  <si>
+    <t>datasetOrginizationCode</t>
+  </si>
+  <si>
+    <t>The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record</t>
+  </si>
+  <si>
+    <t>BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>DatasetOrginizationCode</t>
+  </si>
+  <si>
+    <t>datasetLink</t>
+  </si>
+  <si>
+    <t>An identifier for the collection or dataset from which the record was derived.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/national-aquatic-resource-surveys</t>
+  </si>
+  <si>
+    <t>metadataID</t>
+  </si>
+  <si>
+    <t>Integer identifier referencing the record in the ISOMetadata table for this source.</t>
+  </si>
+  <si>
+    <t>MetadataID</t>
+  </si>
+  <si>
+    <t>preProcessingCode</t>
+  </si>
+  <si>
+    <t>Code to pre-process the data sets before being integrated into this data set.</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>An identifier for the set of location information. Must be a global unique identifier.</t>
+  </si>
+  <si>
+    <t>5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t>SamplingFeatureID</t>
+  </si>
+  <si>
+    <t>SamplingFeature</t>
+  </si>
+  <si>
+    <t>verbatimLocationID</t>
   </si>
   <si>
     <t xml:space="preserve">Verbatim from the orgial data set  code or number that identifies a unique sampling location. A site is a stream segment with a fixed starting and ending location for sampling. Code will remain the same across all sampling events.
@@ -216,68 +224,68 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5483, 88693. WtR563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimSamplingFeatureID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the water body in which the Location occurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingFeatureName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatialReferenceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locationDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of the location the latitude and longitude represent. For this data type it is a location take at the bottom of the sampling reach, the middle of the sampling reach or the top of the sampling reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BottomOfReach, MiddleOfReach, TopOfReach, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventID</t>
+    <t>5483, 88693. WtR563</t>
+  </si>
+  <si>
+    <t>verbatimSamplingFeatureID</t>
+  </si>
+  <si>
+    <t>waterBody</t>
+  </si>
+  <si>
+    <t>The name of the water body in which the Location occurs.</t>
+  </si>
+  <si>
+    <t>samplingFeatureName</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.</t>
+  </si>
+  <si>
+    <t>spatialReferenceID</t>
+  </si>
+  <si>
+    <t>The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based.</t>
+  </si>
+  <si>
+    <t>locationDescription</t>
+  </si>
+  <si>
+    <t>Description of the location the latitude and longitude represent. For this data type it is a location take at the bottom of the sampling reach, the middle of the sampling reach or the top of the sampling reach.</t>
+  </si>
+  <si>
+    <t>BottomOfReach, MiddleOfReach, TopOfReach, Other</t>
+  </si>
+  <si>
+    <t>eventID</t>
   </si>
   <si>
     <t xml:space="preserve">This is the identifier for an Event (something that occurs at a place and time). Must be a global unique identifer. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbatimEventID</t>
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002-PIBO</t>
+  </si>
+  <si>
+    <t>actionID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>verbatimEventID</t>
   </si>
   <si>
     <t xml:space="preserve">Verbatim from the orgial data set unique identifer that represents a single samping occurance at location. 
@@ -285,982 +293,981 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/actiontype/?format=skos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beginDataTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded. Not suitable for a time in a geological context. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E). Format YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samplingProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of, reference to, or description of the method or protocol used during an Event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wadable, Botable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The four-digit year in which the Event occurred, according to the Common Era Calendar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique integer identifier for each
+    <t>FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
+  </si>
+  <si>
+    <t>actionType</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/api/v1/actiontype/?format=skos</t>
+  </si>
+  <si>
+    <t>beginDataTime</t>
+  </si>
+  <si>
+    <t>The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded. Not suitable for a time in a geological context. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E). Format YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>23078</t>
+  </si>
+  <si>
+    <t>samplingProtocol</t>
+  </si>
+  <si>
+    <t>The name of, reference to, or description of the method or protocol used during an Event.</t>
+  </si>
+  <si>
+    <t>UV light trap, "mist net", "bottom trawl", "ad hoc observation", "point count", "Penguins from space: faecal stains reveal the location of emperor penguin colonies, http://dx.doi.org/10.1111/j.1466-8238.2009.00467.x", "Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.", "http://www.bsc-eoc.org/download/Owl.pdf"</t>
+  </si>
+  <si>
+    <t>Wadable, Botable</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>The four-digit year in which the Event occurred, according to the Common Era Calendar.</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>resultID</t>
+  </si>
+  <si>
+    <t>Unique integer identifier for each
 data value.</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultTypeCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The nature of the measurement, fact, characteristic, or assertion. Recommended best practice is to use a controlled vocabulary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tail length, "temperature", "trap line length", "survey area", "trap type"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/resulttype/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/resulttype/?format=skos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variableID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/rascully/Stream-Monitoring-Data-Exchange-Specifications/blob/master/Tables/ControlledVocabulary.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VariableID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL of the MonitoringResources.rog field and if avilable calcuation method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/api/v1/methods/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementRemarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments or notes accompanying the MeasurementOrFact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip of tail missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45, "20", "1", "14.5", "UV-light"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoryID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the reach that was dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Sign at Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver value from the provider dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of transects in the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREMPAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewAIMField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIMAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSACollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRSAAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOCollectionMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIBOAnalysisMethodID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bibliographicCitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstitutionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institution Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollectionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Processing Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS_CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Name From The Data Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_NM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lattitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiddleReachLatitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiddleReachLongitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LON_DD83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geodeticDatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the Dataset Location Identification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_survey_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaluationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldEvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRTCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALXSITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementOrFact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVR_SGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctSlope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolReachLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullHeightAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WettedWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResPoolDepthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBDTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>resultTypeCV</t>
+  </si>
+  <si>
+    <t>The nature of the measurement, fact, characteristic, or assertion. Recommended best practice is to use a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>tail length, "temperature", "trap line length", "survey area", "trap type"</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/resulttype/</t>
+  </si>
+  <si>
+    <t>http://vocabulary.odm2.org/api/v1/resulttype/?format=skos</t>
+  </si>
+  <si>
+    <t>variableID</t>
+  </si>
+  <si>
+    <t>An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set.</t>
+  </si>
+  <si>
+    <t>https://github.com/rascully/Stream-Monitoring-Data-Exchange-Specifications/blob/master/Tables/ControlledVocabulary.csv</t>
+  </si>
+  <si>
+    <t>VariableID</t>
+  </si>
+  <si>
+    <t>methodID</t>
+  </si>
+  <si>
+    <t>A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t>URL of the MonitoringResources.rog field and if avilable calcuation method</t>
+  </si>
+  <si>
+    <t>https://www.monitoringresources.org/api/v1/methods/</t>
+  </si>
+  <si>
+    <t>measurementRemarks</t>
+  </si>
+  <si>
+    <t>Comments or notes accompanying the MeasurementOrFact.</t>
+  </si>
+  <si>
+    <t>tip of tail missing</t>
+  </si>
+  <si>
+    <t>dataValue</t>
+  </si>
+  <si>
+    <t>The value of the measurement, fact, characteristic, or assertion.</t>
+  </si>
+  <si>
+    <t>45, "20", "1", "14.5", "UV-light"</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>measurementType</t>
+  </si>
+  <si>
+    <t>measurementID</t>
+  </si>
+  <si>
+    <t>LongName</t>
+  </si>
+  <si>
+    <t>measurementUnit</t>
+  </si>
+  <si>
+    <t>Channel Characteristics</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t>Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t>PctDry</t>
+  </si>
+  <si>
+    <t>Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t>Percent of the reach that was dry</t>
+  </si>
+  <si>
+    <t>min: 0, max: 100</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Beaver</t>
+  </si>
+  <si>
+    <t>Beaver Sign at Reach</t>
+  </si>
+  <si>
+    <t>Beaver value from the provider dataset.</t>
+  </si>
+  <si>
+    <t>StreamOrder</t>
+  </si>
+  <si>
+    <t>Stream Order</t>
+  </si>
+  <si>
+    <t>Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Channel dimensions</t>
+  </si>
+  <si>
+    <t>BFWidth</t>
+  </si>
+  <si>
+    <t>Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t>Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>Gradient of stream reach</t>
+  </si>
+  <si>
+    <t>Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t>ReachLen</t>
+  </si>
+  <si>
+    <t>Length of sampling reach</t>
+  </si>
+  <si>
+    <t>Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t>Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t>Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BFHeight</t>
+  </si>
+  <si>
+    <t>Bankfull Height</t>
+  </si>
+  <si>
+    <t>Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t>countTransects</t>
+  </si>
+  <si>
+    <t>Count of Transects</t>
+  </si>
+  <si>
+    <t>Number of transects in the reach.</t>
+  </si>
+  <si>
+    <t>countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t>Count of cross sections</t>
+  </si>
+  <si>
+    <t>Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t>count of measurments</t>
+  </si>
+  <si>
+    <t>MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t>Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t>Mean thalweg depth. Metric of how deep water was at the site.</t>
+  </si>
+  <si>
+    <t>WetWidth</t>
+  </si>
+  <si>
+    <t>Average wetted width from transects</t>
+  </si>
+  <si>
+    <t>Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t>Pools</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>Residual pool depth</t>
+  </si>
+  <si>
+    <t>Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t>PctPool</t>
+  </si>
+  <si>
+    <t>Percent pools</t>
+  </si>
+  <si>
+    <t>Percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t>Streambanks</t>
+  </si>
+  <si>
+    <t>BankAngle</t>
+  </si>
+  <si>
+    <t>Bank angle</t>
+  </si>
+  <si>
+    <t>Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t>min: 0, max: 180</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>PctStab</t>
+  </si>
+  <si>
+    <t>Percent stable banks</t>
+  </si>
+  <si>
+    <t>Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t>Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t>PctFines2</t>
+  </si>
+  <si>
+    <t>Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t>Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines2</t>
+  </si>
+  <si>
+    <t>Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>PctFines6</t>
+  </si>
+  <si>
+    <t>Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t>Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t>PoolTailFines6</t>
+  </si>
+  <si>
+    <t>Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t>Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t>PctBdrk</t>
+  </si>
+  <si>
+    <t>Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t>Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t>Water chemistry</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Measured pH value</t>
+  </si>
+  <si>
+    <t>min: 0, max: 14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>SpecificConductance</t>
+  </si>
+  <si>
+    <t>Specific Conductance</t>
+  </si>
+  <si>
+    <t>Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t>min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>65500</t>
+  </si>
+  <si>
+    <t>TotalNitrogen</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>TotalPhosphorous</t>
+  </si>
+  <si>
+    <t>Total Phosphorous</t>
+  </si>
+  <si>
+    <t>Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>AREMPField</t>
+  </si>
+  <si>
+    <t>AREMPCollectionMethodID</t>
+  </si>
+  <si>
+    <t>AREMPAnalysisMethodID</t>
+  </si>
+  <si>
+    <t>AIMField</t>
+  </si>
+  <si>
+    <t>NewAIMField</t>
+  </si>
+  <si>
+    <t>AIMCollectionMethodID</t>
+  </si>
+  <si>
+    <t>AIMAnalysisMethodID</t>
+  </si>
+  <si>
+    <t>NRSAField</t>
+  </si>
+  <si>
+    <t>NRSACollectionMethodID</t>
+  </si>
+  <si>
+    <t>NRSAAnalysisMethodID</t>
+  </si>
+  <si>
+    <t>PIBOField</t>
+  </si>
+  <si>
+    <t>PIBOCollectionMethodID</t>
+  </si>
+  <si>
+    <t>PIBOAnalysisMethodID</t>
+  </si>
+  <si>
+    <t>Dataset Name</t>
+  </si>
+  <si>
+    <t>bibliographicCitation</t>
+  </si>
+  <si>
+    <t>InstitutionID</t>
+  </si>
+  <si>
+    <t>Institution Code</t>
+  </si>
+  <si>
+    <t>CollectionID</t>
+  </si>
+  <si>
+    <t>Pre Processing Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Location Identification</t>
+  </si>
+  <si>
+    <t>Site Identification</t>
+  </si>
+  <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>MS_CD</t>
+  </si>
+  <si>
+    <t>PointID</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>Stream Name From The Data Set</t>
+  </si>
+  <si>
+    <t>STRM_NM</t>
+  </si>
+  <si>
+    <t>StreamName</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Standard Latitude</t>
+  </si>
+  <si>
+    <t>lattitude</t>
+  </si>
+  <si>
+    <t>MIDLAT</t>
+  </si>
+  <si>
+    <t>MiddleReachLatitude</t>
+  </si>
+  <si>
+    <t>LAT_DD83</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Standard Longitude</t>
+  </si>
+  <si>
+    <t>MIDLONG</t>
+  </si>
+  <si>
+    <t>MiddleReachLongitude</t>
+  </si>
+  <si>
+    <t>LON_DD83</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>geodeticDatum</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event Identification</t>
+  </si>
+  <si>
+    <t>From the Dataset Location Identification</t>
+  </si>
+  <si>
+    <t>site_survey_id</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>EvaluationID</t>
+  </si>
+  <si>
+    <t>RchID</t>
+  </si>
+  <si>
+    <t>survey_date</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>FieldEvalDate</t>
+  </si>
+  <si>
+    <t>DATE_COL</t>
+  </si>
+  <si>
+    <t>SampDate</t>
+  </si>
+  <si>
+    <t>Sampling Protocol</t>
+  </si>
+  <si>
+    <t>survey_type</t>
+  </si>
+  <si>
+    <t>PRTCL</t>
+  </si>
+  <si>
+    <t>ProtocolVersion</t>
+  </si>
+  <si>
+    <t>VALXSITE</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sample Year</t>
+  </si>
+  <si>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>MeasurementOrFact</t>
+  </si>
+  <si>
+    <t>SNSTY</t>
+  </si>
+  <si>
+    <t>SINU</t>
+  </si>
+  <si>
+    <t>PCT_DRY</t>
+  </si>
+  <si>
+    <t>PctDru</t>
+  </si>
+  <si>
+    <t>PCT_DRS</t>
+  </si>
+  <si>
+    <t>StrmFlow</t>
+  </si>
+  <si>
+    <t>beaver_impacted</t>
+  </si>
+  <si>
+    <t>BVR_SGN</t>
+  </si>
+  <si>
+    <t>STRM_ORDR</t>
+  </si>
+  <si>
+    <t>STRAHLERORDER</t>
+  </si>
+  <si>
+    <t>average_bfwidth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t>BNKFLL_WT</t>
+  </si>
+  <si>
+    <t>BankfullWidthAvg</t>
+  </si>
+  <si>
+    <t>https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t>XBKF_W</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t>SLPE</t>
+  </si>
+  <si>
+    <t>PctSlope</t>
+  </si>
+  <si>
+    <t>https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t>XSLOPE</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t>REACH_LENGTH</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t>TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t>ProtocolReachLength</t>
+  </si>
+  <si>
+    <t>REACHLEN</t>
+  </si>
+  <si>
+    <t>RchLen</t>
+  </si>
+  <si>
+    <t>ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t>BFWD_RAT</t>
+  </si>
+  <si>
+    <t>WDTrans</t>
+  </si>
+  <si>
+    <t>average_bfdepth</t>
+  </si>
+  <si>
+    <t>BNKFLL_HT</t>
+  </si>
+  <si>
+    <t>BankfullHeightAvg</t>
+  </si>
+  <si>
+    <t>XBKF_H</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/65</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3806</t>
+  </si>
+  <si>
+    <t>ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t>XDEPTH_CM</t>
+  </si>
+  <si>
+    <t>wettedWidth_ave</t>
+  </si>
+  <si>
+    <t>WTTD_WT</t>
+  </si>
+  <si>
+    <t>WettedWidthAvg</t>
+  </si>
+  <si>
+    <t>XWIDTH</t>
+  </si>
+  <si>
+    <t>ave_residual_depth</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t>RES_PL_DEP</t>
+  </si>
+  <si>
+    <t>ResPoolDepthAvg</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6875</t>
+  </si>
+  <si>
+    <t>PoolDp</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t>PctReachInPools</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t>PCT_PL</t>
+  </si>
+  <si>
+    <t>PctPools</t>
+  </si>
+  <si>
+    <t>PoolPct</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t>BNK_AN</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t>BNK_STBLTY</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t>Sub_dmm</t>
+  </si>
+  <si>
+    <t>pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t>PCT_FN</t>
+  </si>
+  <si>
+    <t>PctFinesLessThan2mm</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t>PCT_SAFN</t>
+  </si>
+  <si>
+    <t>pool_fines</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t>PL_TL_FN</t>
+  </si>
+  <si>
+    <t>PTFines2</t>
+  </si>
+  <si>
+    <t>pect_fines_tran6</t>
+  </si>
+  <si>
+    <t>PCT_FN6</t>
+  </si>
+  <si>
+    <t>PctFinesLessThan6mm</t>
+  </si>
+  <si>
+    <t>PL_TL_FN6</t>
+  </si>
+  <si>
+    <t>PTFines6</t>
+  </si>
+  <si>
+    <t>bedrock_pcnt</t>
+  </si>
+  <si>
+    <t>PCT_BDRK</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/5537</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>TRBDTY</t>
+  </si>
+  <si>
+    <t>TURB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1296,6 +1303,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1577,14 +1593,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1631,8 +1653,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1641,16 +1663,12 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>19</v>
       </c>
@@ -1663,13 +1681,12 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2"/>
       <c r="O2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1684,7 +1701,6 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -1713,8 +1729,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1729,10 +1745,6 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
       <c r="J4" t="s">
         <v>19</v>
       </c>
@@ -1752,8 +1764,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1762,14 +1774,9 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5"/>
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5" t="s">
         <v>19</v>
       </c>
@@ -1782,13 +1789,12 @@
       <c r="M5" t="s">
         <v>20</v>
       </c>
-      <c r="N5"/>
       <c r="O5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1797,14 +1803,9 @@
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6"/>
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>19</v>
       </c>
@@ -1817,13 +1818,12 @@
       <c r="M6" t="s">
         <v>20</v>
       </c>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -1838,17 +1838,12 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7"/>
       <c r="M7" t="s">
         <v>20</v>
       </c>
@@ -1859,8 +1854,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -1875,10 +1870,6 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
       <c r="J8" t="s">
         <v>19</v>
       </c>
@@ -1898,8 +1889,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -1914,29 +1905,24 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="L9"/>
       <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="N9"/>
       <c r="O9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1945,23 +1931,18 @@
       <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="D10"/>
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10"/>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
       </c>
-      <c r="L10"/>
       <c r="M10" t="s">
         <v>20</v>
       </c>
@@ -1972,8 +1953,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -1982,42 +1963,40 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11"/>
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2064,8 +2043,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2083,17 +2062,12 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" t="s">
         <v>61</v>
       </c>
@@ -2101,8 +2075,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2117,18 +2091,12 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" t="s">
         <v>66</v>
       </c>
@@ -2136,8 +2104,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2146,22 +2114,15 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
       <c r="N4" t="s">
         <v>69</v>
       </c>
@@ -2169,8 +2130,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2179,29 +2140,21 @@
       <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="D5"/>
       <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2210,29 +2163,21 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6"/>
       <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2241,31 +2186,24 @@
       <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D7"/>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7"/>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -2274,46 +2212,43 @@
       <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8"/>
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8"/>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c r="I8"/>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
       <c r="O8" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2360,8 +2295,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2379,17 +2314,12 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" t="s">
         <v>83</v>
       </c>
@@ -2397,8 +2327,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2413,52 +2343,35 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>89</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2473,25 +2386,18 @@
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2506,27 +2412,21 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
       <c r="H6" t="s">
         <v>96</v>
       </c>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2541,38 +2441,36 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="110" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2619,8 +2517,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2638,24 +2536,18 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
       <c r="O2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2670,7 +2562,6 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -2686,15 +2577,12 @@
       <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2703,26 +2591,21 @@
       <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="I4"/>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
       <c r="N4" t="s">
         <v>112</v>
       </c>
@@ -2730,8 +2613,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2746,11 +2629,9 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>116</v>
       </c>
@@ -2760,15 +2641,12 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2783,25 +2661,18 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2816,38 +2687,31 @@
       <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
       <c r="O7" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -2882,8 +2746,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2892,7 +2756,7 @@
       <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -2904,17 +2768,15 @@
       <c r="G2" t="s">
         <v>133</v>
       </c>
-      <c r="H2"/>
       <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="J2"/>
       <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -2923,7 +2785,7 @@
       <c r="C3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
@@ -2948,8 +2810,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -2958,7 +2820,7 @@
       <c r="C4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -2970,17 +2832,15 @@
       <c r="G4" t="s">
         <v>142</v>
       </c>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>72</v>
       </c>
-      <c r="J4"/>
       <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -2989,7 +2849,7 @@
       <c r="C5" t="s">
         <v>130</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -3001,7 +2861,6 @@
       <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>72</v>
       </c>
@@ -3012,8 +2871,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3022,7 +2881,7 @@
       <c r="C6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -3034,7 +2893,6 @@
       <c r="G6" t="s">
         <v>150</v>
       </c>
-      <c r="H6"/>
       <c r="I6" t="s">
         <v>72</v>
       </c>
@@ -3045,8 +2903,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3055,7 +2913,7 @@
       <c r="C7" t="s">
         <v>147</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -3080,8 +2938,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -3090,7 +2948,7 @@
       <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
@@ -3102,7 +2960,6 @@
       <c r="G8" t="s">
         <v>158</v>
       </c>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>72</v>
       </c>
@@ -3113,8 +2970,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -3123,7 +2980,7 @@
       <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
@@ -3135,7 +2992,6 @@
       <c r="G9" t="s">
         <v>162</v>
       </c>
-      <c r="H9"/>
       <c r="I9" t="s">
         <v>72</v>
       </c>
@@ -3146,8 +3002,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -3156,7 +3012,7 @@
       <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
@@ -3168,7 +3024,6 @@
       <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="H10"/>
       <c r="I10" t="s">
         <v>72</v>
       </c>
@@ -3179,8 +3034,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -3189,7 +3044,7 @@
       <c r="C11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -3201,15 +3056,12 @@
       <c r="G11" t="s">
         <v>169</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
       <c r="K11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -3218,7 +3070,7 @@
       <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
@@ -3230,7 +3082,6 @@
       <c r="G12" t="s">
         <v>172</v>
       </c>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3092,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -3251,7 +3102,7 @@
       <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
@@ -3263,7 +3114,6 @@
       <c r="G13" t="s">
         <v>176</v>
       </c>
-      <c r="H13"/>
       <c r="I13" t="s">
         <v>72</v>
       </c>
@@ -3274,8 +3124,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -3284,7 +3134,7 @@
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
@@ -3296,7 +3146,6 @@
       <c r="G14" t="s">
         <v>179</v>
       </c>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>72</v>
       </c>
@@ -3307,8 +3156,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -3317,7 +3166,7 @@
       <c r="C15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -3329,7 +3178,6 @@
       <c r="G15" t="s">
         <v>183</v>
       </c>
-      <c r="H15"/>
       <c r="I15" t="s">
         <v>72</v>
       </c>
@@ -3340,8 +3188,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -3350,7 +3198,7 @@
       <c r="C16" t="s">
         <v>180</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -3375,8 +3223,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
@@ -3385,7 +3233,7 @@
       <c r="C17" t="s">
         <v>187</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
@@ -3410,8 +3258,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -3420,7 +3268,7 @@
       <c r="C18" t="s">
         <v>187</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
@@ -3445,8 +3293,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
@@ -3455,7 +3303,7 @@
       <c r="C19" t="s">
         <v>197</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
@@ -3480,8 +3328,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -3490,7 +3338,7 @@
       <c r="C20" t="s">
         <v>197</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" t="s">
@@ -3515,8 +3363,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -3525,7 +3373,7 @@
       <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
@@ -3550,8 +3398,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
@@ -3560,7 +3408,7 @@
       <c r="C22" t="s">
         <v>197</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
@@ -3585,8 +3433,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -3595,7 +3443,7 @@
       <c r="C23" t="s">
         <v>197</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>24</v>
       </c>
       <c r="E23" t="s">
@@ -3620,8 +3468,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -3630,7 +3478,7 @@
       <c r="C24" t="s">
         <v>197</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>20</v>
       </c>
       <c r="E24" t="s">
@@ -3655,8 +3503,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -3665,7 +3513,7 @@
       <c r="C25" t="s">
         <v>197</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
@@ -3690,8 +3538,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
@@ -3700,7 +3548,7 @@
       <c r="C26" t="s">
         <v>197</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>23</v>
       </c>
       <c r="E26" t="s">
@@ -3725,8 +3573,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>5</v>
       </c>
       <c r="B27" t="s">
@@ -3735,7 +3583,7 @@
       <c r="C27" t="s">
         <v>225</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>60</v>
       </c>
       <c r="E27" t="s">
@@ -3747,7 +3595,6 @@
       <c r="G27" t="s">
         <v>227</v>
       </c>
-      <c r="H27"/>
       <c r="I27" t="s">
         <v>72</v>
       </c>
@@ -3758,8 +3605,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
@@ -3768,7 +3615,7 @@
       <c r="C28" t="s">
         <v>225</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>64</v>
       </c>
       <c r="E28" t="s">
@@ -3793,8 +3640,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
@@ -3803,7 +3650,7 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>63</v>
       </c>
       <c r="E29" t="s">
@@ -3828,8 +3675,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -3838,7 +3685,7 @@
       <c r="C30" t="s">
         <v>225</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>61</v>
       </c>
       <c r="E30" t="s">
@@ -3850,7 +3697,6 @@
       <c r="G30" t="s">
         <v>241</v>
       </c>
-      <c r="H30"/>
       <c r="I30" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +3707,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
@@ -3871,7 +3717,7 @@
       <c r="C31" t="s">
         <v>225</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>62</v>
       </c>
       <c r="E31" t="s">
@@ -3883,7 +3729,6 @@
       <c r="G31" t="s">
         <v>245</v>
       </c>
-      <c r="H31"/>
       <c r="I31" t="s">
         <v>72</v>
       </c>
@@ -3894,8 +3739,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -3904,7 +3749,7 @@
       <c r="C32" t="s">
         <v>225</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>65</v>
       </c>
       <c r="E32" t="s">
@@ -3916,7 +3761,6 @@
       <c r="G32" t="s">
         <v>247</v>
       </c>
-      <c r="H32"/>
       <c r="I32" t="s">
         <v>72</v>
       </c>
@@ -3929,19 +3773,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -4009,12 +3853,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>15</v>
       </c>
@@ -4024,31 +3866,14 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -4064,27 +3889,11 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>29</v>
       </c>
@@ -4100,27 +3909,11 @@
       <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>35</v>
       </c>
@@ -4130,31 +3923,14 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5"/>
       <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>38</v>
       </c>
@@ -4164,31 +3940,14 @@
       <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="G6"/>
       <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -4204,27 +3963,11 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -4240,27 +3983,11 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>50</v>
       </c>
@@ -4276,27 +4003,11 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>53</v>
       </c>
@@ -4306,31 +4017,14 @@
       <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>56</v>
       </c>
@@ -4340,31 +4034,14 @@
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11"/>
       <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>268</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>58</v>
       </c>
@@ -4380,27 +4057,11 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>268</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>63</v>
       </c>
@@ -4416,37 +4077,26 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="I13"/>
       <c r="J13" t="s">
         <v>271</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
       <c r="M13" t="s">
         <v>272</v>
       </c>
       <c r="N13" t="s">
         <v>273</v>
       </c>
-      <c r="O13"/>
-      <c r="P13"/>
       <c r="Q13" t="s">
         <v>271</v>
       </c>
-      <c r="R13"/>
-      <c r="S13"/>
       <c r="T13" t="s">
         <v>274</v>
       </c>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>268</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>67</v>
       </c>
@@ -4456,37 +4106,23 @@
       <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="G14"/>
       <c r="H14" t="s">
         <v>32</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
       <c r="M14" t="s">
         <v>276</v>
       </c>
       <c r="N14" t="s">
         <v>277</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
       <c r="T14" t="s">
         <v>278</v>
       </c>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>268</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>70</v>
       </c>
@@ -4496,41 +4132,29 @@
       <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="G15"/>
       <c r="H15" t="s">
         <v>72</v>
       </c>
-      <c r="I15"/>
       <c r="J15" t="s">
         <v>280</v>
       </c>
-      <c r="K15"/>
-      <c r="L15"/>
       <c r="M15" t="s">
         <v>281</v>
       </c>
       <c r="N15" t="s">
         <v>282</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
       <c r="Q15" t="s">
         <v>283</v>
       </c>
-      <c r="R15"/>
-      <c r="S15"/>
       <c r="T15" t="s">
         <v>284</v>
       </c>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>268</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -4540,41 +4164,29 @@
       <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="G16"/>
       <c r="H16" t="s">
         <v>72</v>
       </c>
-      <c r="I16"/>
       <c r="J16" t="s">
         <v>73</v>
       </c>
-      <c r="K16"/>
-      <c r="L16"/>
       <c r="M16" t="s">
         <v>286</v>
       </c>
       <c r="N16" t="s">
         <v>287</v>
       </c>
-      <c r="O16"/>
-      <c r="P16"/>
       <c r="Q16" t="s">
         <v>288</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
       <c r="T16" t="s">
         <v>289</v>
       </c>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>268</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>75</v>
       </c>
@@ -4584,63 +4196,28 @@
       <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G17"/>
       <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>268</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="G18"/>
       <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>291</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>80</v>
       </c>
@@ -4656,27 +4233,11 @@
       <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>291</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>85</v>
       </c>
@@ -4692,71 +4253,40 @@
       <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="I20"/>
       <c r="J20" t="s">
         <v>294</v>
       </c>
-      <c r="K20"/>
-      <c r="L20"/>
       <c r="M20" t="s">
         <v>295</v>
       </c>
       <c r="N20" t="s">
         <v>296</v>
       </c>
-      <c r="O20"/>
-      <c r="P20"/>
       <c r="Q20" t="s">
         <v>295</v>
       </c>
-      <c r="R20"/>
-      <c r="S20"/>
       <c r="T20" t="s">
         <v>297</v>
       </c>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>291</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
       <c r="H21" t="s">
         <v>32</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>291</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>91</v>
       </c>
@@ -4766,37 +4296,26 @@
       <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="I22"/>
       <c r="J22" t="s">
         <v>298</v>
       </c>
-      <c r="K22"/>
-      <c r="L22"/>
       <c r="M22" t="s">
         <v>299</v>
       </c>
       <c r="N22" t="s">
         <v>300</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
       <c r="Q22" t="s">
         <v>301</v>
       </c>
-      <c r="R22"/>
-      <c r="S22"/>
       <c r="T22" t="s">
         <v>302</v>
       </c>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>291</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>93</v>
       </c>
@@ -4812,37 +4331,26 @@
       <c r="H23" t="s">
         <v>17</v>
       </c>
-      <c r="I23"/>
       <c r="J23" t="s">
         <v>304</v>
       </c>
-      <c r="K23"/>
-      <c r="L23"/>
       <c r="M23" t="s">
         <v>305</v>
       </c>
       <c r="N23" t="s">
         <v>306</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
       <c r="Q23" t="s">
         <v>307</v>
       </c>
-      <c r="R23"/>
-      <c r="S23"/>
       <c r="T23" t="s">
         <v>308</v>
       </c>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>291</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>97</v>
       </c>
@@ -4858,37 +4366,23 @@
       <c r="H24" t="s">
         <v>17</v>
       </c>
-      <c r="I24"/>
       <c r="J24" t="s">
         <v>310</v>
       </c>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
       <c r="Q24" t="s">
         <v>311</v>
       </c>
-      <c r="R24"/>
-      <c r="S24"/>
       <c r="T24" t="s">
         <v>312</v>
       </c>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>313</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
       <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>101</v>
       </c>
@@ -4898,31 +4392,14 @@
       <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>313</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>105</v>
       </c>
@@ -4932,63 +4409,28 @@
       <c r="H26" t="s">
         <v>32</v>
       </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>313</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
       <c r="D27" t="s">
         <v>109</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>110</v>
       </c>
-      <c r="G27"/>
       <c r="H27" t="s">
         <v>72</v>
       </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>313</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>113</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>114</v>
       </c>
@@ -4998,31 +4440,14 @@
       <c r="H28" t="s">
         <v>32</v>
       </c>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>313</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>117</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>118</v>
       </c>
@@ -5032,31 +4457,14 @@
       <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>313</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>121</v>
       </c>
@@ -5066,29 +4474,15 @@
       <c r="H30" t="s">
         <v>123</v>
       </c>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
@@ -5100,39 +4494,27 @@
       <c r="F31" t="s">
         <v>133</v>
       </c>
-      <c r="G31"/>
       <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
       <c r="M31" t="s">
         <v>314</v>
       </c>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
       <c r="Q31" t="s">
         <v>315</v>
       </c>
-      <c r="R31"/>
-      <c r="S31"/>
       <c r="T31" t="s">
         <v>131</v>
       </c>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>11</v>
       </c>
       <c r="D32" t="s">
@@ -5153,36 +4535,27 @@
       <c r="I32" t="s">
         <v>138</v>
       </c>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
       <c r="M32" t="s">
         <v>316</v>
       </c>
       <c r="N32" t="s">
         <v>317</v>
       </c>
-      <c r="O32"/>
-      <c r="P32"/>
       <c r="Q32" t="s">
         <v>318</v>
       </c>
-      <c r="R32"/>
-      <c r="S32"/>
       <c r="T32" t="s">
         <v>319</v>
       </c>
-      <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>130</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>12</v>
       </c>
       <c r="D33" t="s">
@@ -5194,37 +4567,24 @@
       <c r="F33" t="s">
         <v>142</v>
       </c>
-      <c r="G33"/>
       <c r="H33" t="s">
         <v>72</v>
       </c>
-      <c r="I33"/>
       <c r="J33" t="s">
         <v>320</v>
       </c>
-      <c r="K33"/>
-      <c r="L33"/>
       <c r="M33" t="s">
         <v>321</v>
       </c>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>130</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>13</v>
       </c>
       <c r="D34" t="s">
@@ -5236,7 +4596,6 @@
       <c r="F34" t="s">
         <v>145</v>
       </c>
-      <c r="G34"/>
       <c r="H34" t="s">
         <v>72</v>
       </c>
@@ -5246,33 +4605,24 @@
       <c r="J34" t="s">
         <v>143</v>
       </c>
-      <c r="K34"/>
-      <c r="L34"/>
       <c r="M34" t="s">
         <v>322</v>
       </c>
       <c r="N34" t="s">
         <v>143</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
       <c r="Q34" t="s">
         <v>323</v>
       </c>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
@@ -5284,7 +4634,6 @@
       <c r="F35" t="s">
         <v>150</v>
       </c>
-      <c r="G35"/>
       <c r="H35" t="s">
         <v>72</v>
       </c>
@@ -5297,7 +4646,6 @@
       <c r="K35" t="s">
         <v>325</v>
       </c>
-      <c r="L35"/>
       <c r="M35" t="s">
         <v>326</v>
       </c>
@@ -5307,30 +4655,27 @@
       <c r="O35" t="s">
         <v>328</v>
       </c>
-      <c r="P35"/>
       <c r="Q35" t="s">
         <v>329</v>
       </c>
       <c r="R35" t="s">
         <v>330</v>
       </c>
-      <c r="S35"/>
       <c r="T35" t="s">
         <v>331</v>
       </c>
       <c r="U35" t="s">
         <v>332</v>
       </c>
-      <c r="V35"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
@@ -5357,7 +4702,6 @@
       <c r="K36" t="s">
         <v>334</v>
       </c>
-      <c r="L36"/>
       <c r="M36" t="s">
         <v>335</v>
       </c>
@@ -5367,30 +4711,27 @@
       <c r="O36" t="s">
         <v>337</v>
       </c>
-      <c r="P36"/>
       <c r="Q36" t="s">
         <v>338</v>
       </c>
       <c r="R36" t="s">
         <v>334</v>
       </c>
-      <c r="S36"/>
       <c r="T36" t="s">
         <v>153</v>
       </c>
       <c r="U36" t="s">
         <v>339</v>
       </c>
-      <c r="V36"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>147</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4</v>
       </c>
       <c r="D37" t="s">
@@ -5402,7 +4743,6 @@
       <c r="F37" t="s">
         <v>158</v>
       </c>
-      <c r="G37"/>
       <c r="H37" t="s">
         <v>72</v>
       </c>
@@ -5415,36 +4755,30 @@
       <c r="K37" t="s">
         <v>341</v>
       </c>
-      <c r="L37"/>
       <c r="M37" t="s">
         <v>342</v>
       </c>
       <c r="N37" t="s">
         <v>343</v>
       </c>
-      <c r="O37"/>
-      <c r="P37"/>
       <c r="Q37" t="s">
         <v>344</v>
       </c>
-      <c r="R37"/>
-      <c r="S37"/>
       <c r="T37" t="s">
         <v>345</v>
       </c>
       <c r="U37" t="s">
         <v>339</v>
       </c>
-      <c r="V37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5</v>
       </c>
       <c r="D38" t="s">
@@ -5456,7 +4790,6 @@
       <c r="F38" t="s">
         <v>162</v>
       </c>
-      <c r="G38"/>
       <c r="H38" t="s">
         <v>72</v>
       </c>
@@ -5466,31 +4799,21 @@
       <c r="J38" t="s">
         <v>346</v>
       </c>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
       <c r="Q38" t="s">
         <v>347</v>
       </c>
-      <c r="R38"/>
-      <c r="S38"/>
       <c r="T38" t="s">
         <v>348</v>
       </c>
-      <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>147</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6</v>
       </c>
       <c r="D39" t="s">
@@ -5502,7 +4825,6 @@
       <c r="F39" t="s">
         <v>166</v>
       </c>
-      <c r="G39"/>
       <c r="H39" t="s">
         <v>72</v>
       </c>
@@ -5512,33 +4834,24 @@
       <c r="J39" t="s">
         <v>349</v>
       </c>
-      <c r="K39"/>
-      <c r="L39"/>
       <c r="M39" t="s">
         <v>350</v>
       </c>
       <c r="N39" t="s">
         <v>351</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
       <c r="Q39" t="s">
         <v>352</v>
       </c>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>147</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" t="s">
@@ -5550,33 +4863,18 @@
       <c r="F40" t="s">
         <v>169</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
       <c r="U40" t="s">
         <v>353</v>
       </c>
-      <c r="V40"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
@@ -5588,37 +4886,24 @@
       <c r="F41" t="s">
         <v>172</v>
       </c>
-      <c r="G41"/>
       <c r="H41" t="s">
         <v>72</v>
       </c>
       <c r="I41" t="s">
         <v>173</v>
       </c>
-      <c r="J41"/>
       <c r="K41" t="s">
         <v>354</v>
       </c>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>147</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
@@ -5630,39 +4915,27 @@
       <c r="F42" t="s">
         <v>176</v>
       </c>
-      <c r="G42"/>
       <c r="H42" t="s">
         <v>72</v>
       </c>
       <c r="I42" t="s">
         <v>151</v>
       </c>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
       <c r="M42" t="s">
         <v>355</v>
       </c>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
       <c r="Q42" t="s">
         <v>356</v>
       </c>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7</v>
       </c>
       <c r="D43" t="s">
@@ -5674,7 +4947,6 @@
       <c r="F43" t="s">
         <v>179</v>
       </c>
-      <c r="G43"/>
       <c r="H43" t="s">
         <v>72</v>
       </c>
@@ -5684,33 +4956,24 @@
       <c r="J43" t="s">
         <v>357</v>
       </c>
-      <c r="K43"/>
-      <c r="L43"/>
       <c r="M43" t="s">
         <v>358</v>
       </c>
       <c r="N43" t="s">
         <v>359</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
       <c r="Q43" t="s">
         <v>360</v>
       </c>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>180</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>14</v>
       </c>
       <c r="D44" t="s">
@@ -5722,7 +4985,6 @@
       <c r="F44" t="s">
         <v>183</v>
       </c>
-      <c r="G44"/>
       <c r="H44" t="s">
         <v>72</v>
       </c>
@@ -5735,7 +4997,6 @@
       <c r="K44" t="s">
         <v>362</v>
       </c>
-      <c r="L44"/>
       <c r="M44" t="s">
         <v>363</v>
       </c>
@@ -5745,28 +5006,24 @@
       <c r="O44" t="s">
         <v>365</v>
       </c>
-      <c r="P44"/>
-      <c r="Q44"/>
       <c r="R44" t="s">
         <v>366</v>
       </c>
-      <c r="S44"/>
       <c r="T44" t="s">
         <v>367</v>
       </c>
       <c r="U44" t="s">
         <v>368</v>
       </c>
-      <c r="V44"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>15</v>
       </c>
       <c r="D45" t="s">
@@ -5805,12 +5062,10 @@
       <c r="O45" t="s">
         <v>365</v>
       </c>
-      <c r="P45"/>
-      <c r="Q45"/>
       <c r="R45" t="s">
         <v>366</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45">
         <v>88</v>
       </c>
       <c r="T45" t="s">
@@ -5823,14 +5078,14 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>187</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>16</v>
       </c>
       <c r="D46" t="s">
@@ -5851,34 +5106,24 @@
       <c r="I46" t="s">
         <v>192</v>
       </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
       <c r="M46" t="s">
         <v>375</v>
       </c>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
       <c r="T46" t="s">
         <v>188</v>
       </c>
       <c r="U46" t="s">
         <v>376</v>
       </c>
-      <c r="V46"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>187</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>17</v>
       </c>
       <c r="D47" t="s">
@@ -5899,34 +5144,24 @@
       <c r="I47" t="s">
         <v>138</v>
       </c>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
       <c r="M47" t="s">
         <v>377</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
       <c r="T47" t="s">
         <v>378</v>
       </c>
       <c r="U47" t="s">
         <v>379</v>
       </c>
-      <c r="V47"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>21</v>
       </c>
       <c r="D48" t="s">
@@ -5947,40 +5182,33 @@
       <c r="I48" t="s">
         <v>202</v>
       </c>
-      <c r="J48"/>
       <c r="K48" t="s">
         <v>380</v>
       </c>
-      <c r="L48"/>
       <c r="M48" t="s">
         <v>198</v>
       </c>
-      <c r="N48"/>
       <c r="O48" t="s">
         <v>381</v>
       </c>
-      <c r="P48"/>
-      <c r="Q48"/>
       <c r="R48" t="s">
         <v>382</v>
       </c>
-      <c r="S48"/>
       <c r="T48" t="s">
         <v>198</v>
       </c>
       <c r="U48" t="s">
         <v>380</v>
       </c>
-      <c r="V48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>197</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>18</v>
       </c>
       <c r="D49" t="s">
@@ -6007,7 +5235,6 @@
       <c r="K49" t="s">
         <v>380</v>
       </c>
-      <c r="L49"/>
       <c r="M49" t="s">
         <v>204</v>
       </c>
@@ -6017,30 +5244,27 @@
       <c r="O49" t="s">
         <v>383</v>
       </c>
-      <c r="P49"/>
       <c r="Q49" t="s">
         <v>384</v>
       </c>
       <c r="R49" t="s">
         <v>382</v>
       </c>
-      <c r="S49"/>
       <c r="T49" t="s">
         <v>204</v>
       </c>
       <c r="U49" t="s">
         <v>380</v>
       </c>
-      <c r="V49"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
       <c r="D50" t="s">
@@ -6061,40 +5285,33 @@
       <c r="I50" t="s">
         <v>202</v>
       </c>
-      <c r="J50"/>
       <c r="K50" t="s">
         <v>380</v>
       </c>
-      <c r="L50"/>
       <c r="M50" t="s">
         <v>207</v>
       </c>
-      <c r="N50"/>
       <c r="O50" t="s">
         <v>381</v>
       </c>
-      <c r="P50"/>
-      <c r="Q50"/>
       <c r="R50" t="s">
         <v>382</v>
       </c>
-      <c r="S50"/>
       <c r="T50" t="s">
         <v>207</v>
       </c>
       <c r="U50" t="s">
         <v>380</v>
       </c>
-      <c r="V50"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>197</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>19</v>
       </c>
       <c r="D51" t="s">
@@ -6121,7 +5338,6 @@
       <c r="K51" t="s">
         <v>380</v>
       </c>
-      <c r="L51"/>
       <c r="M51" t="s">
         <v>386</v>
       </c>
@@ -6131,28 +5347,24 @@
       <c r="O51" t="s">
         <v>388</v>
       </c>
-      <c r="P51"/>
       <c r="Q51" t="s">
         <v>389</v>
       </c>
       <c r="R51" t="s">
         <v>382</v>
       </c>
-      <c r="S51"/>
-      <c r="T51"/>
       <c r="U51" t="s">
         <v>380</v>
       </c>
-      <c r="V51"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>197</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>24</v>
       </c>
       <c r="D52" t="s">
@@ -6179,34 +5391,27 @@
       <c r="K52" t="s">
         <v>391</v>
       </c>
-      <c r="L52"/>
       <c r="M52" t="s">
         <v>392</v>
       </c>
-      <c r="N52"/>
       <c r="O52" t="s">
         <v>388</v>
       </c>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
       <c r="T52" t="s">
         <v>393</v>
       </c>
       <c r="U52" t="s">
         <v>388</v>
       </c>
-      <c r="V52"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>20</v>
       </c>
       <c r="D53" t="s">
@@ -6233,7 +5438,6 @@
       <c r="K53" t="s">
         <v>380</v>
       </c>
-      <c r="L53"/>
       <c r="M53" t="s">
         <v>395</v>
       </c>
@@ -6243,26 +5447,21 @@
       <c r="O53" t="s">
         <v>383</v>
       </c>
-      <c r="P53"/>
-      <c r="Q53"/>
       <c r="R53" t="s">
         <v>382</v>
       </c>
-      <c r="S53"/>
-      <c r="T53"/>
       <c r="U53" t="s">
         <v>380</v>
       </c>
-      <c r="V53"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>197</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>25</v>
       </c>
       <c r="D54" t="s">
@@ -6283,36 +5482,27 @@
       <c r="I54" t="s">
         <v>138</v>
       </c>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
       <c r="M54" t="s">
         <v>397</v>
       </c>
-      <c r="N54"/>
       <c r="O54" t="s">
         <v>388</v>
       </c>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
       <c r="T54" t="s">
         <v>398</v>
       </c>
       <c r="U54" t="s">
         <v>388</v>
       </c>
-      <c r="V54"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>197</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>23</v>
       </c>
       <c r="D55" t="s">
@@ -6339,30 +5529,21 @@
       <c r="K55" t="s">
         <v>380</v>
       </c>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
       <c r="O55" t="s">
         <v>381</v>
       </c>
-      <c r="P55"/>
       <c r="Q55" t="s">
         <v>400</v>
       </c>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>225</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>60</v>
       </c>
       <c r="D56" t="s">
@@ -6374,43 +5555,33 @@
       <c r="F56" t="s">
         <v>227</v>
       </c>
-      <c r="G56"/>
       <c r="H56" t="s">
         <v>72</v>
       </c>
       <c r="I56" t="s">
         <v>228</v>
       </c>
-      <c r="J56"/>
       <c r="K56" t="s">
         <v>401</v>
       </c>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
       <c r="Q56" t="s">
         <v>402</v>
       </c>
-      <c r="R56"/>
-      <c r="S56"/>
       <c r="T56" t="s">
         <v>403</v>
       </c>
       <c r="U56" t="s">
         <v>404</v>
       </c>
-      <c r="V56"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>225</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>64</v>
       </c>
       <c r="D57" t="s">
@@ -6431,32 +5602,21 @@
       <c r="I57" t="s">
         <v>19</v>
       </c>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
       <c r="M57" t="s">
         <v>229</v>
       </c>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
       <c r="U57" t="s">
         <v>404</v>
       </c>
-      <c r="V57"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>225</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>63</v>
       </c>
       <c r="D58" t="s">
@@ -6477,32 +5637,21 @@
       <c r="I58" t="s">
         <v>237</v>
       </c>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
       <c r="M58" t="s">
         <v>233</v>
       </c>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
       <c r="Q58" t="s">
         <v>405</v>
       </c>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>225</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>61</v>
       </c>
       <c r="D59" t="s">
@@ -6514,39 +5663,27 @@
       <c r="F59" t="s">
         <v>241</v>
       </c>
-      <c r="G59"/>
       <c r="H59" t="s">
         <v>72</v>
       </c>
       <c r="I59" t="s">
         <v>242</v>
       </c>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
       <c r="M59" t="s">
         <v>239</v>
       </c>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
       <c r="Q59" t="s">
         <v>406</v>
       </c>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>225</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>62</v>
       </c>
       <c r="D60" t="s">
@@ -6558,39 +5695,27 @@
       <c r="F60" t="s">
         <v>245</v>
       </c>
-      <c r="G60"/>
       <c r="H60" t="s">
         <v>72</v>
       </c>
       <c r="I60" t="s">
         <v>242</v>
       </c>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
       <c r="M60" t="s">
         <v>243</v>
       </c>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
       <c r="Q60" t="s">
         <v>407</v>
       </c>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>225</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>65</v>
       </c>
       <c r="D61" t="s">
@@ -6602,33 +5727,21 @@
       <c r="F61" t="s">
         <v>247</v>
       </c>
-      <c r="G61"/>
       <c r="H61" t="s">
         <v>72</v>
       </c>
       <c r="I61" t="s">
         <v>248</v>
       </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
       <c r="M61" t="s">
         <v>408</v>
       </c>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
       <c r="Q61" t="s">
         <v>409</v>
       </c>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetType</t>
+    <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">The nature or genre of the resource.</t>
@@ -100,13 +100,10 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/datasettype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
     <t xml:space="preserve">DatasetType</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetTitle</t>
+    <t xml:space="preserve">datasetName</t>
   </si>
   <si>
     <t xml:space="preserve">The name identifying the data set from which the record was derived.</t>
@@ -118,21 +115,15 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetName</t>
-  </si>
-  <si>
     <t xml:space="preserve">DatasetTitle</t>
   </si>
   <si>
-    <t xml:space="preserve">citation</t>
+    <t xml:space="preserve">bibilographicCitation</t>
   </si>
   <si>
     <t xml:space="preserve">A bibliographic reference for the resource as a statement indicating how this record should be cited (attributed) when used.</t>
   </si>
   <si>
-    <t xml:space="preserve">bibilographicCitation</t>
-  </si>
-  <si>
     <t xml:space="preserve">modified</t>
   </si>
   <si>
@@ -154,21 +145,6 @@
     <t xml:space="preserve">DatasetOrginization</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetOrginizationCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name (or acronym) in use by the institution having custody of the object(s) or information referred to in the record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLM AIM, EPA NRSA , USFS AREMP, USFS PIBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatasetOrginizationCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">datasetLink</t>
   </si>
   <si>
@@ -200,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">5483AIM, 88963AREMP, WtR563EPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">SamplingFeatureID</t>
@@ -219,9 +198,6 @@
     <t xml:space="preserve">5483, 88693. WtR563</t>
   </si>
   <si>
-    <t xml:space="preserve">verbatimSamplingFeatureID</t>
-  </si>
-  <si>
     <t xml:space="preserve">waterBody</t>
   </si>
   <si>
@@ -244,12 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location. Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatialReferenceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ellipsoid, geodetic datum, or spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based.</t>
   </si>
   <si>
     <t xml:space="preserve">locationRemark</t>
@@ -291,12 +261,6 @@
     <t xml:space="preserve">FFFE9F28-60DB-40C0-B9C0-4AFC753A9880, 10002</t>
   </si>
   <si>
-    <t xml:space="preserve">actionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/actiontype/?format=skos</t>
-  </si>
-  <si>
     <t xml:space="preserve">eventDate</t>
   </si>
   <si>
@@ -330,16 +294,19 @@
     <t xml:space="preserve">2008</t>
   </si>
   <si>
-    <t xml:space="preserve">resultID</t>
+    <t xml:space="preserve">resultsID</t>
   </si>
   <si>
     <t xml:space="preserve">Unique integer identifier for each
-data value.</t>
+data value. Generated when the datasets are combind</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">MeasurementOrFact</t>
+  </si>
+  <si>
     <t xml:space="preserve">Results</t>
   </si>
   <si>
@@ -358,7 +325,7 @@
     <t xml:space="preserve">http://vocabulary.odm2.org/api/v1/resulttype/?format=skos</t>
   </si>
   <si>
-    <t xml:space="preserve">variableID</t>
+    <t xml:space="preserve">measurementID</t>
   </si>
   <si>
     <t xml:space="preserve">An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set.</t>
@@ -370,7 +337,7 @@
     <t xml:space="preserve">VariableID</t>
   </si>
   <si>
-    <t xml:space="preserve">methodID</t>
+    <t xml:space="preserve">measurementMethod</t>
   </si>
   <si>
     <t xml:space="preserve">A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
@@ -403,28 +370,55 @@
     <t xml:space="preserve">Double</t>
   </si>
   <si>
-    <t xml:space="preserve">MeasurementOrFact</t>
-  </si>
-  <si>
     <t xml:space="preserve">dataValue</t>
   </si>
   <si>
+    <t xml:space="preserve">measurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A field name for the MeasurementOrFact. Term from the stream habitat controlled vocabulary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grad, WetWidth, ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measurementUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm, "C", "km", "ha"</t>
+  </si>
+  <si>
     <t xml:space="preserve">CategoryID</t>
   </si>
   <si>
     <t xml:space="preserve">Table</t>
   </si>
   <si>
-    <t xml:space="preserve">measurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measurementID</t>
-  </si>
-  <si>
     <t xml:space="preserve">LongName</t>
   </si>
   <si>
-    <t xml:space="preserve">measurementUnit</t>
+    <t xml:space="preserve">Channel dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">Channel Characteristics</t>
@@ -439,6 +433,24 @@
     <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
   </si>
   <si>
+    <t xml:space="preserve">Grad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
     <t xml:space="preserve">PctDry</t>
   </si>
   <si>
@@ -448,13 +460,16 @@
     <t xml:space="preserve">Percent of the reach that was dry</t>
   </si>
   <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
+    <t xml:space="preserve">ReachLen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver</t>
@@ -466,6 +481,15 @@
     <t xml:space="preserve">Beaver value from the provider dataset.</t>
   </si>
   <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
     <t xml:space="preserve">StreamOrder</t>
   </si>
   <si>
@@ -478,57 +502,6 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReachLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">BFHeight</t>
   </si>
   <si>
@@ -538,7 +511,157 @@
     <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
   </si>
   <si>
-    <t xml:space="preserve">countTransects</t>
+    <t xml:space="preserve">Pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streambanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured angle of the stream bank;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctStab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolTailFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
   </si>
   <si>
     <t xml:space="preserve">Count of Transects</t>
@@ -547,6 +670,78 @@
     <t xml:space="preserve">Number of transects in the reach.</t>
   </si>
   <si>
+    <t xml:space="preserve">Water chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total nitrogen value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPhosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured total phosphorous value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
     <t xml:space="preserve">countTransectsBFWidth</t>
   </si>
   <si>
@@ -559,231 +754,6 @@
     <t xml:space="preserve">count of measurments</t>
   </si>
   <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streambanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured angle of the stream bank;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctStab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolTailFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure of the concentration of ionized materials in water, or the ability of water to conduct electrical current. Used as a measure of mineral / ionic concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalNitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total nitrogen value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPhosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured total phosphorous value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average water clarity as measured by the suspended solids in the water column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
     <t xml:space="preserve">AREMPField</t>
   </si>
   <si>
@@ -832,18 +802,12 @@
     <t xml:space="preserve">InstitutionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Institution Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">CollectionID</t>
   </si>
   <si>
     <t xml:space="preserve">Pre Processing Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">Location Identification</t>
   </si>
   <si>
@@ -907,9 +871,6 @@
     <t xml:space="preserve">Long</t>
   </si>
   <si>
-    <t xml:space="preserve">geodeticDatum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Locaiton Remark</t>
   </si>
   <si>
@@ -976,12 +937,60 @@
     <t xml:space="preserve">Yr</t>
   </si>
   <si>
+    <t xml:space="preserve">average_bfwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankfullWidthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNSTY</t>
   </si>
   <si>
     <t xml:space="preserve">SINU</t>
   </si>
   <si>
+    <t xml:space="preserve">gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctSlope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSLOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCT_DRY</t>
   </si>
   <si>
@@ -994,93 +1003,45 @@
     <t xml:space="preserve">StrmFlow</t>
   </si>
   <si>
+    <t xml:space="preserve">REACH_LENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOT_RCH_LEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProtocolReachLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACHLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RchLen</t>
+  </si>
+  <si>
     <t xml:space="preserve">beaver_impacted</t>
   </si>
   <si>
     <t xml:space="preserve">BVR_SGN</t>
   </si>
   <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
     <t xml:space="preserve">STRM_ORDR</t>
   </si>
   <si>
     <t xml:space="preserve">STRAHLERORDER</t>
   </si>
   <si>
-    <t xml:space="preserve">average_bfwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctSlope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSLOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACH_LENGTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT_RCH_LEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProtocolReachLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACHLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RchLen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
     <t xml:space="preserve">average_bfdepth</t>
   </si>
   <si>
@@ -1093,175 +1054,175 @@
     <t xml:space="preserve">XBKF_H</t>
   </si>
   <si>
+    <t xml:space="preserve">ave_residual_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_PL_DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResPoolDepthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolDp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WettedWidthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK_STBLTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub_dmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pcnt_fines_tran2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFinesLessThan2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_SAFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pect_fines_tran6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctFinesLessThan6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedrock_pcnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_BDRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool_fines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL_TL_FN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTFines6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRBDTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURB</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WettedWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_residual_depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES_PL_DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResPoolDepthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolDp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK_STBLTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_dmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcnt_fines_tran2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_SAFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pool_fines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pect_fines_tran6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctFinesLessThan6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL_TL_FN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTFines6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRBDTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURB</t>
   </si>
 </sst>
 </file>
@@ -1710,13 +1671,13 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -1727,16 +1688,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1749,13 +1710,13 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
@@ -1766,14 +1727,14 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1786,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
@@ -1801,14 +1762,14 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1821,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>20</v>
@@ -1836,16 +1797,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1862,7 +1823,7 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
@@ -1870,22 +1831,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8"/>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
@@ -1894,34 +1857,28 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
+      <c r="L8"/>
       <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
@@ -1936,27 +1893,27 @@
         <v>19</v>
       </c>
       <c r="L9"/>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
       <c r="O9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
@@ -1971,46 +1928,9 @@
         <v>19</v>
       </c>
       <c r="L10"/>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2101,13 +2021,17 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -2115,16 +2039,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2138,26 +2062,22 @@
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -2169,13 +2089,17 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -2183,14 +2107,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -2202,11 +2126,15 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2214,14 +2142,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -2233,32 +2161,38 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7"/>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
       <c r="I7"/>
       <c r="J7" t="s">
         <v>19</v>
@@ -2266,50 +2200,15 @@
       <c r="K7" t="s">
         <v>19</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2378,16 +2277,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2401,15 +2300,17 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -2417,16 +2318,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2440,61 +2341,73 @@
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
       <c r="M4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4"/>
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
       <c r="I5"/>
       <c r="J5" t="s">
         <v>19</v>
@@ -2503,39 +2416,35 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="s">
         <v>19</v>
@@ -2543,48 +2452,15 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2653,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2677,10 +2553,12 @@
         <v>19</v>
       </c>
       <c r="L2"/>
-      <c r="M2"/>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -2688,26 +2566,26 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2716,10 +2594,12 @@
         <v>19</v>
       </c>
       <c r="L3"/>
-      <c r="M3"/>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -2727,21 +2607,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -2750,13 +2630,17 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>93</v>
+      </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -2764,16 +2648,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
@@ -2781,7 +2665,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -2789,11 +2673,15 @@
       <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -2801,16 +2689,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -2822,11 +2710,15 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2834,16 +2726,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -2856,16 +2748,86 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
         <v>122</v>
       </c>
-      <c r="M7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" t="s">
-        <v>105</v>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2884,22 +2846,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2911,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -2925,27 +2887,29 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2"/>
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -2956,31 +2920,27 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
       <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s">
-        <v>142</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -2991,27 +2951,31 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4"/>
+        <v>138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
       <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4"/>
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>140</v>
+      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -3022,29 +2986,31 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5"/>
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -3055,29 +3021,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
@@ -3088,31 +3054,27 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
         <v>151</v>
       </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>141</v>
-      </c>
+      <c r="H7"/>
       <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s">
-        <v>142</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J7"/>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -3123,29 +3085,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -3156,29 +3118,29 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
@@ -3189,29 +3151,29 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -3222,25 +3184,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -3251,29 +3217,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -3284,29 +3250,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13"/>
+        <v>171</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -3317,29 +3285,31 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14"/>
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>176</v>
+      </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -3350,29 +3320,31 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15"/>
+        <v>181</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -3383,31 +3355,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
         <v>184</v>
       </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
         <v>188</v>
-      </c>
-      <c r="F16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -3418,31 +3390,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
         <v>191</v>
       </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" t="s">
-        <v>194</v>
-      </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
@@ -3453,31 +3425,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
         <v>141</v>
-      </c>
-      <c r="I18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -3488,31 +3460,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D19" t="n">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -3523,31 +3495,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -3558,31 +3530,31 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
         <v>201</v>
       </c>
-      <c r="D21" t="n">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>211</v>
-      </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -3593,31 +3565,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
         <v>141</v>
-      </c>
-      <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23">
@@ -3628,31 +3600,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s">
         <v>141</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -3663,31 +3635,29 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" t="s">
-        <v>141</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="H24"/>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
@@ -3698,31 +3668,23 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>223</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" t="s">
-        <v>142</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -3733,31 +3695,29 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" t="s">
-        <v>141</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H26"/>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -3768,29 +3728,29 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
@@ -3801,31 +3761,29 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" t="s">
-        <v>235</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H28"/>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29">
@@ -3836,31 +3794,31 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D29" t="n">
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
@@ -3871,29 +3829,31 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H30"/>
+        <v>233</v>
+      </c>
+      <c r="H30" t="s">
+        <v>234</v>
+      </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -3904,29 +3864,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32">
@@ -3937,29 +3897,29 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="D32" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3978,19 +3938,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4002,46 +3962,46 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>255</v>
-      </c>
-      <c r="M1" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S1" t="s">
-        <v>262</v>
-      </c>
-      <c r="T1" t="s">
-        <v>263</v>
-      </c>
-      <c r="U1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -4088,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -4121,19 +4081,19 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -4157,17 +4117,17 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -4191,17 +4151,17 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -4225,19 +4185,19 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -4261,19 +4221,19 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -4297,19 +4257,17 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G9"/>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -4333,17 +4291,17 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -4362,22 +4320,24 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11"/>
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -4396,232 +4356,232 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>263</v>
+      </c>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
+      <c r="M12" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12" t="s">
+        <v>265</v>
+      </c>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
+      <c r="Q12" t="s">
+        <v>263</v>
+      </c>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12"/>
+      <c r="T12" t="s">
+        <v>266</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13"/>
-      <c r="J13" t="s">
-        <v>275</v>
-      </c>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13" t="s">
-        <v>275</v>
-      </c>
+      <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>272</v>
+      </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14"/>
+      <c r="Q14" t="s">
+        <v>275</v>
+      </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="N15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I16"/>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
+      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" t="s">
-        <v>290</v>
-      </c>
-      <c r="N16" t="s">
-        <v>291</v>
-      </c>
+      <c r="M16"/>
+      <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16" t="s">
-        <v>292</v>
-      </c>
+      <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16" t="s">
-        <v>293</v>
-      </c>
+      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17"/>
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -4640,206 +4600,226 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>78</v>
       </c>
-      <c r="G18"/>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18"/>
-      <c r="J18"/>
+      <c r="J18" t="s">
+        <v>285</v>
+      </c>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="M18" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" t="s">
+        <v>287</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18"/>
+      <c r="Q18" t="s">
+        <v>286</v>
+      </c>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18"/>
+      <c r="T18" t="s">
+        <v>288</v>
+      </c>
       <c r="U18"/>
       <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
+      <c r="J19" t="s">
+        <v>289</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="M19" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" t="s">
+        <v>291</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
+      <c r="Q19" t="s">
+        <v>292</v>
+      </c>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19"/>
+      <c r="T19" t="s">
+        <v>293</v>
+      </c>
       <c r="U19"/>
       <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
         <v>89</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I21"/>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>301</v>
+      </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21"/>
+      <c r="Q21" t="s">
+        <v>302</v>
+      </c>
       <c r="R21"/>
       <c r="S21"/>
-      <c r="T21"/>
+      <c r="T21" t="s">
+        <v>303</v>
+      </c>
       <c r="U21"/>
       <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="G22" t="s">
-        <v>93</v>
-      </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I22"/>
-      <c r="J22" t="s">
-        <v>302</v>
-      </c>
+      <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" t="s">
-        <v>303</v>
-      </c>
-      <c r="N22" t="s">
-        <v>304</v>
-      </c>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22" t="s">
-        <v>305</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22" t="s">
-        <v>306</v>
-      </c>
+      <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
-        <v>307</v>
-      </c>
+      <c r="E23"/>
       <c r="F23" t="s">
         <v>96</v>
       </c>
@@ -4847,93 +4827,73 @@
         <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I23"/>
-      <c r="J23" t="s">
-        <v>308</v>
-      </c>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" t="s">
-        <v>309</v>
-      </c>
-      <c r="N23" t="s">
-        <v>310</v>
-      </c>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="s">
-        <v>311</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23" t="s">
-        <v>312</v>
-      </c>
+      <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>313</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
         <v>101</v>
       </c>
+      <c r="G24"/>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I24"/>
-      <c r="J24" t="s">
-        <v>314</v>
-      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" t="s">
-        <v>315</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" t="s">
-        <v>316</v>
-      </c>
+      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -4952,22 +4912,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -4986,7 +4946,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -4997,9 +4957,11 @@
       <c r="F27" t="s">
         <v>112</v>
       </c>
-      <c r="G27"/>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -5018,22 +4980,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -5052,22 +5014,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -5086,36 +5048,60 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>126</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30"/>
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
       <c r="F30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" t="s">
-        <v>124</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" t="s">
+        <v>305</v>
+      </c>
       <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="M30" t="s">
+        <v>306</v>
+      </c>
+      <c r="N30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" t="s">
+        <v>308</v>
+      </c>
       <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
+      <c r="Q30" t="s">
+        <v>309</v>
+      </c>
+      <c r="R30" t="s">
+        <v>310</v>
+      </c>
       <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
+      <c r="T30" t="s">
+        <v>311</v>
+      </c>
+      <c r="U30" t="s">
+        <v>312</v>
+      </c>
       <c r="V30"/>
     </row>
     <row r="31">
@@ -5123,41 +5109,41 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" t="s">
         <v>135</v>
-      </c>
-      <c r="E31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
@@ -5167,49 +5153,59 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
         <v>138</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>139</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
+      <c r="J32" t="s">
+        <v>315</v>
+      </c>
+      <c r="K32" t="s">
+        <v>316</v>
+      </c>
       <c r="L32"/>
       <c r="M32" t="s">
+        <v>317</v>
+      </c>
+      <c r="N32" t="s">
+        <v>318</v>
+      </c>
+      <c r="O32" t="s">
         <v>319</v>
       </c>
-      <c r="N32" t="s">
-        <v>320</v>
-      </c>
-      <c r="O32"/>
       <c r="P32"/>
       <c r="Q32" t="s">
-        <v>321</v>
-      </c>
-      <c r="R32"/>
+        <v>320</v>
+      </c>
+      <c r="R32" t="s">
+        <v>316</v>
+      </c>
       <c r="S32"/>
       <c r="T32" t="s">
-        <v>322</v>
-      </c>
-      <c r="U32"/>
+        <v>136</v>
+      </c>
+      <c r="U32" t="s">
+        <v>321</v>
+      </c>
       <c r="V32"/>
     </row>
     <row r="33">
@@ -5217,40 +5213,48 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33"/>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
       <c r="H33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33" t="s">
-        <v>323</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>324</v>
-      </c>
-      <c r="N33"/>
+        <v>322</v>
+      </c>
+      <c r="N33" t="s">
+        <v>323</v>
+      </c>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33"/>
+      <c r="Q33" t="s">
+        <v>324</v>
+      </c>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33"/>
+      <c r="T33" t="s">
+        <v>325</v>
+      </c>
       <c r="U33"/>
       <c r="V33"/>
     </row>
@@ -5259,47 +5263,53 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
         <v>147</v>
-      </c>
-      <c r="E34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" t="s">
-        <v>149</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34"/>
+        <v>326</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
+      <c r="T34" t="s">
+        <v>331</v>
+      </c>
+      <c r="U34" t="s">
+        <v>321</v>
+      </c>
       <c r="V34"/>
     </row>
     <row r="35">
@@ -5307,57 +5317,41 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
-        <v>154</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s">
-        <v>155</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I35"/>
       <c r="J35" t="s">
-        <v>327</v>
-      </c>
-      <c r="K35" t="s">
-        <v>328</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>329</v>
-      </c>
-      <c r="N35" t="s">
-        <v>330</v>
-      </c>
-      <c r="O35" t="s">
-        <v>331</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35" t="s">
-        <v>332</v>
-      </c>
-      <c r="R35" t="s">
-        <v>333</v>
-      </c>
+      <c r="Q35"/>
+      <c r="R35"/>
       <c r="S35"/>
-      <c r="T35" t="s">
-        <v>334</v>
-      </c>
-      <c r="U35" t="s">
-        <v>335</v>
-      </c>
+      <c r="T35"/>
+      <c r="U35"/>
       <c r="V35"/>
     </row>
     <row r="36">
@@ -5365,59 +5359,45 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" t="s">
-        <v>141</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G36"/>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
-      </c>
-      <c r="K36" t="s">
-        <v>337</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="K36"/>
       <c r="L36"/>
-      <c r="M36" t="s">
-        <v>338</v>
-      </c>
-      <c r="N36" t="s">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s">
-        <v>340</v>
-      </c>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36"/>
       <c r="Q36" t="s">
-        <v>341</v>
-      </c>
-      <c r="R36" t="s">
-        <v>337</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="R36"/>
       <c r="S36"/>
       <c r="T36" t="s">
-        <v>157</v>
-      </c>
-      <c r="U36" t="s">
-        <v>342</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="U36"/>
       <c r="V36"/>
     </row>
     <row r="37">
@@ -5425,53 +5405,47 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
         <v>155</v>
       </c>
-      <c r="J37" t="s">
-        <v>343</v>
-      </c>
-      <c r="K37" t="s">
-        <v>344</v>
-      </c>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="R37"/>
       <c r="S37"/>
-      <c r="T37" t="s">
-        <v>348</v>
-      </c>
-      <c r="U37" t="s">
-        <v>342</v>
-      </c>
+      <c r="T37"/>
+      <c r="U37"/>
       <c r="V37"/>
     </row>
     <row r="38">
@@ -5479,44 +5453,46 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="M38" t="s">
+        <v>340</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38" t="s">
-        <v>351</v>
-      </c>
+      <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
     </row>
@@ -5525,47 +5501,55 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
-      </c>
-      <c r="K39"/>
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
-      </c>
-      <c r="O39"/>
+        <v>346</v>
+      </c>
+      <c r="O39" t="s">
+        <v>347</v>
+      </c>
       <c r="P39"/>
-      <c r="Q39" t="s">
-        <v>355</v>
-      </c>
-      <c r="R39"/>
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>348</v>
+      </c>
       <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
+      <c r="T39" t="s">
+        <v>349</v>
+      </c>
+      <c r="U39" t="s">
+        <v>350</v>
+      </c>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -5573,37 +5557,47 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
+      <c r="H40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="M40" t="s">
+        <v>352</v>
+      </c>
+      <c r="N40" t="s">
+        <v>353</v>
+      </c>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40"/>
+      <c r="Q40" t="s">
+        <v>354</v>
+      </c>
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
-      <c r="U40" t="s">
-        <v>356</v>
-      </c>
+      <c r="U40"/>
       <c r="V40"/>
     </row>
     <row r="41">
@@ -5611,85 +5605,111 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41"/>
+        <v>171</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
-      </c>
-      <c r="J41"/>
+        <v>140</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
       <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="s">
         <v>357</v>
       </c>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>347</v>
+      </c>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
+      <c r="R41" t="s">
+        <v>348</v>
+      </c>
+      <c r="S41" t="n">
+        <v>88</v>
+      </c>
+      <c r="T41" t="s">
+        <v>359</v>
+      </c>
+      <c r="U41" t="s">
+        <v>350</v>
+      </c>
+      <c r="V41" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42"/>
+        <v>175</v>
+      </c>
+      <c r="G42" t="s">
+        <v>176</v>
+      </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
+      <c r="T42" t="s">
+        <v>173</v>
+      </c>
+      <c r="U42" t="s">
+        <v>362</v>
+      </c>
       <c r="V42"/>
     </row>
     <row r="43">
@@ -5697,47 +5717,47 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" t="s">
         <v>181</v>
       </c>
-      <c r="E43" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43"/>
+      <c r="G43" t="s">
+        <v>139</v>
+      </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" t="s">
-        <v>360</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>361</v>
-      </c>
-      <c r="N43" t="s">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43" t="s">
-        <v>363</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
+      <c r="T43" t="s">
+        <v>364</v>
+      </c>
+      <c r="U43" t="s">
+        <v>365</v>
+      </c>
       <c r="V43"/>
     </row>
     <row r="44">
@@ -5745,54 +5765,58 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" t="s">
         <v>184</v>
       </c>
-      <c r="C44" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>185</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>186</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
         <v>187</v>
       </c>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s">
-        <v>155</v>
-      </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="N44" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" t="s">
         <v>367</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44"/>
+      <c r="Q44" t="s">
         <v>368</v>
       </c>
-      <c r="P44"/>
-      <c r="Q44"/>
       <c r="R44" t="s">
         <v>369</v>
       </c>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>370</v>
+        <v>183</v>
       </c>
       <c r="U44" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V44"/>
     </row>
@@ -5801,74 +5825,68 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="s">
+        <v>371</v>
+      </c>
+      <c r="N45" t="s">
         <v>372</v>
       </c>
-      <c r="K45" t="s">
-        <v>365</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="O45" t="s">
         <v>373</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45"/>
+      <c r="Q45" t="s">
         <v>374</v>
       </c>
-      <c r="N45" t="s">
-        <v>375</v>
-      </c>
-      <c r="O45" t="s">
-        <v>368</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45"/>
       <c r="R45" t="s">
         <v>369</v>
       </c>
-      <c r="S45" t="n">
-        <v>88</v>
-      </c>
-      <c r="T45" t="s">
-        <v>376</v>
-      </c>
+      <c r="S45"/>
+      <c r="T45"/>
       <c r="U45" t="s">
-        <v>371</v>
-      </c>
-      <c r="V45" t="s">
-        <v>377</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="V45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
         <v>192</v>
@@ -5880,31 +5898,39 @@
         <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>140</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>378</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>376</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>367</v>
+      </c>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
+      <c r="R46" t="s">
+        <v>369</v>
+      </c>
       <c r="S46"/>
-      <c r="T46" t="s">
-        <v>192</v>
-      </c>
+      <c r="T46"/>
       <c r="U46" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="V46"/>
     </row>
@@ -5913,46 +5939,52 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="J47"/>
-      <c r="K47"/>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="N47"/>
-      <c r="O47"/>
+      <c r="O47" t="s">
+        <v>378</v>
+      </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
+      <c r="R47" t="s">
+        <v>369</v>
+      </c>
       <c r="S47"/>
       <c r="T47" t="s">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="U47" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="V47"/>
     </row>
@@ -5961,52 +5993,52 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U48" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="V48"/>
     </row>
@@ -6015,59 +6047,49 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
         <v>201</v>
       </c>
-      <c r="C49" t="n">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>208</v>
-      </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I49" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="J49" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="L49"/>
-      <c r="M49" t="s">
-        <v>208</v>
-      </c>
-      <c r="N49" t="s">
-        <v>208</v>
-      </c>
+      <c r="M49"/>
+      <c r="N49"/>
       <c r="O49" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>387</v>
-      </c>
-      <c r="R49" t="s">
-        <v>385</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="R49"/>
       <c r="S49"/>
-      <c r="T49" t="s">
-        <v>208</v>
-      </c>
-      <c r="U49" t="s">
-        <v>383</v>
-      </c>
+      <c r="T49"/>
+      <c r="U49"/>
       <c r="V49"/>
     </row>
     <row r="50">
@@ -6075,52 +6097,52 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I50" t="s">
-        <v>206</v>
-      </c>
-      <c r="J50"/>
+        <v>140</v>
+      </c>
+      <c r="J50" t="s">
+        <v>381</v>
+      </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50" t="s">
-        <v>385</v>
-      </c>
+      <c r="R50"/>
       <c r="S50"/>
       <c r="T50" t="s">
-        <v>211</v>
+        <v>384</v>
       </c>
       <c r="U50" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="V50"/>
     </row>
@@ -6129,56 +6151,48 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>142</v>
-      </c>
-      <c r="J51" t="s">
-        <v>388</v>
-      </c>
-      <c r="K51" t="s">
-        <v>383</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>389</v>
-      </c>
-      <c r="N51" t="s">
-        <v>390</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N51"/>
       <c r="O51" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P51"/>
-      <c r="Q51" t="s">
-        <v>392</v>
-      </c>
-      <c r="R51" t="s">
-        <v>385</v>
-      </c>
+      <c r="Q51"/>
+      <c r="R51"/>
       <c r="S51"/>
-      <c r="T51"/>
+      <c r="T51" t="s">
+        <v>386</v>
+      </c>
       <c r="U51" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="V51"/>
     </row>
@@ -6187,53 +6201,43 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" t="s">
-        <v>141</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G52"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52" t="s">
-        <v>393</v>
-      </c>
-      <c r="K52" t="s">
-        <v>394</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="N52"/>
-      <c r="O52" t="s">
-        <v>391</v>
-      </c>
+      <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52"/>
+      <c r="Q52" t="s">
+        <v>388</v>
+      </c>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52" t="s">
-        <v>396</v>
-      </c>
-      <c r="U52" t="s">
-        <v>391</v>
-      </c>
+      <c r="T52"/>
+      <c r="U52"/>
       <c r="V52"/>
     </row>
     <row r="53">
@@ -6241,54 +6245,34 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D53"/>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s">
-        <v>142</v>
-      </c>
-      <c r="J53" t="s">
-        <v>397</v>
-      </c>
-      <c r="K53" t="s">
-        <v>383</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" t="s">
-        <v>398</v>
-      </c>
-      <c r="N53" t="s">
-        <v>399</v>
-      </c>
-      <c r="O53" t="s">
-        <v>386</v>
-      </c>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53" t="s">
-        <v>385</v>
-      </c>
+      <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="V53"/>
     </row>
@@ -6297,48 +6281,46 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" t="s">
-        <v>141</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G54"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="J54"/>
-      <c r="K54"/>
+      <c r="K54" t="s">
+        <v>390</v>
+      </c>
       <c r="L54"/>
-      <c r="M54" t="s">
-        <v>400</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
-      <c r="O54" t="s">
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54" t="s">
         <v>391</v>
       </c>
-      <c r="P54"/>
-      <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="U54" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="V54"/>
     </row>
@@ -6347,44 +6329,38 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" t="s">
-        <v>141</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G55"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
-      </c>
-      <c r="J55" t="s">
-        <v>402</v>
-      </c>
-      <c r="K55" t="s">
-        <v>383</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
       <c r="L55"/>
-      <c r="M55"/>
+      <c r="M55" t="s">
+        <v>219</v>
+      </c>
       <c r="N55"/>
-      <c r="O55" t="s">
-        <v>384</v>
-      </c>
+      <c r="O55"/>
       <c r="P55"/>
       <c r="Q55" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
@@ -6397,47 +6373,43 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C56" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J56"/>
-      <c r="K56" t="s">
-        <v>404</v>
-      </c>
+      <c r="K56"/>
       <c r="L56"/>
-      <c r="M56"/>
+      <c r="M56" t="s">
+        <v>223</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="R56"/>
       <c r="S56"/>
-      <c r="T56" t="s">
-        <v>406</v>
-      </c>
-      <c r="U56" t="s">
-        <v>407</v>
-      </c>
+      <c r="T56"/>
+      <c r="U56"/>
       <c r="V56"/>
     </row>
     <row r="57">
@@ -6445,45 +6417,45 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" t="n">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" t="s">
         <v>229</v>
       </c>
-      <c r="C57" t="n">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" t="s">
-        <v>233</v>
-      </c>
-      <c r="F57" t="s">
-        <v>234</v>
-      </c>
-      <c r="G57" t="s">
-        <v>235</v>
-      </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
+      <c r="Q57" t="s">
+        <v>396</v>
+      </c>
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
-      <c r="U57" t="s">
-        <v>407</v>
-      </c>
+      <c r="U57"/>
       <c r="V57"/>
     </row>
     <row r="58">
@@ -6491,45 +6463,45 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C58" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I58" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" t="s">
-        <v>408</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
       <c r="T58"/>
-      <c r="U58"/>
+      <c r="U58" t="s">
+        <v>393</v>
+      </c>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -6537,38 +6509,38 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C59" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>243</v>
+        <v>397</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="R59"/>
       <c r="S59"/>
@@ -6581,89 +6553,43 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="C60" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J60"/>
-      <c r="K60"/>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
       <c r="L60"/>
-      <c r="M60" t="s">
-        <v>247</v>
-      </c>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60" t="s">
-        <v>410</v>
-      </c>
+      <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>229</v>
-      </c>
-      <c r="C61" t="n">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
-      <c r="F61" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s">
-        <v>252</v>
-      </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61" t="s">
-        <v>411</v>
-      </c>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61" t="s">
-        <v>412</v>
-      </c>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t xml:space="preserve">TermID</t>
   </si>
@@ -403,9 +403,84 @@
     <t xml:space="preserve">LongName</t>
   </si>
   <si>
+    <t xml:space="preserve">Channel Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Sign at Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver value from the provider dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctDry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the reach that was dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Channel dimensions</t>
   </si>
   <si>
+    <t xml:space="preserve">AvgBFWDRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">BFWidth</t>
   </si>
   <si>
@@ -415,22 +490,16 @@
     <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
+    <t xml:space="preserve">countTransectsBFWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of measurments</t>
   </si>
   <si>
     <t xml:space="preserve">Grad</t>
@@ -442,22 +511,13 @@
     <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
   </si>
   <si>
-    <t xml:space="preserve">min: 0, max: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the reach that was dry</t>
+    <t xml:space="preserve">MeanThalwegDepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
   </si>
   <si>
     <t xml:space="preserve">ReachLen</t>
@@ -472,48 +532,27 @@
     <t xml:space="preserve">4000</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Sign at Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver value from the provider dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AvgBFWDRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
+    <t xml:space="preserve">WetWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width across transects.</t>
   </si>
   <si>
     <t xml:space="preserve">Pools</t>
   </si>
   <si>
+    <t xml:space="preserve">PctPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
+  </si>
+  <si>
     <t xml:space="preserve">RPD</t>
   </si>
   <si>
@@ -523,24 +562,6 @@
     <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
   </si>
   <si>
-    <t xml:space="preserve">WetWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width across transects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Streambanks</t>
   </si>
   <si>
@@ -574,6 +595,24 @@
     <t xml:space="preserve">Substrate</t>
   </si>
   <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 1, max: 4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4098</t>
+  </si>
+  <si>
     <t xml:space="preserve">D50</t>
   </si>
   <si>
@@ -583,13 +622,22 @@
     <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
   </si>
   <si>
-    <t xml:space="preserve">min: 1, max: 4098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098</t>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctBdrk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
   </si>
   <si>
     <t xml:space="preserve">PctFines2</t>
@@ -610,33 +658,6 @@
     <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
   </si>
   <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBdrk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PoolTailFines2</t>
   </si>
   <si>
@@ -655,21 +676,6 @@
     <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
   </si>
   <si>
-    <t xml:space="preserve">MeanThalwegDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of transects in the reach.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water chemistry</t>
   </si>
   <si>
@@ -682,6 +688,36 @@
     <t xml:space="preserve">ppm</t>
   </si>
   <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured pH value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpecificConductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min: 0, max: 65500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65500</t>
+  </si>
+  <si>
     <t xml:space="preserve">TotalNitrogen</t>
   </si>
   <si>
@@ -703,36 +739,6 @@
     <t xml:space="preserve">Measured total phosphorous value</t>
   </si>
   <si>
-    <t xml:space="preserve">SpecificConductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured pH value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min: 0, max: 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turbidity</t>
   </si>
   <si>
@@ -742,18 +748,6 @@
     <t xml:space="preserve">NTU</t>
   </si>
   <si>
-    <t xml:space="preserve">countTransectsBFWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of measurments</t>
-  </si>
-  <si>
     <t xml:space="preserve">AREMPField</t>
   </si>
   <si>
@@ -937,12 +931,126 @@
     <t xml:space="preserve">Yr</t>
   </si>
   <si>
+    <t xml:space="preserve">beaver_impacted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVR_SGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_DRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrmFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNSTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRM_ORDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAHLERORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ave_widthDepth_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849 AND https://www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFWD_RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6870 AND www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1064 OR  www.monitoringresources.org/Document/Method/Details/1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65 AND https://www.monitoringresources.org/Document/Method/Details/6871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average_bfdepth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNKFLL_HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankfullHeightAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBKF_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7014</t>
+  </si>
+  <si>
     <t xml:space="preserve">average_bfwidth</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6849</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4103</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNKFLL_WT</t>
   </si>
   <si>
@@ -964,12 +1072,6 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6871</t>
   </si>
   <si>
-    <t xml:space="preserve">SNSTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINU</t>
-  </si>
-  <si>
     <t xml:space="preserve">gradient</t>
   </si>
   <si>
@@ -982,82 +1084,97 @@
     <t xml:space="preserve">PctSlope</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+    <t xml:space="preserve">www.monitoringresources.org/Document/CustomizedMethod/Details/31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4113</t>
   </si>
   <si>
     <t xml:space="preserve">XSLOPE</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctDru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_DRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrmFlow</t>
+    <t xml:space="preserve">ThalwegDepthMean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDEPTH_CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7015</t>
   </si>
   <si>
     <t xml:space="preserve">REACH_LENGTH</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3807</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOT_RCH_LEN</t>
   </si>
   <si>
     <t xml:space="preserve">ProtocolReachLength</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7017</t>
+  </si>
+  <si>
     <t xml:space="preserve">REACHLEN</t>
   </si>
   <si>
     <t xml:space="preserve">RchLen</t>
   </si>
   <si>
-    <t xml:space="preserve">beaver_impacted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVR_SGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ave_widthDepth_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFWD_RAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDTrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRM_ORDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STRAHLERORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">average_bfdepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNKFLL_HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankfullHeightAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBKF_H</t>
+    <t xml:space="preserve">wettedWidth_ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTTD_WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WettedWidthAvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XWIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctReachInPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PctPools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolPct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
   </si>
   <si>
     <t xml:space="preserve">ave_residual_depth</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6844</t>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6976</t>
   </si>
   <si>
     <t xml:space="preserve">RES_PL_DEP</t>
@@ -1066,48 +1183,9 @@
     <t xml:space="preserve">ResPoolDepthAvg</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6875</t>
-  </si>
-  <si>
     <t xml:space="preserve">PoolDp</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wettedWidth_ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTTD_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WettedWidthAvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XWIDTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctReachInPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctPools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolPct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/55</t>
-  </si>
-  <si>
     <t xml:space="preserve">BNK_AN</t>
   </si>
   <si>
@@ -1117,15 +1195,24 @@
     <t xml:space="preserve">BNK_STBLTY</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stab</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/69</t>
-  </si>
-  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6797</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/1730</t>
+  </si>
+  <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6801</t>
   </si>
   <si>
@@ -1135,9 +1222,21 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6874</t>
   </si>
   <si>
+    <t xml:space="preserve">bedrock_pcnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCT_BDRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7011</t>
+  </si>
+  <si>
     <t xml:space="preserve">pcnt_fines_tran2</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6977</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCT_FN</t>
   </si>
   <si>
@@ -1159,21 +1258,15 @@
     <t xml:space="preserve">PctFinesLessThan6mm</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedrock_pcnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCT_BDRK</t>
-  </si>
-  <si>
     <t xml:space="preserve">pool_fines</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6798</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/868</t>
+  </si>
+  <si>
     <t xml:space="preserve">PL_TL_FN</t>
   </si>
   <si>
@@ -1186,43 +1279,46 @@
     <t xml:space="preserve">PTFines6</t>
   </si>
   <si>
-    <t xml:space="preserve">ThalwegDepthMean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDEPTH_CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/5537</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSS</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3792</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cond</t>
   </si>
   <si>
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/61</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/6673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/72</t>
+  </si>
+  <si>
     <t xml:space="preserve">NTL</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/548</t>
+  </si>
+  <si>
     <t xml:space="preserve">PTL</t>
   </si>
   <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRBDTY</t>
   </si>
   <si>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7012</t>
+  </si>
+  <si>
     <t xml:space="preserve">TURB</t>
   </si>
   <si>
-    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/3806</t>
+    <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
   </si>
 </sst>
 </file>
@@ -2890,7 +2986,7 @@
         <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>127</v>
@@ -2905,11 +3001,9 @@
       <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
-        <v>130</v>
-      </c>
+      <c r="J2"/>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -2920,27 +3014,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>133</v>
       </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>64</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -2954,7 +3052,7 @@
         <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>136</v>
@@ -2965,17 +3063,13 @@
       <c r="G4" t="s">
         <v>138</v>
       </c>
-      <c r="H4" t="s">
-        <v>139</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
-        <v>140</v>
-      </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -2986,31 +3080,29 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -3021,29 +3113,29 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
         <v>145</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>146</v>
-      </c>
-      <c r="G6" t="s">
-        <v>147</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -3054,27 +3146,29 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
         <v>149</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="J7"/>
+      <c r="J7" t="s">
+        <v>147</v>
+      </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -3085,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>152</v>
@@ -3104,10 +3198,10 @@
         <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -3118,10 +3212,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
@@ -3137,10 +3231,10 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -3151,10 +3245,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>159</v>
@@ -3165,15 +3259,17 @@
       <c r="G10" t="s">
         <v>161</v>
       </c>
-      <c r="H10"/>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
       <c r="I10" t="s">
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -3184,29 +3280,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>162</v>
       </c>
-      <c r="D11" t="n">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>163</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>164</v>
-      </c>
-      <c r="G11" t="s">
-        <v>165</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -3217,29 +3313,29 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
         <v>166</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>167</v>
-      </c>
-      <c r="G12" t="s">
-        <v>168</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
@@ -3250,10 +3346,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>169</v>
@@ -3264,17 +3360,15 @@
       <c r="G13" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
-        <v>139</v>
-      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -3288,7 +3382,7 @@
         <v>172</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>173</v>
@@ -3300,16 +3394,16 @@
         <v>175</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
         <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -3323,28 +3417,26 @@
         <v>172</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" t="s">
-        <v>139</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H15"/>
       <c r="I15" t="s">
         <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3355,31 +3447,31 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" t="s">
         <v>182</v>
       </c>
-      <c r="D16" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>183</v>
-      </c>
-      <c r="F16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" t="s">
-        <v>186</v>
       </c>
       <c r="I16" t="s">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
@@ -3390,31 +3482,31 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
         <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -3425,31 +3517,31 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
         <v>192</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>193</v>
-      </c>
-      <c r="G18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" t="s">
-        <v>139</v>
       </c>
       <c r="I18" t="s">
         <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -3460,31 +3552,31 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I19" t="s">
         <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -3495,31 +3587,31 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I20" t="s">
         <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -3530,28 +3622,28 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D21" t="n">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
         <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
         <v>119</v>
@@ -3565,31 +3657,31 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
         <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -3600,31 +3692,31 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
         <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -3635,29 +3727,31 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24"/>
+        <v>213</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
       <c r="I24" t="s">
         <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
@@ -3668,23 +3762,31 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
-      </c>
-      <c r="E25"/>
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>214</v>
+      </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+        <v>216</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -3695,26 +3797,26 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D26" t="n">
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
         <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
         <v>119</v>
@@ -3728,29 +3830,31 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27"/>
+        <v>222</v>
+      </c>
+      <c r="H27" t="s">
+        <v>223</v>
+      </c>
       <c r="I27" t="s">
         <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -3761,29 +3865,31 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
-      </c>
-      <c r="H28"/>
+        <v>227</v>
+      </c>
+      <c r="H28" t="s">
+        <v>228</v>
+      </c>
       <c r="I28" t="s">
         <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -3794,31 +3900,29 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" t="s">
-        <v>229</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="H29"/>
       <c r="I29" t="s">
         <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -3829,31 +3933,29 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" t="s">
-        <v>234</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H30"/>
       <c r="I30" t="s">
         <v>64</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
@@ -3864,62 +3966,29 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" t="n">
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
         <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K32" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3965,43 +4034,43 @@
         <v>120</v>
       </c>
       <c r="J1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" t="s">
         <v>243</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>245</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>250</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>251</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>252</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>253</v>
-      </c>
-      <c r="U1" t="s">
-        <v>254</v>
-      </c>
-      <c r="V1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2">
@@ -4084,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4120,7 +4189,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -4188,7 +4257,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -4224,7 +4293,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -4294,7 +4363,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -4328,7 +4397,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -4364,7 +4433,7 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -4377,25 +4446,25 @@
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U12"/>
       <c r="V12"/>
@@ -4410,7 +4479,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -4424,10 +4493,10 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -4435,7 +4504,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U13"/>
       <c r="V13"/>
@@ -4450,7 +4519,7 @@
         <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
@@ -4461,25 +4530,25 @@
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U14"/>
       <c r="V14"/>
@@ -4494,7 +4563,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -4510,20 +4579,20 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U15"/>
       <c r="V15"/>
@@ -4538,7 +4607,7 @@
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
         <v>68</v>
@@ -4572,7 +4641,7 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
@@ -4608,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
         <v>77</v>
@@ -4621,25 +4690,25 @@
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
@@ -4665,25 +4734,25 @@
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U19"/>
       <c r="V19"/>
@@ -4698,7 +4767,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -4711,25 +4780,25 @@
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U20"/>
       <c r="V20"/>
@@ -4744,7 +4813,7 @@
         <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
         <v>88</v>
@@ -4757,7 +4826,7 @@
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -4766,12 +4835,12 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="U21"/>
       <c r="V21"/>
@@ -5054,7 +5123,7 @@
         <v>126</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>127</v>
@@ -5069,39 +5138,27 @@
       <c r="H30" t="s">
         <v>64</v>
       </c>
-      <c r="I30" t="s">
-        <v>130</v>
-      </c>
+      <c r="I30"/>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>306</v>
-      </c>
-      <c r="N30" t="s">
-        <v>307</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N30"/>
       <c r="O30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P30"/>
-      <c r="Q30" t="s">
-        <v>309</v>
-      </c>
-      <c r="R30" t="s">
-        <v>310</v>
-      </c>
+      <c r="Q30"/>
+      <c r="R30"/>
       <c r="S30"/>
-      <c r="T30" t="s">
-        <v>311</v>
-      </c>
-      <c r="U30" t="s">
-        <v>312</v>
-      </c>
+      <c r="T30"/>
+      <c r="U30"/>
       <c r="V30"/>
     </row>
     <row r="31">
@@ -5109,44 +5166,62 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
         <v>132</v>
       </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>133</v>
       </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31"/>
       <c r="H31" t="s">
         <v>64</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
+        <v>306</v>
+      </c>
+      <c r="N31" t="s">
+        <v>130</v>
+      </c>
+      <c r="O31" t="s">
+        <v>307</v>
+      </c>
+      <c r="P31" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>309</v>
+      </c>
+      <c r="R31" t="s">
+        <v>310</v>
+      </c>
+      <c r="S31" t="s">
+        <v>311</v>
+      </c>
+      <c r="T31" t="s">
+        <v>312</v>
+      </c>
+      <c r="U31" t="s">
         <v>313</v>
       </c>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31" t="s">
+      <c r="V31" t="s">
         <v>314</v>
       </c>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31" t="s">
-        <v>133</v>
-      </c>
-      <c r="U31"/>
-      <c r="V31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -5156,7 +5231,7 @@
         <v>126</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>136</v>
@@ -5167,94 +5242,88 @@
       <c r="F32" t="s">
         <v>138</v>
       </c>
-      <c r="G32" t="s">
-        <v>139</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>64</v>
       </c>
-      <c r="I32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" t="s">
-        <v>315</v>
-      </c>
-      <c r="K32" t="s">
-        <v>316</v>
-      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32"/>
       <c r="M32" t="s">
+        <v>315</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>316</v>
+      </c>
+      <c r="P32" t="s">
         <v>317</v>
       </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
         <v>318</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
+        <v>310</v>
+      </c>
+      <c r="S32" t="s">
         <v>319</v>
       </c>
-      <c r="P32"/>
-      <c r="Q32" t="s">
-        <v>320</v>
-      </c>
-      <c r="R32" t="s">
-        <v>316</v>
-      </c>
-      <c r="S32"/>
       <c r="T32" t="s">
         <v>136</v>
       </c>
       <c r="U32" t="s">
-        <v>321</v>
-      </c>
-      <c r="V32"/>
+        <v>320</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G33"/>
       <c r="H33" t="s">
         <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33"/>
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N33" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33" t="s">
-        <v>325</v>
-      </c>
+      <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
     </row>
@@ -5263,93 +5332,115 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
         <v>145</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>146</v>
-      </c>
-      <c r="F34" t="s">
-        <v>147</v>
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
         <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>327</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34" t="s">
-        <v>328</v>
-      </c>
-      <c r="N34" t="s">
-        <v>329</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" t="s">
+        <v>326</v>
+      </c>
+      <c r="R34" t="s">
+        <v>327</v>
+      </c>
+      <c r="S34" t="s">
+        <v>328</v>
+      </c>
+      <c r="T34" t="s">
+        <v>329</v>
+      </c>
+      <c r="U34" t="s">
         <v>330</v>
       </c>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34" t="s">
-        <v>331</v>
-      </c>
-      <c r="U34" t="s">
-        <v>321</v>
-      </c>
-      <c r="V34"/>
+      <c r="V34" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
         <v>149</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>150</v>
-      </c>
-      <c r="F35" t="s">
-        <v>151</v>
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
         <v>64</v>
       </c>
-      <c r="I35"/>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
       <c r="J35" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
         <v>332</v>
       </c>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
       <c r="M35" t="s">
         <v>333</v>
       </c>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
+      <c r="N35" t="s">
+        <v>334</v>
+      </c>
+      <c r="O35" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>336</v>
+      </c>
+      <c r="R35" t="s">
+        <v>337</v>
+      </c>
+      <c r="S35" t="s">
+        <v>338</v>
+      </c>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
@@ -5359,10 +5450,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>152</v>
@@ -5378,37 +5469,57 @@
         <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
+        <v>339</v>
+      </c>
+      <c r="K36" t="s">
+        <v>340</v>
+      </c>
+      <c r="L36" t="s">
+        <v>341</v>
+      </c>
+      <c r="M36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" t="s">
+        <v>344</v>
+      </c>
+      <c r="P36" t="s">
+        <v>341</v>
+      </c>
       <c r="Q36" t="s">
-        <v>335</v>
-      </c>
-      <c r="R36"/>
-      <c r="S36"/>
+        <v>345</v>
+      </c>
+      <c r="R36" t="s">
+        <v>346</v>
+      </c>
+      <c r="S36" t="s">
+        <v>341</v>
+      </c>
       <c r="T36" t="s">
-        <v>336</v>
-      </c>
-      <c r="U36"/>
-      <c r="V36"/>
+        <v>347</v>
+      </c>
+      <c r="U36" t="s">
+        <v>348</v>
+      </c>
+      <c r="V36" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>155</v>
@@ -5424,24 +5535,16 @@
         <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" t="s">
-        <v>155</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-      <c r="M37" t="s">
-        <v>337</v>
-      </c>
-      <c r="N37" t="s">
-        <v>155</v>
-      </c>
+      <c r="M37"/>
+      <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="Q37" t="s">
-        <v>338</v>
-      </c>
+      <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -5453,10 +5556,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>159</v>
@@ -5467,89 +5570,103 @@
       <c r="F38" t="s">
         <v>161</v>
       </c>
-      <c r="G38"/>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
       <c r="H38" t="s">
         <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
-      </c>
-      <c r="K38"/>
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
-      </c>
-      <c r="O38"/>
-      <c r="P38"/>
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>353</v>
+      </c>
+      <c r="P38" t="s">
+        <v>354</v>
+      </c>
       <c r="Q38" t="s">
-        <v>342</v>
-      </c>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
+        <v>355</v>
+      </c>
+      <c r="R38" t="s">
+        <v>350</v>
+      </c>
+      <c r="S38" t="s">
+        <v>354</v>
+      </c>
+      <c r="T38" t="s">
+        <v>159</v>
+      </c>
+      <c r="U38" t="s">
+        <v>320</v>
+      </c>
+      <c r="V38" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>162</v>
       </c>
-      <c r="C39" t="n">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>163</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>164</v>
-      </c>
-      <c r="F39" t="s">
-        <v>165</v>
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
         <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
-      </c>
-      <c r="J39" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" t="s">
-        <v>344</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>345</v>
-      </c>
-      <c r="N39" t="s">
-        <v>346</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N39"/>
       <c r="O39" t="s">
-        <v>347</v>
-      </c>
-      <c r="P39"/>
-      <c r="Q39"/>
+        <v>357</v>
+      </c>
+      <c r="P39" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>358</v>
+      </c>
       <c r="R39" t="s">
-        <v>348</v>
-      </c>
-      <c r="S39"/>
-      <c r="T39" t="s">
-        <v>349</v>
-      </c>
-      <c r="U39" t="s">
-        <v>350</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="S39" t="s">
+        <v>360</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
       <c r="V39"/>
     </row>
     <row r="40">
@@ -5557,47 +5674,57 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
         <v>166</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
       </c>
       <c r="G40"/>
       <c r="H40" t="s">
         <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J40" t="s">
-        <v>351</v>
-      </c>
-      <c r="K40"/>
+        <v>361</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
       <c r="L40"/>
       <c r="M40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N40" t="s">
-        <v>353</v>
-      </c>
-      <c r="O40"/>
+        <v>363</v>
+      </c>
+      <c r="O40" t="s">
+        <v>364</v>
+      </c>
       <c r="P40"/>
       <c r="Q40" t="s">
-        <v>354</v>
-      </c>
-      <c r="R40"/>
+        <v>365</v>
+      </c>
+      <c r="R40" t="s">
+        <v>310</v>
+      </c>
       <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
+      <c r="T40" t="s">
+        <v>366</v>
+      </c>
+      <c r="U40" t="s">
+        <v>320</v>
+      </c>
       <c r="V40"/>
     </row>
     <row r="41">
@@ -5605,10 +5732,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>169</v>
@@ -5619,50 +5746,46 @@
       <c r="F41" t="s">
         <v>171</v>
       </c>
-      <c r="G41" t="s">
-        <v>139</v>
-      </c>
+      <c r="G41"/>
       <c r="H41" t="s">
         <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s">
-        <v>347</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41"/>
+        <v>307</v>
+      </c>
+      <c r="P41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>371</v>
+      </c>
       <c r="R41" t="s">
-        <v>348</v>
-      </c>
-      <c r="S41" t="n">
-        <v>88</v>
-      </c>
-      <c r="T41" t="s">
-        <v>359</v>
-      </c>
-      <c r="U41" t="s">
-        <v>350</v>
-      </c>
-      <c r="V41" t="s">
-        <v>360</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="S41" t="s">
+        <v>368</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -5672,7 +5795,7 @@
         <v>172</v>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>173</v>
@@ -5684,33 +5807,47 @@
         <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
         <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+        <v>134</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
       <c r="M42" t="s">
-        <v>361</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
+        <v>375</v>
+      </c>
+      <c r="N42" t="s">
+        <v>376</v>
+      </c>
+      <c r="O42" t="s">
+        <v>377</v>
+      </c>
+      <c r="P42" t="s">
+        <v>378</v>
+      </c>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42" t="s">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="U42" t="s">
-        <v>362</v>
-      </c>
-      <c r="V42"/>
+        <v>380</v>
+      </c>
+      <c r="V42" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -5720,103 +5857,105 @@
         <v>172</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" t="s">
-        <v>139</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G43"/>
       <c r="H43" t="s">
         <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+        <v>147</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
       <c r="M43" t="s">
-        <v>363</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
+        <v>384</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P43" t="s">
+        <v>383</v>
+      </c>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="U43" t="s">
-        <v>365</v>
-      </c>
-      <c r="V43"/>
+        <v>380</v>
+      </c>
+      <c r="V43" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" t="s">
         <v>182</v>
       </c>
-      <c r="C44" t="n">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>183</v>
-      </c>
-      <c r="E44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" t="s">
-        <v>186</v>
       </c>
       <c r="H44" t="s">
         <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" t="s">
-        <v>366</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" t="s">
-        <v>183</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N44"/>
       <c r="O44" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="P44"/>
-      <c r="Q44" t="s">
-        <v>368</v>
-      </c>
-      <c r="R44" t="s">
-        <v>369</v>
-      </c>
+      <c r="Q44"/>
+      <c r="R44"/>
       <c r="S44"/>
       <c r="T44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U44" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="V44"/>
     </row>
@@ -5825,269 +5964,287 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" t="s">
-        <v>370</v>
-      </c>
-      <c r="K45" t="s">
-        <v>366</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>371</v>
-      </c>
-      <c r="N45" t="s">
-        <v>372</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N45"/>
       <c r="O45" t="s">
-        <v>373</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>374</v>
-      </c>
-      <c r="R45" t="s">
-        <v>369</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="P45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45"/>
       <c r="S45"/>
-      <c r="T45"/>
+      <c r="T45" t="s">
+        <v>392</v>
+      </c>
       <c r="U45" t="s">
-        <v>366</v>
-      </c>
-      <c r="V45"/>
+        <v>390</v>
+      </c>
+      <c r="V45" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
         <v>192</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>193</v>
-      </c>
-      <c r="F46" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" t="s">
-        <v>139</v>
       </c>
       <c r="H46" t="s">
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
-      </c>
-      <c r="J46" t="s">
-        <v>375</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="J46"/>
       <c r="K46" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s">
-        <v>377</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N46"/>
       <c r="O46" t="s">
-        <v>367</v>
-      </c>
-      <c r="P46"/>
+        <v>394</v>
+      </c>
+      <c r="P46" t="s">
+        <v>395</v>
+      </c>
       <c r="Q46"/>
-      <c r="R46" t="s">
-        <v>369</v>
-      </c>
+      <c r="R46"/>
       <c r="S46"/>
-      <c r="T46"/>
+      <c r="T46" t="s">
+        <v>190</v>
+      </c>
       <c r="U46" t="s">
-        <v>366</v>
-      </c>
-      <c r="V46"/>
+        <v>393</v>
+      </c>
+      <c r="V46" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
         <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J47"/>
+        <v>194</v>
+      </c>
+      <c r="J47" t="s">
+        <v>196</v>
+      </c>
       <c r="K47" t="s">
-        <v>366</v>
-      </c>
-      <c r="L47"/>
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>395</v>
+      </c>
       <c r="M47" t="s">
-        <v>195</v>
-      </c>
-      <c r="N47"/>
+        <v>196</v>
+      </c>
+      <c r="N47" t="s">
+        <v>196</v>
+      </c>
       <c r="O47" t="s">
-        <v>378</v>
-      </c>
-      <c r="P47"/>
-      <c r="Q47"/>
+        <v>396</v>
+      </c>
+      <c r="P47" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>397</v>
+      </c>
       <c r="R47" t="s">
-        <v>369</v>
-      </c>
-      <c r="S47"/>
+        <v>398</v>
+      </c>
+      <c r="S47" t="s">
+        <v>395</v>
+      </c>
       <c r="T47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U47" t="s">
-        <v>366</v>
-      </c>
-      <c r="V47"/>
+        <v>393</v>
+      </c>
+      <c r="V47" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C48" t="n">
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="s">
-        <v>378</v>
-      </c>
-      <c r="P48"/>
+        <v>394</v>
+      </c>
+      <c r="P48" t="s">
+        <v>395</v>
+      </c>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="S48"/>
       <c r="T48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U48" t="s">
-        <v>366</v>
-      </c>
-      <c r="V48"/>
+        <v>393</v>
+      </c>
+      <c r="V48" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C49" t="n">
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
         <v>64</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
-      </c>
-      <c r="L49"/>
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>314</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" t="s">
-        <v>378</v>
-      </c>
+      <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="s">
-        <v>380</v>
-      </c>
-      <c r="R49"/>
-      <c r="S49"/>
+        <v>400</v>
+      </c>
+      <c r="R49" t="s">
+        <v>398</v>
+      </c>
+      <c r="S49" t="s">
+        <v>401</v>
+      </c>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
@@ -6097,53 +6254,61 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
         <v>64</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s">
-        <v>382</v>
-      </c>
-      <c r="L50"/>
+        <v>393</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
       <c r="M50" t="s">
-        <v>383</v>
-      </c>
-      <c r="N50"/>
+        <v>404</v>
+      </c>
+      <c r="N50" t="s">
+        <v>405</v>
+      </c>
       <c r="O50" t="s">
-        <v>373</v>
-      </c>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50" t="s">
-        <v>384</v>
-      </c>
-      <c r="U50" t="s">
-        <v>373</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="P50" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>407</v>
+      </c>
+      <c r="R50" t="s">
+        <v>398</v>
+      </c>
+      <c r="S50" t="s">
+        <v>401</v>
+      </c>
+      <c r="T50"/>
+      <c r="U50"/>
       <c r="V50"/>
     </row>
     <row r="51">
@@ -6151,49 +6316,55 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
-      </c>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+        <v>134</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
       <c r="M51" t="s">
-        <v>385</v>
-      </c>
-      <c r="N51"/>
+        <v>409</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
       <c r="O51" t="s">
-        <v>373</v>
-      </c>
-      <c r="P51"/>
+        <v>396</v>
+      </c>
+      <c r="P51" t="s">
+        <v>403</v>
+      </c>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
-      <c r="T51" t="s">
-        <v>386</v>
-      </c>
-      <c r="U51" t="s">
-        <v>373</v>
-      </c>
+      <c r="T51"/>
+      <c r="U51"/>
       <c r="V51"/>
     </row>
     <row r="52">
@@ -6201,167 +6372,209 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52"/>
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
       <c r="H52" t="s">
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>130</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
+        <v>134</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
       <c r="M52" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52" t="s">
-        <v>388</v>
-      </c>
+      <c r="O52" t="s">
+        <v>406</v>
+      </c>
+      <c r="P52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
+      <c r="T52" t="s">
+        <v>415</v>
+      </c>
+      <c r="U52" t="s">
+        <v>406</v>
+      </c>
+      <c r="V52" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
-      </c>
-      <c r="D53"/>
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>214</v>
+      </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
+        <v>216</v>
+      </c>
+      <c r="G53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" t="s">
+        <v>134</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53"/>
+      <c r="M53" t="s">
+        <v>416</v>
+      </c>
       <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
+      <c r="O53" t="s">
+        <v>406</v>
+      </c>
+      <c r="P53" t="s">
+        <v>413</v>
+      </c>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
-      <c r="T53"/>
+      <c r="T53" t="s">
+        <v>417</v>
+      </c>
       <c r="U53" t="s">
-        <v>389</v>
-      </c>
-      <c r="V53"/>
+        <v>406</v>
+      </c>
+      <c r="V53" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C54" t="n">
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
         <v>64</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J54"/>
-      <c r="K54" t="s">
-        <v>390</v>
-      </c>
+      <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54" t="s">
-        <v>391</v>
-      </c>
-      <c r="R54"/>
-      <c r="S54"/>
+        <v>418</v>
+      </c>
+      <c r="R54" t="s">
+        <v>419</v>
+      </c>
+      <c r="S54" t="s">
+        <v>314</v>
+      </c>
       <c r="T54" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="U54" t="s">
-        <v>393</v>
-      </c>
-      <c r="V54"/>
+        <v>421</v>
+      </c>
+      <c r="V54" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C55" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55"/>
+        <v>222</v>
+      </c>
+      <c r="G55" t="s">
+        <v>223</v>
+      </c>
       <c r="H55" t="s">
         <v>64</v>
       </c>
       <c r="I55" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55" t="s">
-        <v>394</v>
-      </c>
+      <c r="O55" t="s">
+        <v>422</v>
+      </c>
+      <c r="P55" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -6373,41 +6586,51 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C56" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56"/>
+        <v>227</v>
+      </c>
+      <c r="G56" t="s">
+        <v>228</v>
+      </c>
       <c r="H56" t="s">
         <v>64</v>
       </c>
       <c r="I56" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
+      <c r="O56" t="s">
+        <v>422</v>
+      </c>
+      <c r="P56" t="s">
+        <v>422</v>
+      </c>
       <c r="Q56" t="s">
-        <v>395</v>
-      </c>
-      <c r="R56"/>
-      <c r="S56"/>
+        <v>423</v>
+      </c>
+      <c r="R56" t="s">
+        <v>424</v>
+      </c>
+      <c r="S56" t="s">
+        <v>314</v>
+      </c>
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
@@ -6417,43 +6640,49 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
-      </c>
-      <c r="G57" t="s">
-        <v>229</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G57"/>
       <c r="H57" t="s">
         <v>64</v>
       </c>
       <c r="I57" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
+      <c r="O57" t="s">
+        <v>422</v>
+      </c>
+      <c r="P57" t="s">
+        <v>314</v>
+      </c>
       <c r="Q57" t="s">
-        <v>396</v>
-      </c>
-      <c r="R57"/>
-      <c r="S57"/>
+        <v>425</v>
+      </c>
+      <c r="R57" t="s">
+        <v>426</v>
+      </c>
+      <c r="S57" t="s">
+        <v>314</v>
+      </c>
       <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
@@ -6463,45 +6692,51 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C58" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
-      </c>
-      <c r="G58" t="s">
-        <v>234</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G58"/>
       <c r="H58" t="s">
         <v>64</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
+      <c r="O58" t="s">
+        <v>422</v>
+      </c>
+      <c r="P58" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>427</v>
+      </c>
+      <c r="R58" t="s">
+        <v>426</v>
+      </c>
+      <c r="S58" t="s">
+        <v>314</v>
+      </c>
       <c r="T58"/>
-      <c r="U58" t="s">
-        <v>393</v>
-      </c>
+      <c r="U58"/>
       <c r="V58"/>
     </row>
     <row r="59">
@@ -6509,86 +6744,50 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C59" t="n">
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
         <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="N59"/>
-      <c r="O59"/>
+      <c r="O59" t="s">
+        <v>429</v>
+      </c>
       <c r="P59"/>
       <c r="Q59" t="s">
-        <v>398</v>
-      </c>
-      <c r="R59"/>
-      <c r="S59"/>
+        <v>430</v>
+      </c>
+      <c r="R59" t="s">
+        <v>431</v>
+      </c>
+      <c r="S59" t="s">
+        <v>314</v>
+      </c>
       <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60"/>
-      <c r="H60" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60" t="s">
-        <v>242</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60" t="s">
-        <v>399</v>
-      </c>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t xml:space="preserve">termID</t>
   </si>
@@ -1184,31 +1184,175 @@
     <t xml:space="preserve">www.monitoringresources.org/Document/Method/Details/7016</t>
   </si>
   <si>
-    <t xml:space="preserve">method</t>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMPFieldCW</t>
   </si>
   <si>
     <t xml:space="preserve">AREMPCollectionMethodIDCW</t>
   </si>
   <si>
+    <t xml:space="preserve">AREMPAnalysisMethodIDCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIMFieldCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewAIMFieldCW</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIMCollectionMethodIDCW</t>
   </si>
   <si>
     <t xml:space="preserve">AIMAnalysisMethodIDCW</t>
   </si>
   <si>
+    <t xml:space="preserve">NRSAFieldCW</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRSACollectionMethodIDCW</t>
   </si>
   <si>
     <t xml:space="preserve">NRSAAnalysisMethodIDCW</t>
   </si>
   <si>
+    <t xml:space="preserve">PIBOFieldCW</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIBOCollectionMethodIDCW</t>
   </si>
   <si>
     <t xml:space="preserve">PIBOAnalysisMethodIDCW</t>
   </si>
   <si>
-    <t xml:space="preserve">AREMPAnalysisMethodIDCW</t>
+    <t xml:space="preserve">Dataset Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliographicCitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstitutionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectionID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Processing Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Name From The Data Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locaiton Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the Dataset Location Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Sign at Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent stable banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorous</t>
   </si>
 </sst>
 </file>
@@ -5648,1521 +5792,2787 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" t="s">
-        <v>386</v>
+      <c r="E1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" t="s">
-        <v>264</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C7" t="s">
-        <v>265</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" t="s">
-        <v>267</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" t="s">
-        <v>268</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" t="s">
-        <v>270</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" t="s">
-        <v>271</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" t="s">
-        <v>264</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>219</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12" t="s">
+        <v>226</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C13" t="s">
-        <v>273</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>227</v>
+      </c>
+      <c r="N13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13" t="s">
+        <v>229</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" t="s">
-        <v>274</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>231</v>
+      </c>
+      <c r="N14" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>233</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>234</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15" t="s">
-        <v>268</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>237</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15" t="s">
+        <v>238</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" t="s">
-        <v>278</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" t="s">
-        <v>279</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C18" t="s">
-        <v>281</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>240</v>
+      </c>
+      <c r="N18" t="s">
+        <v>241</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>240</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18" t="s">
+        <v>242</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C19" t="s">
-        <v>282</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>244</v>
+      </c>
+      <c r="N19" t="s">
+        <v>245</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="s">
+        <v>247</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" t="s">
-        <v>284</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>249</v>
+      </c>
+      <c r="N20" t="s">
+        <v>250</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>251</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20" t="s">
+        <v>252</v>
+      </c>
+      <c r="U20"/>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" t="s">
-        <v>282</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>254</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21" t="s">
+        <v>255</v>
+      </c>
+      <c r="U21"/>
+      <c r="V21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" t="s">
-        <v>394</v>
-      </c>
-      <c r="C23" t="s">
-        <v>268</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>388</v>
-      </c>
-      <c r="C24" t="s">
-        <v>288</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" t="s">
-        <v>268</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>390</v>
-      </c>
-      <c r="C26" t="s">
-        <v>291</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>391</v>
-      </c>
-      <c r="C27" t="s">
-        <v>292</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" t="s">
-        <v>294</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>394</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>416</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>259</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C31" t="s">
-        <v>295</v>
+        <v>124</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>263</v>
+      </c>
+      <c r="R31" t="s">
+        <v>264</v>
+      </c>
+      <c r="S31" t="s">
+        <v>265</v>
+      </c>
+      <c r="T31" t="s">
+        <v>266</v>
+      </c>
+      <c r="U31" t="s">
+        <v>267</v>
+      </c>
+      <c r="V31" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C32" t="s">
-        <v>300</v>
+        <v>124</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>269</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>270</v>
+      </c>
+      <c r="P32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>272</v>
+      </c>
+      <c r="R32" t="s">
+        <v>264</v>
+      </c>
+      <c r="S32" t="s">
+        <v>273</v>
+      </c>
+      <c r="T32" t="s">
+        <v>132</v>
+      </c>
+      <c r="U32" t="s">
+        <v>274</v>
+      </c>
+      <c r="V32" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
-      </c>
-      <c r="C33" t="s">
-        <v>295</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>275</v>
+      </c>
+      <c r="N33" t="s">
+        <v>135</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" t="s">
-        <v>302</v>
+        <v>138</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>420</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>280</v>
+      </c>
+      <c r="R34" t="s">
+        <v>281</v>
+      </c>
+      <c r="S34" t="s">
+        <v>282</v>
+      </c>
+      <c r="T34" t="s">
+        <v>283</v>
+      </c>
+      <c r="U34" t="s">
+        <v>284</v>
+      </c>
+      <c r="V34" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" t="s">
-        <v>295</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>421</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="s">
+        <v>287</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>288</v>
+      </c>
+      <c r="P35" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>290</v>
+      </c>
+      <c r="R35" t="s">
+        <v>291</v>
+      </c>
+      <c r="S35" t="s">
+        <v>292</v>
+      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>422</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="s">
+        <v>296</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>297</v>
+      </c>
+      <c r="P36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>299</v>
+      </c>
+      <c r="R36" t="s">
+        <v>300</v>
+      </c>
+      <c r="S36" t="s">
+        <v>295</v>
+      </c>
+      <c r="T36" t="s">
+        <v>301</v>
+      </c>
+      <c r="U36" t="s">
+        <v>302</v>
+      </c>
+      <c r="V36" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
-      </c>
-      <c r="C37" t="s">
-        <v>306</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>305</v>
+      </c>
+      <c r="N38" t="s">
+        <v>308</v>
+      </c>
+      <c r="O38" t="s">
+        <v>306</v>
+      </c>
+      <c r="P38" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>309</v>
+      </c>
+      <c r="R38" t="s">
+        <v>304</v>
+      </c>
+      <c r="S38" t="s">
+        <v>307</v>
+      </c>
+      <c r="T38" t="s">
+        <v>150</v>
+      </c>
+      <c r="U38" t="s">
+        <v>274</v>
+      </c>
+      <c r="V38" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
-      </c>
-      <c r="C39" t="s">
-        <v>304</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="s">
+        <v>310</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39" t="s">
+        <v>311</v>
+      </c>
+      <c r="P39" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>312</v>
+      </c>
+      <c r="R39" t="s">
+        <v>313</v>
+      </c>
+      <c r="S39" t="s">
+        <v>314</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
-      </c>
-      <c r="C40" t="s">
-        <v>307</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" t="s">
+        <v>426</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>270</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="s">
+        <v>316</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>317</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>319</v>
+      </c>
+      <c r="R40" t="s">
+        <v>264</v>
+      </c>
+      <c r="S40"/>
+      <c r="T40" t="s">
+        <v>320</v>
+      </c>
+      <c r="U40" t="s">
+        <v>274</v>
+      </c>
+      <c r="V40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" t="s">
-        <v>274</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>427</v>
+      </c>
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="s">
+        <v>323</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>261</v>
+      </c>
+      <c r="P41" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>325</v>
+      </c>
+      <c r="R41" t="s">
+        <v>264</v>
+      </c>
+      <c r="S41" t="s">
+        <v>322</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
-      </c>
-      <c r="C42" t="s">
-        <v>307</v>
+        <v>160</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>428</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="s">
+        <v>329</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>330</v>
+      </c>
+      <c r="P42" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42" t="s">
+        <v>333</v>
+      </c>
+      <c r="U42" t="s">
+        <v>334</v>
+      </c>
+      <c r="V42" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
-      </c>
-      <c r="C43" t="s">
-        <v>311</v>
+        <v>160</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>429</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>337</v>
+      </c>
+      <c r="M43" t="s">
+        <v>338</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>330</v>
+      </c>
+      <c r="P43" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43" t="s">
+        <v>340</v>
+      </c>
+      <c r="U43" t="s">
+        <v>334</v>
+      </c>
+      <c r="V43" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
-      </c>
-      <c r="C44" t="s">
-        <v>268</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>430</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44" t="s">
+        <v>341</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44" t="s">
+        <v>342</v>
+      </c>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44" t="s">
+        <v>166</v>
+      </c>
+      <c r="U44" t="s">
+        <v>342</v>
+      </c>
+      <c r="V44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
-      </c>
-      <c r="C45" t="s">
-        <v>313</v>
+        <v>165</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" t="s">
+        <v>343</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>344</v>
+      </c>
+      <c r="P45" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45" t="s">
+        <v>346</v>
+      </c>
+      <c r="U45" t="s">
+        <v>344</v>
+      </c>
+      <c r="V45" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
-      </c>
-      <c r="C46" t="s">
-        <v>314</v>
+        <v>173</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>432</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>347</v>
+      </c>
+      <c r="P46" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46" t="s">
+        <v>174</v>
+      </c>
+      <c r="U46" t="s">
+        <v>349</v>
+      </c>
+      <c r="V46" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" t="s">
-        <v>270</v>
+        <v>173</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>433</v>
+      </c>
+      <c r="F47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>348</v>
+      </c>
+      <c r="M47" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" t="s">
+        <v>179</v>
+      </c>
+      <c r="O47" t="s">
+        <v>350</v>
+      </c>
+      <c r="P47" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>351</v>
+      </c>
+      <c r="R47" t="s">
+        <v>352</v>
+      </c>
+      <c r="S47" t="s">
+        <v>348</v>
+      </c>
+      <c r="T47" t="s">
+        <v>179</v>
+      </c>
+      <c r="U47" t="s">
+        <v>349</v>
+      </c>
+      <c r="V47" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
-      </c>
-      <c r="C48" t="s">
-        <v>317</v>
+        <v>173</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>434</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48" t="s">
+        <v>349</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>181</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>347</v>
+      </c>
+      <c r="P48" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q48"/>
+      <c r="R48" t="s">
+        <v>352</v>
+      </c>
+      <c r="S48"/>
+      <c r="T48" t="s">
+        <v>181</v>
+      </c>
+      <c r="U48" t="s">
+        <v>349</v>
+      </c>
+      <c r="V48" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
-      </c>
-      <c r="C49" t="s">
-        <v>264</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>435</v>
+      </c>
+      <c r="F49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" t="s">
+        <v>353</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>268</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49" t="s">
+        <v>354</v>
+      </c>
+      <c r="R49" t="s">
+        <v>352</v>
+      </c>
+      <c r="S49" t="s">
+        <v>355</v>
+      </c>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
-      </c>
-      <c r="C50" t="s">
-        <v>274</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>436</v>
+      </c>
+      <c r="F50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
+        <v>349</v>
+      </c>
+      <c r="L50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M50" t="s">
+        <v>358</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>359</v>
+      </c>
+      <c r="P50" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>361</v>
+      </c>
+      <c r="R50" t="s">
+        <v>352</v>
+      </c>
+      <c r="S50" t="s">
+        <v>355</v>
+      </c>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>387</v>
-      </c>
-      <c r="C51" t="s">
-        <v>294</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" t="s">
+        <v>437</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" t="s">
+        <v>349</v>
+      </c>
+      <c r="L51" t="s">
+        <v>357</v>
+      </c>
+      <c r="M51" t="s">
+        <v>363</v>
+      </c>
+      <c r="N51" t="s">
+        <v>364</v>
+      </c>
+      <c r="O51" t="s">
+        <v>350</v>
+      </c>
+      <c r="P51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
-      </c>
-      <c r="C52" t="s">
-        <v>322</v>
+        <v>173</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>438</v>
+      </c>
+      <c r="F52" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" t="s">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" t="s">
+        <v>368</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>359</v>
+      </c>
+      <c r="P52" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52" t="s">
+        <v>369</v>
+      </c>
+      <c r="U52" t="s">
+        <v>359</v>
+      </c>
+      <c r="V52" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
-      </c>
-      <c r="C53" t="s">
-        <v>261</v>
+        <v>173</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>439</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53" t="s">
+        <v>370</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="s">
+        <v>359</v>
+      </c>
+      <c r="P53" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53" t="s">
+        <v>371</v>
+      </c>
+      <c r="U53" t="s">
+        <v>359</v>
+      </c>
+      <c r="V53" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>389</v>
-      </c>
-      <c r="C54" t="s">
-        <v>322</v>
+        <v>193</v>
+      </c>
+      <c r="C54" t="n">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54" t="s">
+        <v>372</v>
+      </c>
+      <c r="R54" t="s">
+        <v>373</v>
+      </c>
+      <c r="S54" t="s">
+        <v>268</v>
+      </c>
+      <c r="T54" t="s">
+        <v>374</v>
+      </c>
+      <c r="U54" t="s">
+        <v>375</v>
+      </c>
+      <c r="V54" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>390</v>
-      </c>
-      <c r="C55" t="s">
-        <v>264</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" t="s">
+        <v>197</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55" t="s">
+        <v>376</v>
+      </c>
+      <c r="P55" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>391</v>
-      </c>
-      <c r="C56" t="s">
-        <v>322</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C56" t="n">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56" t="s">
+        <v>201</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>376</v>
+      </c>
+      <c r="P56" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>377</v>
+      </c>
+      <c r="R56" t="s">
+        <v>378</v>
+      </c>
+      <c r="S56" t="s">
+        <v>268</v>
+      </c>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" t="s">
-        <v>327</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C57" t="n">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="s">
+        <v>441</v>
+      </c>
+      <c r="F57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>376</v>
+      </c>
+      <c r="P57" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>379</v>
+      </c>
+      <c r="R57" t="s">
+        <v>380</v>
+      </c>
+      <c r="S57" t="s">
+        <v>268</v>
+      </c>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>394</v>
-      </c>
-      <c r="C58" t="s">
-        <v>328</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C58" t="n">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" t="s">
+        <v>208</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58" t="s">
+        <v>376</v>
+      </c>
+      <c r="P58" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>381</v>
+      </c>
+      <c r="R58" t="s">
+        <v>380</v>
+      </c>
+      <c r="S58" t="s">
+        <v>268</v>
+      </c>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
-      </c>
-      <c r="C59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" t="s">
-        <v>389</v>
-      </c>
-      <c r="C60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" t="s">
-        <v>392</v>
-      </c>
-      <c r="C61" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" t="s">
-        <v>393</v>
-      </c>
-      <c r="C62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" t="s">
-        <v>387</v>
-      </c>
-      <c r="C63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>163</v>
-      </c>
-      <c r="B64" t="s">
-        <v>394</v>
-      </c>
-      <c r="C64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
-        <v>388</v>
-      </c>
-      <c r="C65" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C67" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" t="s">
-        <v>393</v>
-      </c>
-      <c r="C68" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" t="s">
-        <v>388</v>
-      </c>
-      <c r="C69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>388</v>
-      </c>
-      <c r="C71" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>171</v>
-      </c>
-      <c r="B72" t="s">
-        <v>389</v>
-      </c>
-      <c r="C72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" t="s">
-        <v>392</v>
-      </c>
-      <c r="C73" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" t="s">
-        <v>393</v>
-      </c>
-      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="n">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" t="s">
+        <v>382</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59" t="s">
+        <v>383</v>
+      </c>
+      <c r="P59"/>
+      <c r="Q59" t="s">
+        <v>384</v>
+      </c>
+      <c r="R59" t="s">
+        <v>385</v>
+      </c>
+      <c r="S59" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" t="s">
-        <v>387</v>
-      </c>
-      <c r="C75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" t="s">
-        <v>388</v>
-      </c>
-      <c r="C76" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" t="s">
-        <v>389</v>
-      </c>
-      <c r="C77" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" t="s">
-        <v>392</v>
-      </c>
-      <c r="C78" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" t="s">
-        <v>393</v>
-      </c>
-      <c r="C79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" t="s">
-        <v>387</v>
-      </c>
-      <c r="C80" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>179</v>
-      </c>
-      <c r="B81" t="s">
-        <v>394</v>
-      </c>
-      <c r="C81" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" t="s">
-        <v>388</v>
-      </c>
-      <c r="C82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" t="s">
-        <v>389</v>
-      </c>
-      <c r="C83" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" t="s">
-        <v>390</v>
-      </c>
-      <c r="C84" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>391</v>
-      </c>
-      <c r="C85" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>179</v>
-      </c>
-      <c r="B86" t="s">
-        <v>392</v>
-      </c>
-      <c r="C86" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>387</v>
-      </c>
-      <c r="C88" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B89" t="s">
-        <v>388</v>
-      </c>
-      <c r="C89" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" t="s">
-        <v>389</v>
-      </c>
-      <c r="C90" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" t="s">
-        <v>390</v>
-      </c>
-      <c r="C91" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" t="s">
-        <v>392</v>
-      </c>
-      <c r="C92" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" t="s">
-        <v>393</v>
-      </c>
-      <c r="C93" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>387</v>
-      </c>
-      <c r="C94" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" t="s">
-        <v>390</v>
-      </c>
-      <c r="C96" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>183</v>
-      </c>
-      <c r="B97" t="s">
-        <v>391</v>
-      </c>
-      <c r="C97" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>185</v>
-      </c>
-      <c r="B98" t="s">
-        <v>387</v>
-      </c>
-      <c r="C98" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" t="s">
-        <v>394</v>
-      </c>
-      <c r="C99" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>388</v>
-      </c>
-      <c r="C100" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>185</v>
-      </c>
-      <c r="B101" t="s">
-        <v>389</v>
-      </c>
-      <c r="C101" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>185</v>
-      </c>
-      <c r="B102" t="s">
-        <v>390</v>
-      </c>
-      <c r="C102" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" t="s">
-        <v>391</v>
-      </c>
-      <c r="C103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>187</v>
-      </c>
-      <c r="B104" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" t="s">
-        <v>394</v>
-      </c>
-      <c r="C105" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" t="s">
-        <v>388</v>
-      </c>
-      <c r="C106" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" t="s">
-        <v>389</v>
-      </c>
-      <c r="C107" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" t="s">
-        <v>387</v>
-      </c>
-      <c r="C108" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>189</v>
-      </c>
-      <c r="B109" t="s">
-        <v>394</v>
-      </c>
-      <c r="C109" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" t="s">
-        <v>388</v>
-      </c>
-      <c r="C110" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111" t="s">
-        <v>389</v>
-      </c>
-      <c r="C111" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" t="s">
-        <v>392</v>
-      </c>
-      <c r="C112" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" t="s">
-        <v>393</v>
-      </c>
-      <c r="C113" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>191</v>
-      </c>
-      <c r="B114" t="s">
-        <v>388</v>
-      </c>
-      <c r="C114" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>191</v>
-      </c>
-      <c r="B115" t="s">
-        <v>389</v>
-      </c>
-      <c r="C115" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" t="s">
-        <v>392</v>
-      </c>
-      <c r="C116" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>191</v>
-      </c>
-      <c r="B117" t="s">
-        <v>393</v>
-      </c>
-      <c r="C117" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>194</v>
-      </c>
-      <c r="B118" t="s">
-        <v>390</v>
-      </c>
-      <c r="C118" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" t="s">
-        <v>391</v>
-      </c>
-      <c r="C119" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>194</v>
-      </c>
-      <c r="B120" t="s">
-        <v>392</v>
-      </c>
-      <c r="C120" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>194</v>
-      </c>
-      <c r="B121" t="s">
-        <v>393</v>
-      </c>
-      <c r="C121" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>197</v>
-      </c>
-      <c r="B122" t="s">
-        <v>388</v>
-      </c>
-      <c r="C122" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>197</v>
-      </c>
-      <c r="B123" t="s">
-        <v>389</v>
-      </c>
-      <c r="C123" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>201</v>
-      </c>
-      <c r="B124" t="s">
-        <v>388</v>
-      </c>
-      <c r="C124" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>201</v>
-      </c>
-      <c r="B125" t="s">
-        <v>389</v>
-      </c>
-      <c r="C125" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>201</v>
-      </c>
-      <c r="B126" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>201</v>
-      </c>
-      <c r="B127" t="s">
-        <v>391</v>
-      </c>
-      <c r="C127" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>206</v>
-      </c>
-      <c r="B128" t="s">
-        <v>388</v>
-      </c>
-      <c r="C128" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>206</v>
-      </c>
-      <c r="B129" t="s">
-        <v>389</v>
-      </c>
-      <c r="C129" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" t="s">
-        <v>390</v>
-      </c>
-      <c r="C130" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>206</v>
-      </c>
-      <c r="B131" t="s">
-        <v>391</v>
-      </c>
-      <c r="C131" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>209</v>
-      </c>
-      <c r="B132" t="s">
-        <v>388</v>
-      </c>
-      <c r="C132" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>209</v>
-      </c>
-      <c r="B133" t="s">
-        <v>389</v>
-      </c>
-      <c r="C133" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>209</v>
-      </c>
-      <c r="B134" t="s">
-        <v>390</v>
-      </c>
-      <c r="C134" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>209</v>
-      </c>
-      <c r="B135" t="s">
-        <v>391</v>
-      </c>
-      <c r="C135" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" t="s">
-        <v>388</v>
-      </c>
-      <c r="C136" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>211</v>
-      </c>
-      <c r="B137" t="s">
-        <v>390</v>
-      </c>
-      <c r="C137" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>211</v>
-      </c>
-      <c r="B138" t="s">
-        <v>391</v>
-      </c>
-      <c r="C138" t="s">
-        <v>268</v>
-      </c>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -1854,7 +1854,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
@@ -2891,7 +2891,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="n">
+        <v>31</v>
+      </c>
       <c r="B8" t="s">
         <v>117</v>
       </c>
@@ -2926,7 +2928,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="n">
+        <v>32</v>
+      </c>
       <c r="B9" t="s">
         <v>121</v>
       </c>
@@ -3855,1926 +3859,2301 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>218</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>219</v>
       </c>
-      <c r="D2"/>
       <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>220</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>221</v>
       </c>
-      <c r="D3"/>
       <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>222</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>223</v>
       </c>
-      <c r="D4"/>
       <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>219</v>
       </c>
-      <c r="D5"/>
       <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>226</v>
       </c>
-      <c r="D6"/>
       <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>227</v>
       </c>
-      <c r="D7"/>
       <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>222</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>228</v>
       </c>
-      <c r="D8"/>
       <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>229</v>
       </c>
-      <c r="D9"/>
       <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>218</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>230</v>
       </c>
-      <c r="D10"/>
       <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>220</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>231</v>
       </c>
-      <c r="D11"/>
       <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>232</v>
       </c>
-      <c r="D12"/>
       <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>233</v>
       </c>
-      <c r="D13"/>
       <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>234</v>
       </c>
-      <c r="D14"/>
       <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>218</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15"/>
       <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>220</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>235</v>
       </c>
-      <c r="D16"/>
       <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>236</v>
       </c>
-      <c r="D17"/>
       <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>224</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>237</v>
       </c>
-      <c r="D18"/>
       <c r="E18"/>
+      <c r="F18"/>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>225</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>238</v>
       </c>
-      <c r="D19"/>
       <c r="E19"/>
+      <c r="F19"/>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>218</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>239</v>
       </c>
-      <c r="D20"/>
       <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>220</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>240</v>
       </c>
-      <c r="D21"/>
       <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>222</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>241</v>
       </c>
-      <c r="D22"/>
       <c r="E22"/>
+      <c r="F22"/>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>224</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>240</v>
       </c>
-      <c r="D23"/>
       <c r="E23"/>
+      <c r="F23"/>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>225</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>242</v>
       </c>
-      <c r="D24"/>
       <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>218</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>243</v>
       </c>
-      <c r="D25"/>
       <c r="E25"/>
+      <c r="F25"/>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>244</v>
       </c>
-      <c r="D26"/>
       <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>222</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>245</v>
       </c>
-      <c r="D27"/>
       <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>224</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>246</v>
       </c>
-      <c r="D28"/>
       <c r="E28"/>
+      <c r="F28"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>247</v>
       </c>
-      <c r="D29"/>
       <c r="E29"/>
+      <c r="F29"/>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="n">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>218</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>248</v>
       </c>
-      <c r="D30"/>
       <c r="E30"/>
+      <c r="F30"/>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>249</v>
       </c>
-      <c r="D31"/>
       <c r="E31"/>
+      <c r="F31"/>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>222</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>250</v>
       </c>
-      <c r="D32"/>
       <c r="E32"/>
+      <c r="F32"/>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="n">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>224</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>251</v>
       </c>
-      <c r="D33"/>
       <c r="E33"/>
+      <c r="F33"/>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="n">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>225</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>252</v>
       </c>
-      <c r="D34"/>
       <c r="E34"/>
+      <c r="F34"/>
     </row>
     <row r="35">
-      <c r="A35" t="s">
+      <c r="A35" t="n">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>218</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>253</v>
       </c>
-      <c r="D35"/>
       <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
-      <c r="A36" t="s">
+      <c r="A36" t="n">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>224</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>254</v>
       </c>
-      <c r="D36"/>
       <c r="E36"/>
+      <c r="F36"/>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" t="n">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>225</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>255</v>
       </c>
-      <c r="D37"/>
       <c r="E37"/>
+      <c r="F37"/>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" t="n">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
         <v>125</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>218</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>256</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>257</v>
       </c>
-      <c r="E38"/>
+      <c r="F38"/>
     </row>
     <row r="39">
-      <c r="A39" t="s">
+      <c r="A39" t="n">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
         <v>125</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>220</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>258</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>259</v>
       </c>
-      <c r="E39"/>
+      <c r="F39"/>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" t="n">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
         <v>127</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>220</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>260</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>261</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
+      <c r="A41" t="n">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>222</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>127</v>
       </c>
-      <c r="D41"/>
       <c r="E41"/>
+      <c r="F41"/>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42" t="n">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
         <v>127</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>224</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>263</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>264</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
+      <c r="A43" t="n">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>225</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>266</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>267</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44" t="n">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>220</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>269</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>270</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
+      <c r="A45" t="n">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>224</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>272</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>264</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
+      <c r="A46" t="n">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>225</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>132</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>274</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
+      <c r="A47" t="n">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>218</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>135</v>
       </c>
-      <c r="D47"/>
       <c r="E47"/>
+      <c r="F47"/>
     </row>
     <row r="48">
-      <c r="A48" t="s">
+      <c r="A48" t="n">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>220</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>275</v>
       </c>
-      <c r="D48"/>
       <c r="E48"/>
+      <c r="F48"/>
     </row>
     <row r="49">
-      <c r="A49" t="s">
+      <c r="A49" t="n">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
         <v>135</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>222</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>135</v>
       </c>
-      <c r="D49"/>
       <c r="E49"/>
+      <c r="F49"/>
     </row>
     <row r="50">
-      <c r="A50" t="s">
+      <c r="A50" t="n">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
         <v>135</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>224</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>276</v>
       </c>
-      <c r="D50"/>
       <c r="E50"/>
+      <c r="F50"/>
     </row>
     <row r="51">
-      <c r="A51" t="s">
+      <c r="A51" t="n">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
         <v>139</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>218</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>277</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>278</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
+      <c r="A52" t="n">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>224</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>280</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>281</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
+      <c r="A53" t="n">
+        <v>37</v>
+      </c>
+      <c r="B53" t="s">
         <v>139</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>225</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>283</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>284</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
+      <c r="A54" t="n">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
         <v>142</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>218</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>285</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>286</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
+      <c r="A55" t="n">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
         <v>142</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>287</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>288</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
+      <c r="A56" t="n">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
         <v>142</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>222</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>289</v>
       </c>
-      <c r="D56"/>
       <c r="E56"/>
+      <c r="F56"/>
     </row>
     <row r="57">
-      <c r="A57" t="s">
+      <c r="A57" t="n">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
         <v>142</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>224</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>290</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>291</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
+      <c r="A58" t="n">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
         <v>145</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>218</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>293</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>294</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
+      <c r="A59" t="n">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
         <v>145</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>220</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>296</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>297</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="A60" t="n">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
         <v>145</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>222</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>298</v>
       </c>
-      <c r="D60"/>
       <c r="E60"/>
+      <c r="F60"/>
     </row>
     <row r="61">
-      <c r="A61" t="s">
+      <c r="A61" t="n">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>224</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>299</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>300</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
+      <c r="A62" t="n">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
         <v>145</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>225</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>301</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>302</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
+      <c r="A63" t="n">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>218</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>303</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>304</v>
       </c>
-      <c r="E63"/>
+      <c r="F63"/>
     </row>
     <row r="64">
-      <c r="A64" t="s">
+      <c r="A64" t="n">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
         <v>150</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>220</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>305</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>306</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
+      <c r="A65" t="n">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
         <v>150</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>222</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>308</v>
       </c>
-      <c r="D65"/>
       <c r="E65"/>
+      <c r="F65"/>
     </row>
     <row r="66">
-      <c r="A66" t="s">
+      <c r="A66" t="n">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
         <v>150</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>224</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>309</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>304</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
+      <c r="A67" t="n">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>225</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>150</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>274</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
         <v>152</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>220</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>310</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>311</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
         <v>152</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>224</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>312</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>313</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
+      <c r="A70" t="n">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>218</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>315</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>270</v>
       </c>
-      <c r="E70"/>
+      <c r="F70"/>
     </row>
     <row r="71">
-      <c r="A71" t="s">
+      <c r="A71" t="n">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
         <v>154</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>220</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>316</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>317</v>
       </c>
-      <c r="E71"/>
+      <c r="F71"/>
     </row>
     <row r="72">
-      <c r="A72" t="s">
+      <c r="A72" t="n">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>222</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>318</v>
       </c>
-      <c r="D72"/>
       <c r="E72"/>
+      <c r="F72"/>
     </row>
     <row r="73">
-      <c r="A73" t="s">
+      <c r="A73" t="n">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
         <v>154</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>224</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>319</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>264</v>
       </c>
-      <c r="E73"/>
+      <c r="F73"/>
     </row>
     <row r="74">
-      <c r="A74" t="s">
+      <c r="A74" t="n">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
         <v>154</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>225</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>320</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>274</v>
       </c>
-      <c r="E74"/>
+      <c r="F74"/>
     </row>
     <row r="75">
-      <c r="A75" t="s">
+      <c r="A75" t="n">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
         <v>158</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>218</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>321</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>294</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
+      <c r="A76" t="n">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>220</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>323</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>261</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
+      <c r="A77" t="n">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>222</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>324</v>
       </c>
-      <c r="D77"/>
       <c r="E77"/>
+      <c r="F77"/>
     </row>
     <row r="78">
-      <c r="A78" t="s">
+      <c r="A78" t="n">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
         <v>158</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>224</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>325</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>264</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
+      <c r="A79" t="n">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
         <v>161</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>218</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>326</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>327</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
+      <c r="A80" t="n">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>220</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>329</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>330</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
+      <c r="A81" t="n">
+        <v>46</v>
+      </c>
+      <c r="B81" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>222</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>332</v>
       </c>
-      <c r="D81"/>
       <c r="E81"/>
+      <c r="F81"/>
     </row>
     <row r="82">
-      <c r="A82" t="s">
+      <c r="A82" t="n">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
         <v>161</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>225</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>333</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>334</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
+      <c r="A83" t="n">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>218</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>336</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>327</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
+      <c r="A84" t="n">
+        <v>47</v>
+      </c>
+      <c r="B84" t="s">
         <v>163</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>220</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>338</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>330</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
+      <c r="A85" t="n">
+        <v>47</v>
+      </c>
+      <c r="B85" t="s">
         <v>163</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>222</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>339</v>
       </c>
-      <c r="D85"/>
       <c r="E85"/>
+      <c r="F85"/>
     </row>
     <row r="86">
-      <c r="A86" t="s">
+      <c r="A86" t="n">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
         <v>163</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>225</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>340</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>334</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
+      <c r="A87" t="n">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>220</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>341</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>342</v>
       </c>
-      <c r="E87"/>
+      <c r="F87"/>
     </row>
     <row r="88">
-      <c r="A88" t="s">
+      <c r="A88" t="n">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>225</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>166</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>342</v>
       </c>
-      <c r="E88"/>
+      <c r="F88"/>
     </row>
     <row r="89">
-      <c r="A89" t="s">
+      <c r="A89" t="n">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
         <v>171</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>220</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>343</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>344</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
+      <c r="A90" t="n">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
         <v>171</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>225</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>346</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>344</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
+      <c r="A91" t="n">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
         <v>174</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>220</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>347</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
+      <c r="A92" t="n">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>225</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>174</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>349</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
+      <c r="A93" t="n">
+        <v>51</v>
+      </c>
+      <c r="B93" t="s">
         <v>179</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>218</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>179</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>349</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
+      <c r="A94" t="n">
+        <v>51</v>
+      </c>
+      <c r="B94" t="s">
         <v>179</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>220</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>350</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
+      <c r="A95" t="n">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
         <v>179</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>222</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>179</v>
       </c>
-      <c r="D95"/>
       <c r="E95"/>
+      <c r="F95"/>
     </row>
     <row r="96">
-      <c r="A96" t="s">
+      <c r="A96" t="n">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
         <v>179</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>224</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>351</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>352</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s">
+      <c r="A97" t="n">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
         <v>179</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>225</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>179</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>349</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
+      <c r="A98" t="n">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
         <v>181</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>220</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>181</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>347</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s">
+      <c r="A99" t="n">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
         <v>181</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>225</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>181</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>349</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s">
+      <c r="A100" t="n">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
         <v>183</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>218</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>353</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>349</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
+      <c r="A101" t="n">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
         <v>183</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>224</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>354</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>352</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
+      <c r="A102" t="n">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
         <v>185</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>218</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>356</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>349</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s">
+      <c r="A103" t="n">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
         <v>185</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>220</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>358</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>359</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
+      <c r="A104" t="n">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
         <v>185</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>222</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>360</v>
       </c>
-      <c r="D104"/>
       <c r="E104"/>
+      <c r="F104"/>
     </row>
     <row r="105">
-      <c r="A105" t="s">
+      <c r="A105" t="n">
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
         <v>185</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>224</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>361</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>352</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
+      <c r="A106" t="n">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
         <v>187</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>218</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>362</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>349</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s">
+      <c r="A107" t="n">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
         <v>187</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>220</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>363</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>350</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
+      <c r="A108" t="n">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
         <v>187</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>222</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>364</v>
       </c>
-      <c r="D108"/>
       <c r="E108"/>
+      <c r="F108"/>
     </row>
     <row r="109">
-      <c r="A109" t="s">
+      <c r="A109" t="n">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
         <v>189</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>218</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>365</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>366</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s">
+      <c r="A110" t="n">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
         <v>189</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>220</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>368</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>359</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
+      <c r="A111" t="n">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
         <v>189</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>225</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>369</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>359</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
+      <c r="A112" t="n">
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
         <v>191</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>220</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>370</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>359</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
+      <c r="A113" t="n">
+        <v>57</v>
+      </c>
+      <c r="B113" t="s">
         <v>191</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>225</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>371</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>359</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s">
+      <c r="A114" t="n">
+        <v>58</v>
+      </c>
+      <c r="B114" t="s">
         <v>194</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>224</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>372</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>373</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s">
+      <c r="A115" t="n">
+        <v>58</v>
+      </c>
+      <c r="B115" t="s">
         <v>194</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>225</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>374</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>375</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
+      <c r="A116" t="n">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
         <v>197</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>220</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>197</v>
-      </c>
-      <c r="D116" t="s">
-        <v>376</v>
       </c>
       <c r="E116" t="s">
         <v>376</v>
       </c>
+      <c r="F116" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="s">
+      <c r="A117" t="n">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
         <v>201</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>220</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>201</v>
-      </c>
-      <c r="D117" t="s">
-        <v>376</v>
       </c>
       <c r="E117" t="s">
         <v>376</v>
       </c>
+      <c r="F117" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="s">
+      <c r="A118" t="n">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
         <v>201</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>224</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>377</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>378</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
+      <c r="A119" t="n">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
         <v>206</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>220</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>206</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>376</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
+      <c r="A120" t="n">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
         <v>206</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>224</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>379</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>380</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
+      <c r="A121" t="n">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
         <v>209</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>220</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>209</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>376</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s">
+      <c r="A122" t="n">
+        <v>62</v>
+      </c>
+      <c r="B122" t="s">
         <v>209</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>224</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>381</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>380</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
+      <c r="A123" t="n">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
         <v>211</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>220</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>382</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>383</v>
       </c>
-      <c r="E123"/>
+      <c r="F123"/>
     </row>
     <row r="124">
-      <c r="A124" t="s">
+      <c r="A124" t="n">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
         <v>211</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>224</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>384</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>385</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>174</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="A125" t="n">
+        <v>50</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125" t="s">
         <v>218</v>
       </c>
-      <c r="C125"/>
-      <c r="D125" t="s">
+      <c r="D125"/>
+      <c r="E125" t="s">
         <v>349</v>
       </c>
-      <c r="E125"/>
+      <c r="F125"/>
     </row>
     <row r="126">
-      <c r="A126" t="s">
-        <v>181</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="A126" t="n">
+        <v>52</v>
+      </c>
+      <c r="B126"/>
+      <c r="C126" t="s">
         <v>218</v>
       </c>
-      <c r="C126"/>
-      <c r="D126" t="s">
+      <c r="D126"/>
+      <c r="E126" t="s">
         <v>349</v>
       </c>
-      <c r="E126"/>
+      <c r="F126"/>
     </row>
     <row r="127">
-      <c r="A127" t="s">
-        <v>181</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" t="n">
+        <v>52</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127" t="s">
         <v>224</v>
       </c>
-      <c r="C127"/>
-      <c r="D127" t="s">
+      <c r="D127"/>
+      <c r="E127" t="s">
         <v>352</v>
       </c>
-      <c r="E127"/>
+      <c r="F127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5804,57 +6183,60 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>387</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>388</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>389</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>392</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>393</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>394</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>399</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5867,17 +6249,19 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -5891,6 +6275,7 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
+      <c r="W2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -5901,19 +6286,21 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5927,6 +6314,7 @@
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
+      <c r="W3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -5937,19 +6325,21 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>401</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -5963,6 +6353,7 @@
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
+      <c r="W4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -5973,17 +6364,19 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>402</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -5997,6 +6390,7 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
+      <c r="W5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -6007,17 +6401,19 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
+      <c r="H6"/>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -6031,6 +6427,7 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
+      <c r="W6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -6041,19 +6438,21 @@
       <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>403</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -6067,6 +6466,7 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -6077,19 +6477,21 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>404</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -6103,6 +6505,7 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -6113,17 +6516,19 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="G9"/>
-      <c r="H9" t="s">
+      <c r="H9"/>
+      <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -6137,6 +6542,7 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -6147,17 +6553,19 @@
       <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>405</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
+      <c r="H10"/>
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -6171,6 +6579,7 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -6181,19 +6590,21 @@
       <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>406</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -6207,6 +6618,7 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -6217,42 +6629,45 @@
       <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>407</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="I12"/>
-      <c r="J12" t="s">
+      <c r="J12"/>
+      <c r="K12" t="s">
         <v>219</v>
       </c>
-      <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" t="s">
+      <c r="M12"/>
+      <c r="N12" t="s">
         <v>221</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>223</v>
       </c>
-      <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12" t="s">
+      <c r="Q12"/>
+      <c r="R12" t="s">
         <v>219</v>
       </c>
-      <c r="R12"/>
       <c r="S12"/>
-      <c r="T12" t="s">
+      <c r="T12"/>
+      <c r="U12" t="s">
         <v>226</v>
       </c>
-      <c r="U12"/>
       <c r="V12"/>
+      <c r="W12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -6263,36 +6678,39 @@
       <c r="D13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>408</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
+      <c r="H13"/>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" t="s">
+      <c r="M13"/>
+      <c r="N13" t="s">
         <v>227</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>228</v>
       </c>
-      <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13" t="s">
+      <c r="T13"/>
+      <c r="U13" t="s">
         <v>229</v>
       </c>
-      <c r="U13"/>
       <c r="V13"/>
+      <c r="W13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6303,40 +6721,43 @@
       <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>409</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
+      <c r="H14"/>
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="I14"/>
-      <c r="J14" t="s">
+      <c r="J14"/>
+      <c r="K14" t="s">
         <v>230</v>
       </c>
-      <c r="K14"/>
       <c r="L14"/>
-      <c r="M14" t="s">
+      <c r="M14"/>
+      <c r="N14" t="s">
         <v>231</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>232</v>
       </c>
-      <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14" t="s">
+      <c r="Q14"/>
+      <c r="R14" t="s">
         <v>233</v>
       </c>
-      <c r="R14"/>
       <c r="S14"/>
-      <c r="T14" t="s">
+      <c r="T14"/>
+      <c r="U14" t="s">
         <v>234</v>
       </c>
-      <c r="U14"/>
       <c r="V14"/>
+      <c r="W14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -6347,40 +6768,43 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>410</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="G15"/>
-      <c r="H15" t="s">
+      <c r="H15"/>
+      <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="I15"/>
-      <c r="J15" t="s">
+      <c r="J15"/>
+      <c r="K15" t="s">
         <v>66</v>
       </c>
-      <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" t="s">
+      <c r="M15"/>
+      <c r="N15" t="s">
         <v>235</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>236</v>
       </c>
-      <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15" t="s">
+      <c r="Q15"/>
+      <c r="R15" t="s">
         <v>237</v>
       </c>
-      <c r="R15"/>
       <c r="S15"/>
-      <c r="T15" t="s">
+      <c r="T15"/>
+      <c r="U15" t="s">
         <v>238</v>
       </c>
-      <c r="U15"/>
       <c r="V15"/>
+      <c r="W15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -6391,17 +6815,19 @@
       <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
         <v>411</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="G16"/>
-      <c r="H16" t="s">
+      <c r="H16"/>
+      <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -6415,6 +6841,7 @@
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
+      <c r="W16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -6425,19 +6852,21 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>412</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>73</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>32</v>
       </c>
-      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -6451,6 +6880,7 @@
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
+      <c r="W17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -6461,42 +6891,45 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
         <v>413</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>32</v>
       </c>
-      <c r="I18"/>
-      <c r="J18" t="s">
+      <c r="J18"/>
+      <c r="K18" t="s">
         <v>239</v>
       </c>
-      <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" t="s">
+      <c r="M18"/>
+      <c r="N18" t="s">
         <v>240</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>241</v>
       </c>
-      <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18" t="s">
+      <c r="Q18"/>
+      <c r="R18" t="s">
         <v>240</v>
       </c>
-      <c r="R18"/>
       <c r="S18"/>
-      <c r="T18" t="s">
+      <c r="T18"/>
+      <c r="U18" t="s">
         <v>242</v>
       </c>
-      <c r="U18"/>
       <c r="V18"/>
+      <c r="W18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -6507,40 +6940,43 @@
       <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="I19"/>
-      <c r="J19" t="s">
+      <c r="J19"/>
+      <c r="K19" t="s">
         <v>243</v>
       </c>
-      <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" t="s">
+      <c r="M19"/>
+      <c r="N19" t="s">
         <v>244</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>245</v>
       </c>
-      <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19" t="s">
+      <c r="Q19"/>
+      <c r="R19" t="s">
         <v>246</v>
       </c>
-      <c r="R19"/>
       <c r="S19"/>
-      <c r="T19" t="s">
+      <c r="T19"/>
+      <c r="U19" t="s">
         <v>247</v>
       </c>
-      <c r="U19"/>
       <c r="V19"/>
+      <c r="W19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -6551,42 +6987,45 @@
       <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
         <v>414</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>86</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="I20"/>
-      <c r="J20" t="s">
+      <c r="J20"/>
+      <c r="K20" t="s">
         <v>248</v>
       </c>
-      <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" t="s">
+      <c r="M20"/>
+      <c r="N20" t="s">
         <v>249</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>250</v>
       </c>
-      <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" t="s">
+      <c r="Q20"/>
+      <c r="R20" t="s">
         <v>251</v>
       </c>
-      <c r="R20"/>
       <c r="S20"/>
-      <c r="T20" t="s">
+      <c r="T20"/>
+      <c r="U20" t="s">
         <v>252</v>
       </c>
-      <c r="U20"/>
       <c r="V20"/>
+      <c r="W20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -6597,38 +7036,41 @@
       <c r="D21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
         <v>415</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>89</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>17</v>
       </c>
-      <c r="I21"/>
-      <c r="J21" t="s">
+      <c r="J21"/>
+      <c r="K21" t="s">
         <v>253</v>
       </c>
-      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" t="s">
+      <c r="Q21"/>
+      <c r="R21" t="s">
         <v>254</v>
       </c>
-      <c r="R21"/>
       <c r="S21"/>
-      <c r="T21" t="s">
+      <c r="T21"/>
+      <c r="U21" t="s">
         <v>255</v>
       </c>
-      <c r="U21"/>
       <c r="V21"/>
+      <c r="W21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -6639,17 +7081,19 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="E22" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>17</v>
       </c>
-      <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -6663,6 +7107,7 @@
       <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -6673,17 +7118,19 @@
       <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="E23" t="n">
+        <v>26</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="s">
         <v>97</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>98</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -6697,6 +7144,7 @@
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -6707,15 +7155,17 @@
       <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="E24" t="n">
+        <v>27</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" t="s">
         <v>102</v>
       </c>
-      <c r="G24"/>
-      <c r="H24" t="s">
+      <c r="H24"/>
+      <c r="I24" t="s">
         <v>65</v>
       </c>
-      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -6729,6 +7179,7 @@
       <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
+      <c r="W24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -6739,17 +7190,19 @@
       <c r="D25" t="s">
         <v>105</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="E25" t="n">
+        <v>28</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="s">
         <v>106</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>107</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>32</v>
       </c>
-      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -6763,6 +7216,7 @@
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
+      <c r="W25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -6773,17 +7227,19 @@
       <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="E26" t="n">
+        <v>29</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="s">
         <v>110</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>111</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>32</v>
       </c>
-      <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -6797,6 +7253,7 @@
       <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
+      <c r="W26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -6807,17 +7264,19 @@
       <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="E27" t="n">
+        <v>30</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" t="s">
         <v>113</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>114</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>115</v>
       </c>
-      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -6831,6 +7290,7 @@
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
+      <c r="W27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -6841,17 +7301,19 @@
       <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
+      <c r="E28" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
         <v>118</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>119</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>32</v>
       </c>
-      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -6865,6 +7327,7 @@
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
+      <c r="W28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -6875,17 +7338,19 @@
       <c r="D29" t="s">
         <v>121</v>
       </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="E29" t="n">
+        <v>32</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
         <v>122</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>123</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -6899,6 +7364,7 @@
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
+      <c r="W29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -6913,38 +7379,41 @@
       <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
         <v>416</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>126</v>
       </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
+      <c r="H30"/>
+      <c r="I30" t="s">
         <v>65</v>
       </c>
-      <c r="I30"/>
-      <c r="J30" t="s">
+      <c r="J30"/>
+      <c r="K30" t="s">
         <v>256</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>257</v>
       </c>
-      <c r="L30"/>
-      <c r="M30" t="s">
+      <c r="M30"/>
+      <c r="N30" t="s">
         <v>258</v>
       </c>
-      <c r="N30"/>
-      <c r="O30" t="s">
+      <c r="O30"/>
+      <c r="P30" t="s">
         <v>259</v>
       </c>
-      <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
+      <c r="W30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -6959,52 +7428,55 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="n">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
         <v>417</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>128</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>129</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>130</v>
       </c>
-      <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" t="s">
+      <c r="M31"/>
+      <c r="N31" t="s">
         <v>260</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>127</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>261</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>262</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>263</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>264</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>265</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>266</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>267</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7021,46 +7493,49 @@
       <c r="D32" t="s">
         <v>132</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="n">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
         <v>418</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>133</v>
       </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
+      <c r="H32"/>
+      <c r="I32" t="s">
         <v>65</v>
       </c>
-      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32" t="s">
+      <c r="M32"/>
+      <c r="N32" t="s">
         <v>269</v>
       </c>
-      <c r="N32"/>
-      <c r="O32" t="s">
+      <c r="O32"/>
+      <c r="P32" t="s">
         <v>270</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>271</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>272</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>264</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>273</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>132</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>274</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7077,40 +7552,43 @@
       <c r="D33" t="s">
         <v>135</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="n">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
         <v>419</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>136</v>
       </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
+      <c r="H33"/>
+      <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>19</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>135</v>
       </c>
-      <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" t="s">
+      <c r="M33"/>
+      <c r="N33" t="s">
         <v>275</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>135</v>
       </c>
-      <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" t="s">
+      <c r="Q33"/>
+      <c r="R33" t="s">
         <v>276</v>
       </c>
-      <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
+      <c r="W33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -7125,48 +7603,51 @@
       <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="n">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
         <v>420</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>140</v>
       </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
+      <c r="H34"/>
+      <c r="I34" t="s">
         <v>65</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>141</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>277</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>278</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>279</v>
       </c>
-      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
-      <c r="Q34" t="s">
+      <c r="Q34"/>
+      <c r="R34" t="s">
         <v>280</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>281</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>282</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>283</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>284</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7183,52 +7664,55 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="n">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>421</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>143</v>
       </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
+      <c r="H35"/>
+      <c r="I35" t="s">
         <v>65</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>141</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>285</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>286</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>268</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>287</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>289</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>288</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>268</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>290</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>291</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>292</v>
       </c>
-      <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
+      <c r="W35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -7243,56 +7727,59 @@
       <c r="D36" t="s">
         <v>145</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="n">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
         <v>422</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>146</v>
       </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
+      <c r="H36"/>
+      <c r="I36" t="s">
         <v>65</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>141</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>294</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>295</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>296</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>298</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>297</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>295</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>299</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>300</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>295</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>301</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>302</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7309,20 +7796,22 @@
       <c r="D37" t="s">
         <v>147</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="n">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
         <v>423</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>148</v>
       </c>
-      <c r="G37"/>
-      <c r="H37" t="s">
+      <c r="H37"/>
+      <c r="I37" t="s">
         <v>65</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>149</v>
       </c>
-      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -7335,6 +7824,7 @@
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
+      <c r="W37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -7349,56 +7839,59 @@
       <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="n">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
         <v>424</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>151</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>129</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>65</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>130</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>303</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>304</v>
       </c>
-      <c r="L38"/>
-      <c r="M38" t="s">
+      <c r="M38"/>
+      <c r="N38" t="s">
         <v>305</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>308</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>306</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>307</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>309</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>304</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>307</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>150</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>274</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7415,44 +7908,47 @@
       <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="n">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
         <v>425</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>153</v>
       </c>
-      <c r="G39"/>
-      <c r="H39" t="s">
+      <c r="H39"/>
+      <c r="I39" t="s">
         <v>65</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>141</v>
       </c>
-      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" t="s">
+      <c r="M39"/>
+      <c r="N39" t="s">
         <v>310</v>
       </c>
-      <c r="N39"/>
-      <c r="O39" t="s">
+      <c r="O39"/>
+      <c r="P39" t="s">
         <v>311</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>268</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>312</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>313</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>314</v>
       </c>
-      <c r="T39"/>
       <c r="U39"/>
       <c r="V39"/>
+      <c r="W39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -7467,50 +7963,53 @@
       <c r="D40" t="s">
         <v>154</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="n">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
         <v>426</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
+      <c r="H40"/>
+      <c r="I40" t="s">
         <v>65</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>141</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>315</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>270</v>
       </c>
-      <c r="L40"/>
-      <c r="M40" t="s">
+      <c r="M40"/>
+      <c r="N40" t="s">
         <v>316</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>318</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>317</v>
       </c>
-      <c r="P40"/>
-      <c r="Q40" t="s">
+      <c r="Q40"/>
+      <c r="R40" t="s">
         <v>319</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>264</v>
       </c>
-      <c r="S40"/>
-      <c r="T40" t="s">
+      <c r="T40"/>
+      <c r="U40" t="s">
         <v>320</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>274</v>
       </c>
-      <c r="V40"/>
+      <c r="W40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -7525,52 +8024,55 @@
       <c r="D41" t="s">
         <v>158</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="n">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
         <v>427</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>159</v>
       </c>
-      <c r="G41"/>
-      <c r="H41" t="s">
+      <c r="H41"/>
+      <c r="I41" t="s">
         <v>65</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>141</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>321</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>294</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>322</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>323</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>324</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>261</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>322</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>325</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>264</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>322</v>
       </c>
-      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
+      <c r="W41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -7585,52 +8087,55 @@
       <c r="D42" t="s">
         <v>161</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="n">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
         <v>428</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>162</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>129</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>65</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>130</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>326</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>327</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>328</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>329</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>332</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>330</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>331</v>
       </c>
-      <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42" t="s">
+      <c r="T42"/>
+      <c r="U42" t="s">
         <v>333</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>334</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7647,50 +8152,53 @@
       <c r="D43" t="s">
         <v>163</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="n">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
         <v>429</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>164</v>
       </c>
-      <c r="G43"/>
-      <c r="H43" t="s">
+      <c r="H43"/>
+      <c r="I43" t="s">
         <v>65</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>141</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>336</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>327</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>337</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>338</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>339</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>330</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>337</v>
       </c>
-      <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
-      <c r="T43" t="s">
+      <c r="T43"/>
+      <c r="U43" t="s">
         <v>340</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>334</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7707,42 +8215,45 @@
       <c r="D44" t="s">
         <v>166</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="n">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
         <v>430</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>167</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>168</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>65</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>169</v>
       </c>
-      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44" t="s">
+      <c r="M44"/>
+      <c r="N44" t="s">
         <v>341</v>
       </c>
-      <c r="N44"/>
-      <c r="O44" t="s">
+      <c r="O44"/>
+      <c r="P44" t="s">
         <v>342</v>
       </c>
-      <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
-      <c r="T44" t="s">
+      <c r="T44"/>
+      <c r="U44" t="s">
         <v>166</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>342</v>
       </c>
-      <c r="V44"/>
+      <c r="W44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -7757,44 +8268,47 @@
       <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="n">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
         <v>431</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>172</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>129</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>130</v>
       </c>
-      <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" t="s">
+      <c r="M45"/>
+      <c r="N45" t="s">
         <v>343</v>
       </c>
-      <c r="N45"/>
-      <c r="O45" t="s">
+      <c r="O45"/>
+      <c r="P45" t="s">
         <v>344</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>345</v>
       </c>
-      <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="T45" t="s">
+      <c r="T45"/>
+      <c r="U45" t="s">
         <v>346</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>344</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7811,46 +8325,49 @@
       <c r="D46" t="s">
         <v>174</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
         <v>432</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>175</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>176</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>65</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>177</v>
       </c>
-      <c r="J46"/>
-      <c r="K46" t="s">
+      <c r="K46"/>
+      <c r="L46" t="s">
         <v>349</v>
       </c>
-      <c r="L46"/>
-      <c r="M46" t="s">
+      <c r="M46"/>
+      <c r="N46" t="s">
         <v>174</v>
       </c>
-      <c r="N46"/>
-      <c r="O46" t="s">
+      <c r="O46"/>
+      <c r="P46" t="s">
         <v>347</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>348</v>
       </c>
-      <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
-      <c r="T46" t="s">
+      <c r="T46"/>
+      <c r="U46" t="s">
         <v>174</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>349</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7867,58 +8384,61 @@
       <c r="D47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="n">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
         <v>433</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>180</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>176</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>65</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>177</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>179</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>349</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>348</v>
-      </c>
-      <c r="M47" t="s">
-        <v>179</v>
       </c>
       <c r="N47" t="s">
         <v>179</v>
       </c>
       <c r="O47" t="s">
+        <v>179</v>
+      </c>
+      <c r="P47" t="s">
         <v>350</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>348</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>351</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>352</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>348</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>179</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>349</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7935,48 +8455,51 @@
       <c r="D48" t="s">
         <v>181</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="n">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
         <v>434</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>182</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>176</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>65</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>177</v>
       </c>
-      <c r="J48"/>
-      <c r="K48" t="s">
+      <c r="K48"/>
+      <c r="L48" t="s">
         <v>349</v>
       </c>
-      <c r="L48"/>
-      <c r="M48" t="s">
+      <c r="M48"/>
+      <c r="N48" t="s">
         <v>181</v>
       </c>
-      <c r="N48"/>
-      <c r="O48" t="s">
+      <c r="O48"/>
+      <c r="P48" t="s">
         <v>347</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>348</v>
       </c>
-      <c r="Q48"/>
-      <c r="R48" t="s">
+      <c r="R48"/>
+      <c r="S48" t="s">
         <v>352</v>
       </c>
-      <c r="S48"/>
-      <c r="T48" t="s">
+      <c r="T48"/>
+      <c r="U48" t="s">
         <v>181</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>349</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7993,46 +8516,49 @@
       <c r="D49" t="s">
         <v>183</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="n">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s">
         <v>435</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>184</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>129</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>65</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>130</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>353</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>349</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>268</v>
       </c>
-      <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
-      <c r="Q49" t="s">
+      <c r="Q49"/>
+      <c r="R49" t="s">
         <v>354</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>352</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>355</v>
       </c>
-      <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
+      <c r="W49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -8047,54 +8573,57 @@
       <c r="D50" t="s">
         <v>185</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="n">
+        <v>54</v>
+      </c>
+      <c r="F50" t="s">
         <v>436</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>186</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>129</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>65</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>130</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>356</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>349</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>357</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>358</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>360</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>359</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>357</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>361</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>352</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>355</v>
       </c>
-      <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
+      <c r="W50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -8109,48 +8638,51 @@
       <c r="D51" t="s">
         <v>187</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="n">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
         <v>437</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>188</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>129</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>65</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>130</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>362</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>349</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>357</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>363</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>364</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>350</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>357</v>
       </c>
-      <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
+      <c r="W51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -8165,50 +8697,53 @@
       <c r="D52" t="s">
         <v>189</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="n">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
         <v>438</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>190</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>129</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>65</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>130</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>365</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>366</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>367</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>368</v>
       </c>
-      <c r="N52"/>
-      <c r="O52" t="s">
+      <c r="O52"/>
+      <c r="P52" t="s">
         <v>359</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>367</v>
       </c>
-      <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52" t="s">
+      <c r="T52"/>
+      <c r="U52" t="s">
         <v>369</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>359</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8225,44 +8760,47 @@
       <c r="D53" t="s">
         <v>191</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="n">
+        <v>57</v>
+      </c>
+      <c r="F53" t="s">
         <v>439</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>192</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>129</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>65</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>130</v>
       </c>
-      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" t="s">
+      <c r="M53"/>
+      <c r="N53" t="s">
         <v>370</v>
       </c>
-      <c r="N53"/>
-      <c r="O53" t="s">
+      <c r="O53"/>
+      <c r="P53" t="s">
         <v>359</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>367</v>
       </c>
-      <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
-      <c r="T53" t="s">
+      <c r="T53"/>
+      <c r="U53" t="s">
         <v>371</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>359</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8279,42 +8817,45 @@
       <c r="D54" t="s">
         <v>194</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="n">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
         <v>194</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>195</v>
       </c>
-      <c r="G54"/>
-      <c r="H54" t="s">
+      <c r="H54"/>
+      <c r="I54" t="s">
         <v>65</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>196</v>
       </c>
-      <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54" t="s">
+      <c r="Q54"/>
+      <c r="R54" t="s">
         <v>372</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>373</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>268</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>374</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>375</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8331,40 +8872,43 @@
       <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="n">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
         <v>197</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>198</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>199</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>65</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>19</v>
       </c>
-      <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="M55" t="s">
+      <c r="M55"/>
+      <c r="N55" t="s">
         <v>197</v>
       </c>
-      <c r="N55"/>
-      <c r="O55" t="s">
-        <v>376</v>
-      </c>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>376</v>
       </c>
-      <c r="Q55"/>
+      <c r="Q55" t="s">
+        <v>376</v>
+      </c>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
+      <c r="W55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -8379,46 +8923,49 @@
       <c r="D56" t="s">
         <v>201</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="n">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
         <v>440</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>202</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>203</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>65</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>204</v>
       </c>
-      <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="M56" t="s">
+      <c r="M56"/>
+      <c r="N56" t="s">
         <v>201</v>
       </c>
-      <c r="N56"/>
-      <c r="O56" t="s">
-        <v>376</v>
-      </c>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>376</v>
       </c>
       <c r="Q56" t="s">
+        <v>376</v>
+      </c>
+      <c r="R56" t="s">
         <v>377</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>378</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>268</v>
       </c>
-      <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
+      <c r="W56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -8433,44 +8980,47 @@
       <c r="D57" t="s">
         <v>206</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="n">
+        <v>61</v>
+      </c>
+      <c r="F57" t="s">
         <v>441</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>207</v>
       </c>
-      <c r="G57"/>
-      <c r="H57" t="s">
+      <c r="H57"/>
+      <c r="I57" t="s">
         <v>65</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>208</v>
       </c>
-      <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57" t="s">
+      <c r="M57"/>
+      <c r="N57" t="s">
         <v>206</v>
       </c>
-      <c r="N57"/>
-      <c r="O57" t="s">
+      <c r="O57"/>
+      <c r="P57" t="s">
         <v>376</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>268</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>379</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>380</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>268</v>
       </c>
-      <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
+      <c r="W57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -8485,44 +9035,47 @@
       <c r="D58" t="s">
         <v>209</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="n">
+        <v>62</v>
+      </c>
+      <c r="F58" t="s">
         <v>442</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>210</v>
       </c>
-      <c r="G58"/>
-      <c r="H58" t="s">
+      <c r="H58"/>
+      <c r="I58" t="s">
         <v>65</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>208</v>
       </c>
-      <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" t="s">
+      <c r="M58"/>
+      <c r="N58" t="s">
         <v>209</v>
       </c>
-      <c r="N58"/>
-      <c r="O58" t="s">
+      <c r="O58"/>
+      <c r="P58" t="s">
         <v>376</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>268</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>381</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>380</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>268</v>
       </c>
-      <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
+      <c r="W58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -8537,42 +9090,45 @@
       <c r="D59" t="s">
         <v>211</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="n">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
         <v>211</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>212</v>
       </c>
-      <c r="G59"/>
-      <c r="H59" t="s">
+      <c r="H59"/>
+      <c r="I59" t="s">
         <v>65</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>213</v>
       </c>
-      <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59" t="s">
+      <c r="M59"/>
+      <c r="N59" t="s">
         <v>382</v>
       </c>
-      <c r="N59"/>
-      <c r="O59" t="s">
+      <c r="O59"/>
+      <c r="P59" t="s">
         <v>383</v>
       </c>
-      <c r="P59"/>
-      <c r="Q59" t="s">
+      <c r="Q59"/>
+      <c r="R59" t="s">
         <v>384</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>385</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>268</v>
       </c>
-      <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
+      <c r="W59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -13,12 +13,13 @@
     <sheet name="metricControlledVocabulary" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Crosswalk_tall" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Crosswalk" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Methods" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
   <si>
     <t xml:space="preserve">termID</t>
   </si>
@@ -398,18 +399,27 @@
     <t xml:space="preserve">mm, "C", "km", "ha"</t>
   </si>
   <si>
+    <t xml:space="preserve">longName</t>
+  </si>
+  <si>
     <t xml:space="preserve">Channel Characteristics</t>
   </si>
   <si>
     <t xml:space="preserve">Beaver</t>
   </si>
   <si>
+    <t xml:space="preserve">Beaver Sign at Reach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beaver present from the provider dataset.</t>
   </si>
   <si>
     <t xml:space="preserve">PctDry</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent of Reach that is Dry</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of the reach that was dry</t>
   </si>
   <si>
@@ -425,6 +435,9 @@
     <t xml:space="preserve">Sin</t>
   </si>
   <si>
+    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reach sinuosity (reach length along the thalweg divided by straight line distance between the bottom of the reach and the top of the reach)</t>
   </si>
   <si>
@@ -434,6 +447,9 @@
     <t xml:space="preserve">StreamOrder</t>
   </si>
   <si>
+    <t xml:space="preserve">Stream Order</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strahler stream order of the site from the provider dataset</t>
   </si>
   <si>
@@ -446,6 +462,9 @@
     <t xml:space="preserve">AvgBFWDRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average bankfull width/depth ratio for the reach.</t>
   </si>
   <si>
@@ -455,6 +474,9 @@
     <t xml:space="preserve">BFHeight</t>
   </si>
   <si>
+    <t xml:space="preserve">Bankfull Height</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average bankfull height measured from water surface across transects.</t>
   </si>
   <si>
@@ -464,12 +486,18 @@
     <t xml:space="preserve">BFWidth</t>
   </si>
   <si>
+    <t xml:space="preserve">Average bankfull width from transects</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average bankfull width across transects for the reach.</t>
   </si>
   <si>
     <t xml:space="preserve">countTransectsBFWidth</t>
   </si>
   <si>
+    <t xml:space="preserve">Count of cross sections</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of cross sections included in the average bankfull width calculation</t>
   </si>
   <si>
@@ -479,18 +507,27 @@
     <t xml:space="preserve">Grad</t>
   </si>
   <si>
+    <t xml:space="preserve">Gradient of stream reach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean slope of water surface (%) from the bottom of the reach to the top of the reach.</t>
   </si>
   <si>
     <t xml:space="preserve">MeanThalwegDepth</t>
   </si>
   <si>
+    <t xml:space="preserve">Average Thalweg Depth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean thalweg depth. Metric of how deep water was at the site.</t>
   </si>
   <si>
     <t xml:space="preserve">ReachLen</t>
   </si>
   <si>
+    <t xml:space="preserve">Length of sampling reach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Length of sampling reach measured along the thalweg</t>
   </si>
   <si>
@@ -503,6 +540,9 @@
     <t xml:space="preserve">WetWidth</t>
   </si>
   <si>
+    <t xml:space="preserve">Average wetted width from transects</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average wetted width across transects.</t>
   </si>
   <si>
@@ -512,12 +552,18 @@
     <t xml:space="preserve">PctPool</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent pools</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of the sample reach (linear extent) classified as pool habitat</t>
   </si>
   <si>
     <t xml:space="preserve">RPD</t>
   </si>
   <si>
+    <t xml:space="preserve">Residual pool depth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average of the residual pool depth values for all pools in a reach. Residual pool depth the difference of the pool tail depth from the max depth.</t>
   </si>
   <si>
@@ -527,6 +573,9 @@
     <t xml:space="preserve">BankAngle</t>
   </si>
   <si>
+    <t xml:space="preserve">Bank angle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measured angle of the stream bank;</t>
   </si>
   <si>
@@ -542,6 +591,9 @@
     <t xml:space="preserve">PctStab</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent stable banks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of 42 banks lacking visible signs of active erosion (e.g., slump, slough, fracture) (units: %, min: 0, max: 100, n= 42)</t>
   </si>
   <si>
@@ -551,6 +603,9 @@
     <t xml:space="preserve">D16</t>
   </si>
   <si>
+    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bed surface particle size corresponding to the 16th percentile of measured particles</t>
   </si>
   <si>
@@ -566,42 +621,63 @@
     <t xml:space="preserve">D50</t>
   </si>
   <si>
+    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Median diameter of bed surface particle size corresponding to the areal median (50th percentile of measured particles) .</t>
   </si>
   <si>
     <t xml:space="preserve">D84</t>
   </si>
   <si>
+    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bed surface particle size corresponding to the 84th percentile of measured particles</t>
   </si>
   <si>
     <t xml:space="preserve">PctBdrk</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &gt; 4098mm (bedrock)</t>
   </si>
   <si>
     <t xml:space="preserve">PctFines2</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of the stream bed area that is comprised of particles with a b-axis &lt; 2 mm</t>
   </si>
   <si>
     <t xml:space="preserve">PctFines6</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percent of the stream bed area that is composed of particles with a b-axis &lt; 6 mm</t>
   </si>
   <si>
     <t xml:space="preserve">PoolTailFines2</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average percent fine sediment (&lt; 2mm) on the pool tail</t>
   </si>
   <si>
     <t xml:space="preserve">PoolTailFines6</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average percent fine sediment (&lt; 6mm) on the pool tail</t>
   </si>
   <si>
@@ -632,6 +708,9 @@
     <t xml:space="preserve">SpecificConductance</t>
   </si>
   <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measured specific conductance value. The specific conductance is conductivity standardized to 25 degrees C.</t>
   </si>
   <si>
@@ -647,6 +726,9 @@
     <t xml:space="preserve">TotalNitrogen</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measured total nitrogen value</t>
   </si>
   <si>
@@ -656,6 +738,9 @@
     <t xml:space="preserve">TotalPhosphorous</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Phosphorous</t>
+  </si>
+  <si>
     <t xml:space="preserve">Measured total phosphorous value</t>
   </si>
   <si>
@@ -1187,9 +1272,6 @@
     <t xml:space="preserve">table</t>
   </si>
   <si>
-    <t xml:space="preserve">longName</t>
-  </si>
-  <si>
     <t xml:space="preserve">AREMPFieldCW</t>
   </si>
   <si>
@@ -1274,85 +1356,7 @@
     <t xml:space="preserve">Sample Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Beaver Sign at Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of Reach that is Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinuosity of Local Stream Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull width to depth ratio at transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bankfull Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average bankfull width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of cross sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradient of stream reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thalweg Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of sampling reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average wetted width from transects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residual pool depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent stable banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 16th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 50th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of the 84th percentile streambed particle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Bed Surface Bedrock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of streambed particles &lt;6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 2mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent pool tail fines &lt; 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorous</t>
+    <t xml:space="preserve">method</t>
   </si>
 </sst>
 </file>
@@ -2983,864 +2987,957 @@
         <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
       <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" t="s">
-        <v>131</v>
+      <c r="J3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="G6" t="s">
-        <v>141</v>
-      </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
         <v>120</v>
       </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
-        <v>141</v>
-      </c>
       <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
         <v>120</v>
       </c>
-      <c r="I7" t="s">
-        <v>144</v>
+      <c r="J7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="s">
-        <v>141</v>
-      </c>
       <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
         <v>120</v>
       </c>
-      <c r="I8" t="s">
-        <v>144</v>
+      <c r="J8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
         <v>120</v>
       </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
-        <v>130</v>
-      </c>
       <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
         <v>120</v>
       </c>
-      <c r="I10" t="s">
-        <v>131</v>
+      <c r="J10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
-        <v>141</v>
-      </c>
       <c r="H11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
         <v>120</v>
       </c>
-      <c r="I11" t="s">
-        <v>144</v>
+      <c r="J11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
-        <v>141</v>
-      </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="J12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
-        <v>141</v>
-      </c>
       <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" t="s">
         <v>120</v>
       </c>
-      <c r="I13" t="s">
-        <v>144</v>
+      <c r="J13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
       <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
         <v>120</v>
       </c>
-      <c r="I14" t="s">
-        <v>131</v>
+      <c r="J14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
-        <v>141</v>
-      </c>
       <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" t="s">
         <v>120</v>
       </c>
-      <c r="I15" t="s">
-        <v>144</v>
+      <c r="J15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
-        <v>169</v>
-      </c>
       <c r="H16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" t="s">
         <v>120</v>
       </c>
-      <c r="I16" t="s">
-        <v>170</v>
+      <c r="J16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
         <v>65</v>
       </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
       <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
-        <v>131</v>
+      <c r="J17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>177</v>
-      </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s">
-        <v>177</v>
-      </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="s">
-        <v>177</v>
-      </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
         <v>65</v>
       </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
         <v>120</v>
       </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
       <c r="H22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="I22" t="s">
-        <v>131</v>
+      <c r="J22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" t="s">
-        <v>130</v>
-      </c>
       <c r="H23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" t="s">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
-        <v>131</v>
+      <c r="J23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="G24" t="s">
-        <v>130</v>
-      </c>
       <c r="H24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" t="s">
         <v>120</v>
       </c>
-      <c r="I24" t="s">
-        <v>131</v>
+      <c r="J24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" t="s">
         <v>65</v>
       </c>
-      <c r="G25" t="s">
-        <v>130</v>
-      </c>
       <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" t="s">
         <v>120</v>
       </c>
-      <c r="I25" t="s">
-        <v>131</v>
+      <c r="J25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="G26" t="s">
-        <v>196</v>
-      </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
         <v>120</v>
       </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B27" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>19</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>120</v>
       </c>
-      <c r="I27" t="s">
-        <v>200</v>
+      <c r="J27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B28" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
         <v>65</v>
       </c>
-      <c r="G28" t="s">
-        <v>204</v>
-      </c>
       <c r="H28" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" t="s">
         <v>120</v>
       </c>
-      <c r="I28" t="s">
-        <v>205</v>
+      <c r="J28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B29" t="n">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
         <v>65</v>
       </c>
-      <c r="G29" t="s">
-        <v>208</v>
-      </c>
       <c r="H29" t="s">
+        <v>235</v>
+      </c>
+      <c r="I29" t="s">
         <v>120</v>
       </c>
-      <c r="I29" t="s">
-        <v>144</v>
+      <c r="J29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B30" t="n">
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
         <v>65</v>
       </c>
-      <c r="G30" t="s">
-        <v>208</v>
-      </c>
       <c r="H30" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" t="s">
         <v>120</v>
       </c>
-      <c r="I30" t="s">
-        <v>144</v>
+      <c r="J30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B31" t="n">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>213</v>
-      </c>
       <c r="H31" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" t="s">
         <v>120</v>
       </c>
-      <c r="I31" t="s">
-        <v>144</v>
+      <c r="J31" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3865,16 +3962,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -3885,10 +3982,10 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -3901,10 +3998,10 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -3917,10 +4014,10 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -3933,10 +4030,10 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -3949,10 +4046,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -3965,10 +4062,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -3981,10 +4078,10 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -3997,10 +4094,10 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -4013,10 +4110,10 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -4029,10 +4126,10 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -4045,10 +4142,10 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -4061,10 +4158,10 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -4077,10 +4174,10 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -4093,7 +4190,7 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
@@ -4109,10 +4206,10 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -4125,10 +4222,10 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -4141,10 +4238,10 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -4157,10 +4254,10 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -4173,10 +4270,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -4189,10 +4286,10 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -4205,10 +4302,10 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -4221,10 +4318,10 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -4237,10 +4334,10 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -4253,10 +4350,10 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -4269,10 +4366,10 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -4285,10 +4382,10 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -4301,10 +4398,10 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -4317,10 +4414,10 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -4333,10 +4430,10 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -4349,10 +4446,10 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -4365,10 +4462,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -4381,10 +4478,10 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -4397,10 +4494,10 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -4413,10 +4510,10 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -4429,10 +4526,10 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -4445,10 +4542,10 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -4458,16 +4555,16 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F38"/>
     </row>
@@ -4476,16 +4573,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="F39"/>
     </row>
@@ -4494,19 +4591,19 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -4514,13 +4611,13 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -4530,19 +4627,19 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
@@ -4550,19 +4647,19 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
@@ -4570,19 +4667,19 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
@@ -4590,19 +4687,19 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -4610,19 +4707,19 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47">
@@ -4630,13 +4727,13 @@
         <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -4646,13 +4743,13 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
@@ -4662,13 +4759,13 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -4678,13 +4775,13 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
@@ -4694,19 +4791,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
@@ -4714,19 +4811,19 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53">
@@ -4734,19 +4831,19 @@
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E53" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54">
@@ -4754,19 +4851,19 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="E54" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55">
@@ -4774,19 +4871,19 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56">
@@ -4794,13 +4891,13 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
@@ -4810,19 +4907,19 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E57" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58">
@@ -4830,19 +4927,19 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59">
@@ -4850,19 +4947,19 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -4870,13 +4967,13 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
@@ -4886,19 +4983,19 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62">
@@ -4906,19 +5003,19 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E62" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
@@ -4926,16 +5023,16 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="F63"/>
     </row>
@@ -4944,19 +5041,19 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65">
@@ -4964,13 +5061,13 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -4980,19 +5077,19 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="F66" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67">
@@ -5000,19 +5097,19 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68">
@@ -5020,19 +5117,19 @@
         <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69">
@@ -5040,19 +5137,19 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F69" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70">
@@ -5060,16 +5157,16 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F70"/>
     </row>
@@ -5078,16 +5175,16 @@
         <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="F71"/>
     </row>
@@ -5096,13 +5193,13 @@
         <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
@@ -5112,16 +5209,16 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F73"/>
     </row>
@@ -5130,16 +5227,16 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F74"/>
     </row>
@@ -5148,19 +5245,19 @@
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="F75" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
@@ -5168,19 +5265,19 @@
         <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77">
@@ -5188,13 +5285,13 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
@@ -5204,19 +5301,19 @@
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79">
@@ -5224,19 +5321,19 @@
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="E79" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80">
@@ -5244,19 +5341,19 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="E80" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="F80" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81">
@@ -5264,13 +5361,13 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
@@ -5280,19 +5377,19 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="F82" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83">
@@ -5300,19 +5397,19 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="F83" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84">
@@ -5320,19 +5417,19 @@
         <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E84" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="F84" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85">
@@ -5340,13 +5437,13 @@
         <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D85" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -5356,19 +5453,19 @@
         <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E86" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="F86" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87">
@@ -5376,16 +5473,16 @@
         <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="E87" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="F87"/>
     </row>
@@ -5394,16 +5491,16 @@
         <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="F88"/>
     </row>
@@ -5412,19 +5509,19 @@
         <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="E89" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="F89" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90">
@@ -5432,19 +5529,19 @@
         <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="F90" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91">
@@ -5452,19 +5549,19 @@
         <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="F91" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92">
@@ -5472,19 +5569,19 @@
         <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F92" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93">
@@ -5492,19 +5589,19 @@
         <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
@@ -5512,19 +5609,19 @@
         <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F94" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
@@ -5532,13 +5629,13 @@
         <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -5548,19 +5645,19 @@
         <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
@@ -5568,19 +5665,19 @@
         <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F97" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98">
@@ -5588,19 +5685,19 @@
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="F98" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99">
@@ -5608,19 +5705,19 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F99" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100">
@@ -5628,19 +5725,19 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="E100" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101">
@@ -5648,19 +5745,19 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102">
@@ -5668,19 +5765,19 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="E102" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F102" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103">
@@ -5688,19 +5785,19 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F103" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104">
@@ -5708,13 +5805,13 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
@@ -5724,19 +5821,19 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D105" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="E105" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F105" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106">
@@ -5744,19 +5841,19 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F106" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107">
@@ -5764,19 +5861,19 @@
         <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F107" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108">
@@ -5784,13 +5881,13 @@
         <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D108" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -5800,19 +5897,19 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D109" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="F109" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110">
@@ -5820,19 +5917,19 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F110" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111">
@@ -5840,19 +5937,19 @@
         <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="E111" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112">
@@ -5860,19 +5957,19 @@
         <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113">
@@ -5880,19 +5977,19 @@
         <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="E113" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F113" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114">
@@ -5900,19 +5997,19 @@
         <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="E114" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115">
@@ -5920,19 +6017,19 @@
         <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="E115" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="F115" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116">
@@ -5940,19 +6037,19 @@
         <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E116" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="F116" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117">
@@ -5960,19 +6057,19 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="E117" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="F117" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118">
@@ -5980,19 +6077,19 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D118" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="E118" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="F118" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119">
@@ -6000,19 +6097,19 @@
         <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120">
@@ -6020,19 +6117,19 @@
         <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E120" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="F120" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121">
@@ -6040,19 +6137,19 @@
         <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E121" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="F121" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122">
@@ -6060,19 +6157,19 @@
         <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="E122" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="F122" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123">
@@ -6080,16 +6177,16 @@
         <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E123" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="F123"/>
     </row>
@@ -6098,19 +6195,19 @@
         <v>63</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D124" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="F124" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125">
@@ -6119,11 +6216,11 @@
       </c>
       <c r="B125"/>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D125"/>
       <c r="E125" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F125"/>
     </row>
@@ -6133,11 +6230,11 @@
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F126"/>
     </row>
@@ -6147,11 +6244,11 @@
       </c>
       <c r="B127"/>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F127"/>
     </row>
@@ -6171,7 +6268,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>117</v>
@@ -6186,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -6201,43 +6298,43 @@
         <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="L1" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="N1" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="O1" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="P1" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="Q1" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="R1" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="S1" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="T1" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="U1" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="V1" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="W1" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -6329,7 +6426,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -6368,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -6442,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -6481,7 +6578,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -6557,7 +6654,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -6594,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -6633,7 +6730,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -6646,25 +6743,25 @@
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O12" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -6682,7 +6779,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
@@ -6696,10 +6793,10 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -6707,7 +6804,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -6725,7 +6822,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -6736,25 +6833,25 @@
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="O14" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
@@ -6772,7 +6869,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
@@ -6788,20 +6885,20 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="O15" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="V15"/>
       <c r="W15"/>
@@ -6819,7 +6916,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -6856,7 +6953,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -6895,7 +6992,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -6908,25 +7005,25 @@
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="O18" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -6955,25 +7052,25 @@
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O19" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="V19"/>
       <c r="W19"/>
@@ -6991,7 +7088,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -7004,25 +7101,25 @@
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O20" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -7040,7 +7137,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
@@ -7053,7 +7150,7 @@
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -7062,12 +7159,12 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -7371,22 +7468,22 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" t="n">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30" t="n">
         <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>416</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
@@ -7394,18 +7491,18 @@
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="Q30"/>
       <c r="R30"/>
@@ -7420,64 +7517,64 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" t="n">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" t="n">
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
         <v>65</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P31" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Q31" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="R31" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="S31" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="T31" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="U31" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="V31" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
@@ -7485,22 +7582,22 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E32" t="n">
         <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
@@ -7511,32 +7608,32 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="Q32" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="R32" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="S32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="T32" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="U32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V32" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="W32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
@@ -7544,22 +7641,22 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="n">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E33" t="n">
         <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
@@ -7569,20 +7666,20 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -7595,60 +7692,60 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E34" t="n">
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>420</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H34"/>
       <c r="I34" t="s">
         <v>65</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="S34" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="T34" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="U34" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="V34" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
@@ -7656,59 +7753,59 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C35" t="n">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
         <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="Q35" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="R35" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="S35" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="T35" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -7719,68 +7816,68 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E36" t="n">
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>422</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
         <v>65</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="Q36" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="R36" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="S36" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="T36" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="U36" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="V36" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
@@ -7788,29 +7885,29 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E37" t="n">
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>423</v>
+        <v>156</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H37"/>
       <c r="I37" t="s">
         <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
@@ -7831,68 +7928,68 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E38" t="n">
         <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>424</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
         <v>65</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="Q38" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="R38" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="S38" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="T38" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="U38" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="V38" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="W38" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -7900,51 +7997,51 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C39" t="n">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E39" t="n">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>425</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="s">
         <v>65</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="Q39" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="R39" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="S39" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="T39" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -7955,59 +8052,59 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E40" t="n">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>426</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
         <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="S40" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="V40" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="W40"/>
     </row>
@@ -8016,59 +8113,59 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E41" t="n">
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>427</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
         <v>65</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Q41" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="R41" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="S41" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="T41" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -8079,64 +8176,64 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C42" t="n">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E42" t="n">
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>428</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
         <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="N42" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="Q42" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="V42" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="W42" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
@@ -8144,62 +8241,62 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C43" t="n">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E43" t="n">
         <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="s">
         <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K43" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="P43" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="Q43" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="V43" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="W43" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
@@ -8207,51 +8304,51 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E44" t="n">
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>430</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
         <v>65</v>
       </c>
       <c r="J44" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="V44" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="W44"/>
     </row>
@@ -8260,56 +8357,56 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C45" t="n">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E45" t="n">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>431</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
         <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="Q45" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="V45" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="W45" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
@@ -8317,58 +8414,58 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C46" t="n">
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E46" t="n">
         <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
         <v>65</v>
       </c>
       <c r="J46" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q46" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="V46" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="W46" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
@@ -8376,70 +8473,70 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C47" t="n">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E47" t="n">
         <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="I47" t="s">
         <v>65</v>
       </c>
       <c r="J47" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K47" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L47" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O47" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="Q47" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="R47" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="S47" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="T47" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="V47" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="W47" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
@@ -8447,60 +8544,60 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C48" t="n">
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E48" t="n">
         <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>434</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="I48" t="s">
         <v>65</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O48"/>
       <c r="P48" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q48" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="T48"/>
       <c r="U48" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="V48" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="W48" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
@@ -8508,53 +8605,53 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C49" t="n">
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E49" t="n">
         <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
         <v>65</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="S49" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="T49" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -8565,61 +8662,61 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C50" t="n">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E50" t="n">
         <v>54</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
         <v>65</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M50" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="N50" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="P50" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="Q50" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="R50" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="S50" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="T50" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -8630,52 +8727,52 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C51" t="n">
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E51" t="n">
         <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
         <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="N51" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="P51" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="Q51" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="R51"/>
       <c r="S51"/>
@@ -8689,62 +8786,62 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C52" t="n">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E52" t="n">
         <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
         <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K52" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="N52" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="Q52" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="V52" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="W52" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
@@ -8752,56 +8849,56 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C53" t="n">
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E53" t="n">
         <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I53" t="s">
         <v>65</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="Q53" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="V53" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="W53" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
@@ -8809,29 +8906,29 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C54" t="n">
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
         <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="H54"/>
       <c r="I54" t="s">
         <v>65</v>
       </c>
       <c r="J54" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K54"/>
       <c r="L54"/>
@@ -8841,22 +8938,22 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="S54" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="T54" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="U54" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="V54" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="W54" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55">
@@ -8864,25 +8961,25 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C55" t="n">
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E55" t="n">
         <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="G55" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="I55" t="s">
         <v>65</v>
@@ -8894,14 +8991,14 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O55"/>
       <c r="P55" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="Q55" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
@@ -8915,53 +9012,53 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C56" t="n">
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="E56" t="n">
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="I56" t="s">
         <v>65</v>
       </c>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="Q56" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="R56" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="S56" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="T56" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -8972,51 +9069,51 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
         <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E57" t="n">
         <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>233</v>
       </c>
       <c r="G57" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="s">
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="O57"/>
       <c r="P57" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="Q57" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="R57" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="S57" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="T57" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -9027,51 +9124,51 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C58" t="n">
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="E58" t="n">
         <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="s">
         <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="O58"/>
       <c r="P58" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="Q58" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="R58" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="S58" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="T58" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="U58"/>
       <c r="V58"/>
@@ -9082,53 +9179,1585 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C59" t="n">
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="E59" t="n">
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="s">
         <v>65</v>
       </c>
       <c r="J59" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="S59" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="T59" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
       <c r="W59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>421</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>420</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>423</v>
+      </c>
+      <c r="C45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>423</v>
+      </c>
+      <c r="C49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>420</v>
+      </c>
+      <c r="C53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>421</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>417</v>
+      </c>
+      <c r="C58" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>420</v>
+      </c>
+      <c r="C59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>421</v>
+      </c>
+      <c r="C60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>416</v>
+      </c>
+      <c r="C63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>427</v>
+      </c>
+      <c r="C68" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>420</v>
+      </c>
+      <c r="C69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s">
+        <v>420</v>
+      </c>
+      <c r="C71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>426</v>
+      </c>
+      <c r="C73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>427</v>
+      </c>
+      <c r="C74" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>421</v>
+      </c>
+      <c r="C77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50</v>
+      </c>
+      <c r="B79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51</v>
+      </c>
+      <c r="B80" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>424</v>
+      </c>
+      <c r="C85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>51</v>
+      </c>
+      <c r="B87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>421</v>
+      </c>
+      <c r="C90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>417</v>
+      </c>
+      <c r="C95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
+        <v>424</v>
+      </c>
+      <c r="C97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>420</v>
+      </c>
+      <c r="C100" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>421</v>
+      </c>
+      <c r="C101" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>424</v>
+      </c>
+      <c r="C103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>55</v>
+      </c>
+      <c r="B104" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>55</v>
+      </c>
+      <c r="B106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>421</v>
+      </c>
+      <c r="C107" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>416</v>
+      </c>
+      <c r="C108" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>420</v>
+      </c>
+      <c r="C110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>421</v>
+      </c>
+      <c r="C111" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>427</v>
+      </c>
+      <c r="C113" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>420</v>
+      </c>
+      <c r="C114" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>421</v>
+      </c>
+      <c r="C115" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>426</v>
+      </c>
+      <c r="C116" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>427</v>
+      </c>
+      <c r="C117" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>58</v>
+      </c>
+      <c r="B118" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>58</v>
+      </c>
+      <c r="B119" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>58</v>
+      </c>
+      <c r="B120" t="s">
+        <v>426</v>
+      </c>
+      <c r="C120" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>58</v>
+      </c>
+      <c r="B121" t="s">
+        <v>427</v>
+      </c>
+      <c r="C121" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>59</v>
+      </c>
+      <c r="B122" t="s">
+        <v>420</v>
+      </c>
+      <c r="C122" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s">
+        <v>421</v>
+      </c>
+      <c r="C123" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>60</v>
+      </c>
+      <c r="B124" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>60</v>
+      </c>
+      <c r="B125" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>60</v>
+      </c>
+      <c r="B126" t="s">
+        <v>423</v>
+      </c>
+      <c r="C126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>60</v>
+      </c>
+      <c r="B127" t="s">
+        <v>424</v>
+      </c>
+      <c r="C127" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>61</v>
+      </c>
+      <c r="B128" t="s">
+        <v>420</v>
+      </c>
+      <c r="C128" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>61</v>
+      </c>
+      <c r="B129" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>61</v>
+      </c>
+      <c r="B130" t="s">
+        <v>423</v>
+      </c>
+      <c r="C130" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>61</v>
+      </c>
+      <c r="B131" t="s">
+        <v>424</v>
+      </c>
+      <c r="C131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>62</v>
+      </c>
+      <c r="B133" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>423</v>
+      </c>
+      <c r="C134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>63</v>
+      </c>
+      <c r="B136" t="s">
+        <v>420</v>
+      </c>
+      <c r="C136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>63</v>
+      </c>
+      <c r="B137" t="s">
+        <v>423</v>
+      </c>
+      <c r="C137" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>63</v>
+      </c>
+      <c r="B138" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t xml:space="preserve">termID</t>
   </si>
@@ -759,10 +759,16 @@
     <t xml:space="preserve">orginalField</t>
   </si>
   <si>
-    <t xml:space="preserve">CollectionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisMethod</t>
+    <t xml:space="preserve">CollectionMethod.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisMethod.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectionMethod.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisMethod.y</t>
   </si>
   <si>
     <t xml:space="preserve">AREMP</t>
@@ -3973,6 +3979,12 @@
       <c r="F1" t="s">
         <v>245</v>
       </c>
+      <c r="G1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3982,13 +3994,15 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3998,13 +4012,15 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4014,13 +4030,15 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4030,13 +4048,15 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4046,13 +4066,15 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4062,13 +4084,15 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4078,13 +4102,15 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4094,13 +4120,15 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4110,13 +4138,15 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4126,13 +4156,15 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4142,13 +4174,15 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4158,13 +4192,15 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4174,13 +4210,15 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4190,13 +4228,15 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4206,13 +4246,15 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4222,13 +4264,15 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4238,13 +4282,15 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4254,13 +4300,15 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4270,13 +4318,15 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4286,13 +4336,15 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4302,13 +4354,15 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4318,13 +4372,15 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4334,13 +4390,15 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4350,13 +4408,15 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4366,13 +4426,15 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4382,13 +4444,15 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4398,13 +4462,15 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4414,13 +4480,15 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4430,13 +4498,15 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4446,13 +4516,15 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4462,13 +4534,15 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4478,13 +4552,15 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4494,13 +4570,15 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4510,13 +4588,15 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4526,13 +4606,15 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4542,13 +4624,15 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4558,15 +4642,17 @@
         <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4576,15 +4662,17 @@
         <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4594,17 +4682,19 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4614,13 +4704,15 @@
         <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
         <v>129</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4630,17 +4722,19 @@
         <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4650,17 +4744,19 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4670,17 +4766,19 @@
         <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4690,17 +4788,19 @@
         <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4710,17 +4810,19 @@
         <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4730,13 +4832,15 @@
         <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
         <v>139</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4746,13 +4850,15 @@
         <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4762,13 +4868,15 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4778,13 +4886,15 @@
         <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4794,17 +4904,19 @@
         <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4814,17 +4926,19 @@
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4834,17 +4948,19 @@
         <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E53" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" t="s">
         <v>312</v>
       </c>
-      <c r="F53" t="s">
-        <v>310</v>
-      </c>
+      <c r="G53"/>
+      <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4854,17 +4970,19 @@
         <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4874,17 +4992,19 @@
         <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4894,13 +5014,15 @@
         <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4910,17 +5032,19 @@
         <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F57" t="s">
-        <v>320</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4930,17 +5054,19 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F58" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4950,17 +5076,19 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E59" t="s">
+        <v>327</v>
+      </c>
+      <c r="F59" t="s">
         <v>325</v>
       </c>
-      <c r="F59" t="s">
-        <v>323</v>
-      </c>
+      <c r="G59"/>
+      <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4970,13 +5098,15 @@
         <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4986,17 +5116,19 @@
         <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E61" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5006,17 +5138,19 @@
         <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F62" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5026,15 +5160,17 @@
         <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E63" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5044,17 +5180,19 @@
         <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E64" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F64" t="s">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5064,13 +5202,15 @@
         <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5080,17 +5220,19 @@
         <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
+        <v>339</v>
+      </c>
+      <c r="E66" t="s">
+        <v>334</v>
+      </c>
+      <c r="F66" t="s">
         <v>337</v>
       </c>
-      <c r="E66" t="s">
-        <v>332</v>
-      </c>
-      <c r="F66" t="s">
-        <v>335</v>
-      </c>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5100,17 +5242,19 @@
         <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
         <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5120,17 +5264,19 @@
         <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E68" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5140,17 +5286,19 @@
         <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5160,15 +5308,17 @@
         <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5178,15 +5328,17 @@
         <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E71" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5196,13 +5348,15 @@
         <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5212,15 +5366,17 @@
         <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5230,15 +5386,17 @@
         <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5248,17 +5406,19 @@
         <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E75" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5268,17 +5428,19 @@
         <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5288,13 +5450,15 @@
         <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5304,17 +5468,19 @@
         <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5324,17 +5490,19 @@
         <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F79" t="s">
-        <v>356</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5344,17 +5512,19 @@
         <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E80" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
-        <v>359</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5364,13 +5534,15 @@
         <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5380,17 +5552,19 @@
         <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E82" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5400,17 +5574,19 @@
         <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F83" t="s">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5420,17 +5596,19 @@
         <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F84" t="s">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5440,13 +5618,15 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5456,17 +5636,19 @@
         <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F86" t="s">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5476,15 +5658,17 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E87" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5494,15 +5678,17 @@
         <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
         <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5512,17 +5698,19 @@
         <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5532,17 +5720,19 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" t="s">
+        <v>376</v>
+      </c>
+      <c r="E90" t="s">
         <v>374</v>
       </c>
-      <c r="E90" t="s">
-        <v>372</v>
-      </c>
       <c r="F90" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5552,17 +5742,19 @@
         <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" t="s">
         <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F91" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5572,17 +5764,19 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
         <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F92" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5592,17 +5786,19 @@
         <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D93" t="s">
         <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5612,17 +5808,19 @@
         <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
         <v>197</v>
       </c>
       <c r="E94" t="s">
+        <v>380</v>
+      </c>
+      <c r="F94" t="s">
         <v>378</v>
       </c>
-      <c r="F94" t="s">
-        <v>376</v>
-      </c>
+      <c r="G94"/>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5632,13 +5830,15 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
         <v>197</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5648,17 +5848,19 @@
         <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F96" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5668,17 +5870,19 @@
         <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
         <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F97" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5688,17 +5892,19 @@
         <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D98" t="s">
         <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F98" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5708,17 +5914,19 @@
         <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
         <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F99" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5728,17 +5936,19 @@
         <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D100" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E100" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F100" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5748,17 +5958,19 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
+        <v>384</v>
+      </c>
+      <c r="E101" t="s">
         <v>382</v>
       </c>
-      <c r="E101" t="s">
-        <v>380</v>
-      </c>
       <c r="F101" t="s">
-        <v>383</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5768,17 +5980,19 @@
         <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E102" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F102" t="s">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5788,17 +6002,19 @@
         <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D103" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E103" t="s">
+        <v>389</v>
+      </c>
+      <c r="F103" t="s">
         <v>387</v>
       </c>
-      <c r="F103" t="s">
-        <v>385</v>
-      </c>
+      <c r="G103"/>
+      <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5808,13 +6024,15 @@
         <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5824,17 +6042,19 @@
         <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D105" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E105" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F105" t="s">
-        <v>383</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5844,17 +6064,19 @@
         <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E106" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F106" t="s">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5864,17 +6086,19 @@
         <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D107" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E107" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F107" t="s">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5884,13 +6108,15 @@
         <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5900,17 +6126,19 @@
         <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D109" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E109" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F109" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5920,17 +6148,19 @@
         <v>212</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D110" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F110" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5940,17 +6170,19 @@
         <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D111" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" t="s">
+        <v>389</v>
+      </c>
+      <c r="F111" t="s">
         <v>397</v>
       </c>
-      <c r="E111" t="s">
-        <v>387</v>
-      </c>
-      <c r="F111" t="s">
-        <v>395</v>
-      </c>
+      <c r="G111"/>
+      <c r="H111"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5960,17 +6192,19 @@
         <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D112" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F112" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5980,17 +6214,19 @@
         <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D113" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E113" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F113" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6000,17 +6236,19 @@
         <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6020,17 +6258,19 @@
         <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D115" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E115" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F115" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6040,17 +6280,19 @@
         <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D116" t="s">
         <v>222</v>
       </c>
       <c r="E116" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F116" t="s">
-        <v>404</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6060,17 +6302,19 @@
         <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D117" t="s">
         <v>226</v>
       </c>
       <c r="E117" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F117" t="s">
-        <v>404</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6080,17 +6324,19 @@
         <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E118" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F118" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6100,17 +6346,19 @@
         <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D119" t="s">
         <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F119" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6120,17 +6368,19 @@
         <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D120" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E120" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F120" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6140,17 +6390,19 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D121" t="s">
         <v>236</v>
       </c>
       <c r="E121" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6160,17 +6412,19 @@
         <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E122" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F122" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6180,15 +6434,17 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D123" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E123" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6198,17 +6454,19 @@
         <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D124" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E124" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F124" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6216,13 +6474,15 @@
       </c>
       <c r="B125"/>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D125"/>
       <c r="E125" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6230,13 +6490,15 @@
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6244,13 +6506,15 @@
       </c>
       <c r="B127"/>
       <c r="C127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6268,7 +6532,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s">
         <v>117</v>
@@ -6298,43 +6562,43 @@
         <v>121</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="U1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="V1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
@@ -6426,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -6465,7 +6729,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -6539,7 +6803,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -6578,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -6654,7 +6918,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -6691,7 +6955,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -6730,7 +6994,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -6743,25 +7007,25 @@
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -6779,7 +7043,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
@@ -6793,10 +7057,10 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -6804,7 +7068,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -6822,7 +7086,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -6833,25 +7097,25 @@
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
@@ -6869,7 +7133,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
@@ -6885,20 +7149,20 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V15"/>
       <c r="W15"/>
@@ -6916,7 +7180,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -6953,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -6992,7 +7256,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -7005,25 +7269,25 @@
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -7052,25 +7316,25 @@
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V19"/>
       <c r="W19"/>
@@ -7088,7 +7352,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -7101,25 +7365,25 @@
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -7137,7 +7401,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
@@ -7150,7 +7414,7 @@
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -7159,12 +7423,12 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -7491,18 +7755,18 @@
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q30"/>
       <c r="R30"/>
@@ -7547,34 +7811,34 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
         <v>129</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -7608,32 +7872,32 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="U32" t="s">
         <v>135</v>
       </c>
       <c r="V32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
@@ -7671,7 +7935,7 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s">
         <v>139</v>
@@ -7679,7 +7943,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -7717,35 +7981,35 @@
         <v>147</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="U34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="V34" t="s">
+        <v>314</v>
+      </c>
+      <c r="W34" t="s">
         <v>312</v>
-      </c>
-      <c r="W34" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="35">
@@ -7778,34 +8042,34 @@
         <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S35" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -7841,43 +8105,43 @@
         <v>147</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q36" t="s">
         <v>325</v>
       </c>
-      <c r="Q36" t="s">
-        <v>323</v>
-      </c>
       <c r="R36" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S36" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="V36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
@@ -7955,41 +8219,41 @@
         <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
+        <v>338</v>
+      </c>
+      <c r="P38" t="s">
         <v>336</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
+        <v>337</v>
+      </c>
+      <c r="R38" t="s">
+        <v>339</v>
+      </c>
+      <c r="S38" t="s">
         <v>334</v>
       </c>
-      <c r="Q38" t="s">
-        <v>335</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>337</v>
-      </c>
-      <c r="S38" t="s">
-        <v>332</v>
-      </c>
-      <c r="T38" t="s">
-        <v>335</v>
       </c>
       <c r="U38" t="s">
         <v>159</v>
       </c>
       <c r="V38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -8025,23 +8289,23 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q39" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="S39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="T39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -8077,34 +8341,34 @@
         <v>147</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P40" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S40" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W40"/>
     </row>
@@ -8138,34 +8402,34 @@
         <v>147</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
+        <v>354</v>
+      </c>
+      <c r="P41" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" t="s">
         <v>352</v>
       </c>
-      <c r="P41" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>350</v>
-      </c>
       <c r="R41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S41" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="T41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -8203,37 +8467,37 @@
         <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
+        <v>362</v>
+      </c>
+      <c r="P42" t="s">
         <v>360</v>
       </c>
-      <c r="P42" t="s">
-        <v>358</v>
-      </c>
       <c r="Q42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="V42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="W42" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43">
@@ -8266,37 +8530,37 @@
         <v>147</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s">
+        <v>369</v>
+      </c>
+      <c r="P43" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q43" t="s">
         <v>367</v>
-      </c>
-      <c r="P43" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>365</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="V43" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="W43" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
@@ -8334,11 +8598,11 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q44"/>
       <c r="R44"/>
@@ -8348,7 +8612,7 @@
         <v>181</v>
       </c>
       <c r="V44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="W44"/>
     </row>
@@ -8387,26 +8651,26 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q45" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="s">
+        <v>376</v>
+      </c>
+      <c r="V45" t="s">
         <v>374</v>
       </c>
-      <c r="V45" t="s">
-        <v>372</v>
-      </c>
       <c r="W45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46">
@@ -8442,7 +8706,7 @@
       </c>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="s">
@@ -8450,10 +8714,10 @@
       </c>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q46" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="R46"/>
       <c r="S46"/>
@@ -8462,10 +8726,10 @@
         <v>191</v>
       </c>
       <c r="V46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W46" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -8503,10 +8767,10 @@
         <v>197</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N47" t="s">
         <v>197</v>
@@ -8515,28 +8779,28 @@
         <v>197</v>
       </c>
       <c r="P47" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q47" t="s">
         <v>378</v>
       </c>
-      <c r="Q47" t="s">
-        <v>376</v>
-      </c>
       <c r="R47" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S47" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="T47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U47" t="s">
         <v>197</v>
       </c>
       <c r="V47" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
@@ -8572,7 +8836,7 @@
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
@@ -8580,24 +8844,24 @@
       </c>
       <c r="O48"/>
       <c r="P48" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q48" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="T48"/>
       <c r="U48" t="s">
         <v>200</v>
       </c>
       <c r="V48" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W48" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
@@ -8632,26 +8896,26 @@
         <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
+        <v>384</v>
+      </c>
+      <c r="S49" t="s">
         <v>382</v>
       </c>
-      <c r="S49" t="s">
-        <v>380</v>
-      </c>
       <c r="T49" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -8689,34 +8953,34 @@
         <v>133</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M50" t="s">
+        <v>387</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>390</v>
+      </c>
+      <c r="P50" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>387</v>
+      </c>
+      <c r="R50" t="s">
+        <v>391</v>
+      </c>
+      <c r="S50" t="s">
+        <v>382</v>
+      </c>
+      <c r="T50" t="s">
         <v>385</v>
-      </c>
-      <c r="N50" t="s">
-        <v>386</v>
-      </c>
-      <c r="O50" t="s">
-        <v>388</v>
-      </c>
-      <c r="P50" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>385</v>
-      </c>
-      <c r="R50" t="s">
-        <v>389</v>
-      </c>
-      <c r="S50" t="s">
-        <v>380</v>
-      </c>
-      <c r="T50" t="s">
-        <v>383</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -8754,25 +9018,25 @@
         <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N51" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P51" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q51" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R51"/>
       <c r="S51"/>
@@ -8813,35 +9077,35 @@
         <v>133</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q52" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
+        <v>399</v>
+      </c>
+      <c r="V52" t="s">
+        <v>389</v>
+      </c>
+      <c r="W52" t="s">
         <v>397</v>
-      </c>
-      <c r="V52" t="s">
-        <v>387</v>
-      </c>
-      <c r="W52" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="53">
@@ -8879,26 +9143,26 @@
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q53" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="V53" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="W53" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
@@ -8938,22 +9202,22 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S54" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="T54" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U54" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="V54" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="W54" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55">
@@ -8995,10 +9259,10 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q55" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
@@ -9046,19 +9310,19 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q56" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="R56" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S56" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="T56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -9101,19 +9365,19 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R57" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="S57" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="T57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -9156,19 +9420,19 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R58" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S58" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="T58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U58"/>
       <c r="V58"/>
@@ -9207,21 +9471,21 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T59" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
@@ -9249,7 +9513,7 @@
         <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
@@ -9257,10 +9521,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
@@ -9268,10 +9532,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -9279,10 +9543,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
@@ -9290,10 +9554,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6">
@@ -9301,10 +9565,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
@@ -9312,10 +9576,10 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -9323,10 +9587,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9">
@@ -9334,10 +9598,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
@@ -9345,10 +9609,10 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -9356,10 +9620,10 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12">
@@ -9367,10 +9631,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13">
@@ -9378,10 +9642,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14">
@@ -9389,10 +9653,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">
@@ -9400,10 +9664,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16">
@@ -9411,10 +9675,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17">
@@ -9422,10 +9686,10 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18">
@@ -9433,10 +9697,10 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19">
@@ -9444,10 +9708,10 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20">
@@ -9455,10 +9719,10 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21">
@@ -9466,10 +9730,10 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22">
@@ -9477,10 +9741,10 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23">
@@ -9488,10 +9752,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24">
@@ -9499,10 +9763,10 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25">
@@ -9510,10 +9774,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
@@ -9521,10 +9785,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27">
@@ -9532,10 +9796,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28">
@@ -9543,10 +9807,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
@@ -9554,10 +9818,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -9565,10 +9829,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31">
@@ -9576,10 +9840,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
@@ -9587,10 +9851,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
@@ -9598,10 +9862,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
@@ -9609,10 +9873,10 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
@@ -9620,10 +9884,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
@@ -9631,10 +9895,10 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -9642,10 +9906,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
@@ -9653,10 +9917,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -9664,10 +9928,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
@@ -9675,10 +9939,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
@@ -9686,10 +9950,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
@@ -9697,10 +9961,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43">
@@ -9708,10 +9972,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
@@ -9719,10 +9983,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
@@ -9730,10 +9994,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46">
@@ -9741,10 +10005,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
@@ -9752,10 +10016,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
@@ -9763,10 +10027,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49">
@@ -9774,10 +10038,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50">
@@ -9785,10 +10049,10 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51">
@@ -9796,10 +10060,10 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52">
@@ -9807,10 +10071,10 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53">
@@ -9818,10 +10082,10 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54">
@@ -9829,10 +10093,10 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55">
@@ -9840,10 +10104,10 @@
         <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56">
@@ -9851,10 +10115,10 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57">
@@ -9862,10 +10126,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58">
@@ -9873,10 +10137,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59">
@@ -9884,10 +10148,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60">
@@ -9895,10 +10159,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61">
@@ -9906,10 +10170,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C61" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62">
@@ -9917,10 +10181,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63">
@@ -9928,10 +10192,10 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64">
@@ -9939,10 +10203,10 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65">
@@ -9950,10 +10214,10 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66">
@@ -9961,10 +10225,10 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67">
@@ -9972,10 +10236,10 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68">
@@ -9983,10 +10247,10 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69">
@@ -9994,10 +10258,10 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70">
@@ -10005,10 +10269,10 @@
         <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71">
@@ -10016,10 +10280,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72">
@@ -10027,10 +10291,10 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73">
@@ -10038,10 +10302,10 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C73" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74">
@@ -10049,10 +10313,10 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75">
@@ -10060,10 +10324,10 @@
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76">
@@ -10071,10 +10335,10 @@
         <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77">
@@ -10082,10 +10346,10 @@
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78">
@@ -10093,10 +10357,10 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79">
@@ -10104,10 +10368,10 @@
         <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80">
@@ -10115,10 +10379,10 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81">
@@ -10126,10 +10390,10 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82">
@@ -10137,10 +10401,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83">
@@ -10148,10 +10412,10 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C83" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84">
@@ -10159,10 +10423,10 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85">
@@ -10170,10 +10434,10 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C85" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86">
@@ -10181,10 +10445,10 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87">
@@ -10192,10 +10456,10 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88">
@@ -10203,10 +10467,10 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89">
@@ -10214,10 +10478,10 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90">
@@ -10225,10 +10489,10 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91">
@@ -10236,10 +10500,10 @@
         <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92">
@@ -10247,10 +10511,10 @@
         <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93">
@@ -10258,10 +10522,10 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94">
@@ -10269,10 +10533,10 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95">
@@ -10280,10 +10544,10 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96">
@@ -10291,10 +10555,10 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97">
@@ -10302,10 +10566,10 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98">
@@ -10313,10 +10577,10 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99">
@@ -10324,10 +10588,10 @@
         <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100">
@@ -10335,10 +10599,10 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101">
@@ -10346,10 +10610,10 @@
         <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102">
@@ -10357,10 +10621,10 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
@@ -10368,10 +10632,10 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104">
@@ -10379,10 +10643,10 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105">
@@ -10390,10 +10654,10 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106">
@@ -10401,10 +10665,10 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107">
@@ -10412,10 +10676,10 @@
         <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108">
@@ -10423,10 +10687,10 @@
         <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109">
@@ -10434,10 +10698,10 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110">
@@ -10445,10 +10709,10 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111">
@@ -10456,10 +10720,10 @@
         <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112">
@@ -10467,10 +10731,10 @@
         <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113">
@@ -10478,10 +10742,10 @@
         <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114">
@@ -10489,10 +10753,10 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115">
@@ -10500,10 +10764,10 @@
         <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116">
@@ -10511,10 +10775,10 @@
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117">
@@ -10522,10 +10786,10 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118">
@@ -10533,10 +10797,10 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119">
@@ -10544,10 +10808,10 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120">
@@ -10555,10 +10819,10 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121">
@@ -10566,10 +10830,10 @@
         <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122">
@@ -10577,10 +10841,10 @@
         <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123">
@@ -10588,10 +10852,10 @@
         <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124">
@@ -10599,10 +10863,10 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125">
@@ -10610,10 +10874,10 @@
         <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126">
@@ -10621,10 +10885,10 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127">
@@ -10632,10 +10896,10 @@
         <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128">
@@ -10643,10 +10907,10 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129">
@@ -10654,10 +10918,10 @@
         <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130">
@@ -10665,10 +10929,10 @@
         <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131">
@@ -10676,10 +10940,10 @@
         <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132">
@@ -10687,10 +10951,10 @@
         <v>62</v>
       </c>
       <c r="B132" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133">
@@ -10698,10 +10962,10 @@
         <v>62</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134">
@@ -10709,10 +10973,10 @@
         <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135">
@@ -10720,10 +10984,10 @@
         <v>62</v>
       </c>
       <c r="B135" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="136">
@@ -10731,10 +10995,10 @@
         <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="C136" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137">
@@ -10742,10 +11006,10 @@
         <v>63</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138">
@@ -10753,10 +11017,10 @@
         <v>63</v>
       </c>
       <c r="B138" t="s">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t xml:space="preserve">termID</t>
   </si>
@@ -759,16 +759,10 @@
     <t xml:space="preserve">orginalField</t>
   </si>
   <si>
-    <t xml:space="preserve">CollectionMethod.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisMethod.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CollectionMethod.y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisMethod.y</t>
+    <t xml:space="preserve">CollectionMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisMethod</t>
   </si>
   <si>
     <t xml:space="preserve">AREMP</t>
@@ -1360,6 +1354,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sample Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgramMethodType</t>
   </si>
   <si>
     <t xml:space="preserve">method</t>
@@ -3979,12 +3976,6 @@
       <c r="F1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3994,15 +3985,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4012,15 +4001,13 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4030,15 +4017,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4048,15 +4033,13 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4066,15 +4049,13 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4084,15 +4065,13 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4102,15 +4081,13 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4120,15 +4097,13 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4138,15 +4113,13 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4156,15 +4129,13 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4174,15 +4145,13 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4192,15 +4161,13 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4210,15 +4177,13 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4228,15 +4193,13 @@
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4246,15 +4209,13 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4264,15 +4225,13 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4282,15 +4241,13 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4300,15 +4257,13 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4318,15 +4273,13 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4336,15 +4289,13 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4354,15 +4305,13 @@
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4372,15 +4321,13 @@
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4390,15 +4337,13 @@
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4408,15 +4353,13 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4426,15 +4369,13 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4444,15 +4385,13 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4462,15 +4401,13 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4480,15 +4417,13 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4498,15 +4433,13 @@
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4516,15 +4449,13 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4534,15 +4465,13 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4552,15 +4481,13 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4570,15 +4497,13 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4588,15 +4513,13 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4606,15 +4529,13 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4624,15 +4545,13 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4642,17 +4561,15 @@
         <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4662,17 +4579,15 @@
         <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4682,19 +4597,17 @@
         <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" t="s">
         <v>290</v>
       </c>
-      <c r="E40" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" t="s">
-        <v>292</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4704,15 +4617,13 @@
         <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
         <v>129</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4722,19 +4633,17 @@
         <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="E42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4744,19 +4653,17 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" t="s">
         <v>296</v>
       </c>
-      <c r="E43" t="s">
-        <v>297</v>
-      </c>
-      <c r="F43" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4766,19 +4673,17 @@
         <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" t="s">
         <v>299</v>
       </c>
-      <c r="E44" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" t="s">
-        <v>301</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4788,19 +4693,17 @@
         <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45"/>
+        <v>301</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4810,19 +4713,17 @@
         <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4832,15 +4733,13 @@
         <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
         <v>139</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4850,15 +4749,13 @@
         <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4868,15 +4765,13 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D49" t="s">
         <v>139</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4886,15 +4781,13 @@
         <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4904,19 +4797,17 @@
         <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" t="s">
         <v>307</v>
       </c>
-      <c r="E51" t="s">
-        <v>308</v>
-      </c>
-      <c r="F51" t="s">
-        <v>309</v>
-      </c>
-      <c r="G51"/>
-      <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4926,19 +4817,17 @@
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" t="s">
         <v>310</v>
       </c>
-      <c r="E52" t="s">
-        <v>311</v>
-      </c>
-      <c r="F52" t="s">
-        <v>312</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4948,19 +4837,17 @@
         <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4970,19 +4857,17 @@
         <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4992,19 +4877,17 @@
         <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5014,15 +4897,13 @@
         <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5032,19 +4913,17 @@
         <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" t="s">
         <v>320</v>
       </c>
-      <c r="E57" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5054,19 +4933,17 @@
         <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
         <v>323</v>
       </c>
-      <c r="E58" t="s">
-        <v>324</v>
-      </c>
-      <c r="F58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5076,19 +4953,17 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F59" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
+        <v>323</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5098,15 +4973,13 @@
         <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5116,19 +4989,17 @@
         <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61"/>
+        <v>323</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5138,19 +5009,17 @@
         <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E62" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62"/>
+        <v>323</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5160,17 +5029,15 @@
         <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5180,19 +5047,17 @@
         <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
+        <v>333</v>
+      </c>
+      <c r="E64" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" t="s">
         <v>335</v>
       </c>
-      <c r="E64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F64" t="s">
-        <v>337</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5202,15 +5067,13 @@
         <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5220,19 +5083,17 @@
         <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F66" t="s">
-        <v>337</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5242,19 +5103,17 @@
         <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D67" t="s">
         <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5264,19 +5123,17 @@
         <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>298</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5286,19 +5143,17 @@
         <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" t="s">
         <v>342</v>
       </c>
-      <c r="E69" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5308,17 +5163,15 @@
         <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5328,17 +5181,15 @@
         <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E71" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5348,15 +5199,13 @@
         <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5366,17 +5215,15 @@
         <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5386,17 +5233,15 @@
         <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5406,19 +5251,17 @@
         <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F75" t="s">
-        <v>352</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5428,19 +5271,17 @@
         <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>352</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5450,15 +5291,13 @@
         <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5468,19 +5307,17 @@
         <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5490,19 +5327,17 @@
         <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" t="s">
         <v>356</v>
       </c>
-      <c r="E79" t="s">
-        <v>357</v>
-      </c>
-      <c r="F79" t="s">
-        <v>358</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5512,19 +5347,17 @@
         <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" t="s">
+        <v>358</v>
+      </c>
+      <c r="F80" t="s">
         <v>359</v>
       </c>
-      <c r="E80" t="s">
-        <v>360</v>
-      </c>
-      <c r="F80" t="s">
-        <v>361</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5534,15 +5367,13 @@
         <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5552,19 +5383,17 @@
         <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
+        <v>361</v>
+      </c>
+      <c r="E82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" t="s">
         <v>363</v>
       </c>
-      <c r="E82" t="s">
-        <v>364</v>
-      </c>
-      <c r="F82" t="s">
-        <v>365</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5574,19 +5403,17 @@
         <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F83" t="s">
-        <v>367</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5596,19 +5423,17 @@
         <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F84" t="s">
-        <v>367</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5618,15 +5443,13 @@
         <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5636,19 +5459,17 @@
         <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E86" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F86" t="s">
-        <v>367</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5658,17 +5479,15 @@
         <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E87" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5678,17 +5497,15 @@
         <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
         <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5698,19 +5515,17 @@
         <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
+        <v>371</v>
+      </c>
+      <c r="E89" t="s">
+        <v>372</v>
+      </c>
+      <c r="F89" t="s">
         <v>373</v>
       </c>
-      <c r="E89" t="s">
-        <v>374</v>
-      </c>
-      <c r="F89" t="s">
-        <v>375</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5720,19 +5535,17 @@
         <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E90" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F90" t="s">
-        <v>298</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5742,19 +5555,17 @@
         <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
         <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F91" t="s">
-        <v>378</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5764,19 +5575,17 @@
         <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
         <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F92" t="s">
-        <v>378</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5786,19 +5595,17 @@
         <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
         <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
-        <v>378</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5808,19 +5615,17 @@
         <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" t="s">
         <v>197</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F94" t="s">
-        <v>378</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5830,15 +5635,13 @@
         <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
         <v>197</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5848,19 +5651,17 @@
         <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
-        <v>378</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5870,19 +5671,17 @@
         <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
         <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F97" t="s">
-        <v>378</v>
-      </c>
-      <c r="G97"/>
-      <c r="H97"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5892,19 +5691,17 @@
         <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
         <v>200</v>
       </c>
       <c r="E98" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F98" t="s">
-        <v>378</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5914,19 +5711,17 @@
         <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s">
         <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F99" t="s">
-        <v>378</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5936,19 +5731,17 @@
         <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F100" t="s">
-        <v>298</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5958,19 +5751,17 @@
         <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>385</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5980,19 +5771,17 @@
         <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E102" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F102" t="s">
-        <v>387</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6002,19 +5791,17 @@
         <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F103" t="s">
-        <v>387</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6024,15 +5811,13 @@
         <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6042,19 +5827,17 @@
         <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D105" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E105" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F105" t="s">
-        <v>385</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6064,19 +5847,17 @@
         <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D106" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F106" t="s">
-        <v>387</v>
-      </c>
-      <c r="G106"/>
-      <c r="H106"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6086,19 +5867,17 @@
         <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F107" t="s">
-        <v>387</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107"/>
+        <v>385</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6108,15 +5887,13 @@
         <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6126,19 +5903,17 @@
         <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E109" t="s">
+        <v>394</v>
+      </c>
+      <c r="F109" t="s">
         <v>395</v>
       </c>
-      <c r="E109" t="s">
-        <v>396</v>
-      </c>
-      <c r="F109" t="s">
-        <v>397</v>
-      </c>
-      <c r="G109"/>
-      <c r="H109"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6148,19 +5923,17 @@
         <v>212</v>
       </c>
       <c r="C110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F110" t="s">
-        <v>397</v>
-      </c>
-      <c r="G110"/>
-      <c r="H110"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6170,19 +5943,17 @@
         <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E111" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F111" t="s">
-        <v>397</v>
-      </c>
-      <c r="G111"/>
-      <c r="H111"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6192,19 +5963,17 @@
         <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F112" t="s">
-        <v>397</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6214,19 +5983,17 @@
         <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D113" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E113" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F113" t="s">
-        <v>397</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113"/>
+        <v>395</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6236,19 +6003,17 @@
         <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E114" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6258,19 +6023,17 @@
         <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E115" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F115" t="s">
-        <v>298</v>
-      </c>
-      <c r="G115"/>
-      <c r="H115"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6280,19 +6043,17 @@
         <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
         <v>222</v>
       </c>
       <c r="E116" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F116" t="s">
-        <v>406</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116"/>
+        <v>404</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6302,19 +6063,17 @@
         <v>226</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
         <v>226</v>
       </c>
       <c r="E117" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F117" t="s">
-        <v>406</v>
-      </c>
-      <c r="G117"/>
-      <c r="H117"/>
+        <v>404</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6324,19 +6083,17 @@
         <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E118" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F118" t="s">
-        <v>298</v>
-      </c>
-      <c r="G118"/>
-      <c r="H118"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6346,19 +6103,17 @@
         <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
         <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s">
-        <v>298</v>
-      </c>
-      <c r="G119"/>
-      <c r="H119"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6368,19 +6123,17 @@
         <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E120" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F120" t="s">
-        <v>298</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6390,19 +6143,17 @@
         <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D121" t="s">
         <v>236</v>
       </c>
       <c r="E121" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F121" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121"/>
-      <c r="H121"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6412,19 +6163,17 @@
         <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E122" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F122" t="s">
-        <v>298</v>
-      </c>
-      <c r="G122"/>
-      <c r="H122"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6434,17 +6183,15 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E123" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6454,19 +6201,17 @@
         <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D124" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F124" t="s">
-        <v>298</v>
-      </c>
-      <c r="G124"/>
-      <c r="H124"/>
+        <v>296</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6474,15 +6219,13 @@
       </c>
       <c r="B125"/>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D125"/>
       <c r="E125" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6490,15 +6233,13 @@
       </c>
       <c r="B126"/>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6506,15 +6247,13 @@
       </c>
       <c r="B127"/>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6532,7 +6271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>117</v>
@@ -6562,43 +6301,43 @@
         <v>121</v>
       </c>
       <c r="K1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M1" t="s">
         <v>417</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>418</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>419</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>420</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>421</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>422</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>423</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>424</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>425</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>426</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>427</v>
-      </c>
-      <c r="V1" t="s">
-        <v>428</v>
-      </c>
-      <c r="W1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2">
@@ -6690,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -6729,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -6803,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -6842,7 +6581,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -6918,7 +6657,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -6955,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -6994,7 +6733,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -7007,25 +6746,25 @@
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O12" t="s">
         <v>251</v>
-      </c>
-      <c r="O12" t="s">
-        <v>253</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -7043,7 +6782,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
@@ -7057,10 +6796,10 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -7068,7 +6807,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -7086,7 +6825,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
@@ -7097,25 +6836,25 @@
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
@@ -7133,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
@@ -7149,20 +6888,20 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V15"/>
       <c r="W15"/>
@@ -7180,7 +6919,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -7217,7 +6956,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -7256,7 +6995,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -7269,25 +7008,25 @@
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -7316,25 +7055,25 @@
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V19"/>
       <c r="W19"/>
@@ -7352,7 +7091,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -7365,25 +7104,25 @@
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -7401,7 +7140,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
@@ -7414,7 +7153,7 @@
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -7423,12 +7162,12 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -7755,18 +7494,18 @@
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q30"/>
       <c r="R30"/>
@@ -7811,34 +7550,34 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
         <v>129</v>
       </c>
       <c r="P31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>290</v>
+      </c>
+      <c r="R31" t="s">
         <v>291</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>292</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>293</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>294</v>
       </c>
-      <c r="T31" t="s">
+      <c r="V31" t="s">
         <v>295</v>
       </c>
-      <c r="U31" t="s">
+      <c r="W31" t="s">
         <v>296</v>
-      </c>
-      <c r="V31" t="s">
-        <v>297</v>
-      </c>
-      <c r="W31" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32">
@@ -7872,32 +7611,32 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O32"/>
       <c r="P32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>299</v>
+      </c>
+      <c r="R32" t="s">
         <v>300</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
+        <v>292</v>
+      </c>
+      <c r="T32" t="s">
         <v>301</v>
-      </c>
-      <c r="R32" t="s">
-        <v>302</v>
-      </c>
-      <c r="S32" t="s">
-        <v>294</v>
-      </c>
-      <c r="T32" t="s">
-        <v>303</v>
       </c>
       <c r="U32" t="s">
         <v>135</v>
       </c>
       <c r="V32" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
@@ -7935,7 +7674,7 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
         <v>139</v>
@@ -7943,7 +7682,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S33"/>
       <c r="T33"/>
@@ -7981,35 +7720,35 @@
         <v>147</v>
       </c>
       <c r="K34" t="s">
+        <v>305</v>
+      </c>
+      <c r="L34" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" t="s">
         <v>307</v>
-      </c>
-      <c r="L34" t="s">
-        <v>308</v>
-      </c>
-      <c r="M34" t="s">
-        <v>309</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
+        <v>308</v>
+      </c>
+      <c r="S34" t="s">
+        <v>309</v>
+      </c>
+      <c r="T34" t="s">
         <v>310</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>311</v>
       </c>
-      <c r="T34" t="s">
+      <c r="V34" t="s">
         <v>312</v>
       </c>
-      <c r="U34" t="s">
-        <v>313</v>
-      </c>
-      <c r="V34" t="s">
-        <v>314</v>
-      </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
@@ -8042,34 +7781,34 @@
         <v>147</v>
       </c>
       <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s">
+        <v>296</v>
+      </c>
+      <c r="N35" t="s">
         <v>315</v>
       </c>
-      <c r="L35" t="s">
+      <c r="O35" t="s">
+        <v>317</v>
+      </c>
+      <c r="P35" t="s">
         <v>316</v>
       </c>
-      <c r="M35" t="s">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s">
-        <v>317</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
+        <v>296</v>
+      </c>
+      <c r="R35" t="s">
+        <v>318</v>
+      </c>
+      <c r="S35" t="s">
         <v>319</v>
       </c>
-      <c r="P35" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>298</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>320</v>
-      </c>
-      <c r="S35" t="s">
-        <v>321</v>
-      </c>
-      <c r="T35" t="s">
-        <v>322</v>
       </c>
       <c r="U35"/>
       <c r="V35"/>
@@ -8105,43 +7844,43 @@
         <v>147</v>
       </c>
       <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="s">
         <v>323</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>324</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
+        <v>326</v>
+      </c>
+      <c r="P36" t="s">
         <v>325</v>
       </c>
-      <c r="N36" t="s">
-        <v>326</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
+        <v>323</v>
+      </c>
+      <c r="R36" t="s">
+        <v>327</v>
+      </c>
+      <c r="S36" t="s">
         <v>328</v>
       </c>
-      <c r="P36" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>325</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
+        <v>323</v>
+      </c>
+      <c r="U36" t="s">
         <v>329</v>
       </c>
-      <c r="S36" t="s">
+      <c r="V36" t="s">
         <v>330</v>
       </c>
-      <c r="T36" t="s">
-        <v>325</v>
-      </c>
-      <c r="U36" t="s">
-        <v>331</v>
-      </c>
-      <c r="V36" t="s">
-        <v>332</v>
-      </c>
       <c r="W36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
@@ -8219,41 +7958,41 @@
         <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q38" t="s">
         <v>335</v>
       </c>
-      <c r="O38" t="s">
-        <v>338</v>
-      </c>
-      <c r="P38" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>337</v>
       </c>
-      <c r="R38" t="s">
-        <v>339</v>
-      </c>
       <c r="S38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="T38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U38" t="s">
         <v>159</v>
       </c>
       <c r="V38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -8289,23 +8028,23 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O39"/>
       <c r="P39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>296</v>
+      </c>
+      <c r="R39" t="s">
+        <v>340</v>
+      </c>
+      <c r="S39" t="s">
         <v>341</v>
       </c>
-      <c r="Q39" t="s">
-        <v>298</v>
-      </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>342</v>
-      </c>
-      <c r="S39" t="s">
-        <v>343</v>
-      </c>
-      <c r="T39" t="s">
-        <v>344</v>
       </c>
       <c r="U39"/>
       <c r="V39"/>
@@ -8341,34 +8080,34 @@
         <v>147</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" t="s">
         <v>346</v>
       </c>
-      <c r="O40" t="s">
-        <v>348</v>
-      </c>
       <c r="P40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T40"/>
       <c r="U40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="V40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W40"/>
     </row>
@@ -8402,34 +8141,34 @@
         <v>147</v>
       </c>
       <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="s">
+        <v>350</v>
+      </c>
+      <c r="N41" t="s">
         <v>351</v>
       </c>
-      <c r="L41" t="s">
-        <v>324</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>352</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>350</v>
+      </c>
+      <c r="R41" t="s">
         <v>353</v>
       </c>
-      <c r="O41" t="s">
-        <v>354</v>
-      </c>
-      <c r="P41" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>352</v>
-      </c>
-      <c r="R41" t="s">
-        <v>355</v>
-      </c>
       <c r="S41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U41"/>
       <c r="V41"/>
@@ -8467,37 +8206,37 @@
         <v>133</v>
       </c>
       <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" t="s">
         <v>356</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>357</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
+        <v>360</v>
+      </c>
+      <c r="P42" t="s">
         <v>358</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>359</v>
-      </c>
-      <c r="O42" t="s">
-        <v>362</v>
-      </c>
-      <c r="P42" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>361</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="s">
+        <v>361</v>
+      </c>
+      <c r="V42" t="s">
+        <v>362</v>
+      </c>
+      <c r="W42" t="s">
         <v>363</v>
-      </c>
-      <c r="V42" t="s">
-        <v>364</v>
-      </c>
-      <c r="W42" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="43">
@@ -8530,37 +8269,37 @@
         <v>147</v>
       </c>
       <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="s">
+        <v>365</v>
+      </c>
+      <c r="N43" t="s">
         <v>366</v>
       </c>
-      <c r="L43" t="s">
-        <v>357</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>367</v>
       </c>
-      <c r="N43" t="s">
-        <v>368</v>
-      </c>
-      <c r="O43" t="s">
-        <v>369</v>
-      </c>
       <c r="P43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="V43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
@@ -8598,11 +8337,11 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O44"/>
       <c r="P44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q44"/>
       <c r="R44"/>
@@ -8612,7 +8351,7 @@
         <v>181</v>
       </c>
       <c r="V44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W44"/>
     </row>
@@ -8651,26 +8390,26 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O45"/>
       <c r="P45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q45" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="V45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
@@ -8706,7 +8445,7 @@
       </c>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="s">
@@ -8714,10 +8453,10 @@
       </c>
       <c r="O46"/>
       <c r="P46" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R46"/>
       <c r="S46"/>
@@ -8726,10 +8465,10 @@
         <v>191</v>
       </c>
       <c r="V46" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
@@ -8767,10 +8506,10 @@
         <v>197</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s">
         <v>197</v>
@@ -8779,28 +8518,28 @@
         <v>197</v>
       </c>
       <c r="P47" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>376</v>
+      </c>
+      <c r="R47" t="s">
+        <v>379</v>
+      </c>
+      <c r="S47" t="s">
         <v>380</v>
       </c>
-      <c r="Q47" t="s">
-        <v>378</v>
-      </c>
-      <c r="R47" t="s">
-        <v>381</v>
-      </c>
-      <c r="S47" t="s">
-        <v>382</v>
-      </c>
       <c r="T47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s">
         <v>197</v>
       </c>
       <c r="V47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
@@ -8836,7 +8575,7 @@
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="s">
@@ -8844,24 +8583,24 @@
       </c>
       <c r="O48"/>
       <c r="P48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T48"/>
       <c r="U48" t="s">
         <v>200</v>
       </c>
       <c r="V48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
@@ -8896,26 +8635,26 @@
         <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U49"/>
       <c r="V49"/>
@@ -8953,34 +8692,34 @@
         <v>133</v>
       </c>
       <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="s">
+        <v>385</v>
+      </c>
+      <c r="N50" t="s">
         <v>386</v>
       </c>
-      <c r="L50" t="s">
-        <v>379</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="O50" t="s">
+        <v>388</v>
+      </c>
+      <c r="P50" t="s">
         <v>387</v>
       </c>
-      <c r="N50" t="s">
-        <v>388</v>
-      </c>
-      <c r="O50" t="s">
-        <v>390</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
+        <v>385</v>
+      </c>
+      <c r="R50" t="s">
         <v>389</v>
       </c>
-      <c r="Q50" t="s">
-        <v>387</v>
-      </c>
-      <c r="R50" t="s">
-        <v>391</v>
-      </c>
       <c r="S50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U50"/>
       <c r="V50"/>
@@ -9018,25 +8757,25 @@
         <v>133</v>
       </c>
       <c r="K51" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="s">
+        <v>385</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
         <v>392</v>
       </c>
-      <c r="L51" t="s">
-        <v>379</v>
-      </c>
-      <c r="M51" t="s">
-        <v>387</v>
-      </c>
-      <c r="N51" t="s">
-        <v>393</v>
-      </c>
-      <c r="O51" t="s">
-        <v>394</v>
-      </c>
       <c r="P51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="R51"/>
       <c r="S51"/>
@@ -9077,35 +8816,35 @@
         <v>133</v>
       </c>
       <c r="K52" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s">
+        <v>394</v>
+      </c>
+      <c r="M52" t="s">
         <v>395</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>396</v>
-      </c>
-      <c r="M52" t="s">
-        <v>397</v>
-      </c>
-      <c r="N52" t="s">
-        <v>398</v>
       </c>
       <c r="O52"/>
       <c r="P52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
@@ -9143,26 +8882,26 @@
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O53"/>
       <c r="P53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="V53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
@@ -9202,22 +8941,22 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54" t="s">
+        <v>400</v>
+      </c>
+      <c r="S54" t="s">
+        <v>401</v>
+      </c>
+      <c r="T54" t="s">
+        <v>296</v>
+      </c>
+      <c r="U54" t="s">
         <v>402</v>
       </c>
-      <c r="S54" t="s">
+      <c r="V54" t="s">
         <v>403</v>
       </c>
-      <c r="T54" t="s">
-        <v>298</v>
-      </c>
-      <c r="U54" t="s">
-        <v>404</v>
-      </c>
-      <c r="V54" t="s">
-        <v>405</v>
-      </c>
       <c r="W54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55">
@@ -9259,10 +8998,10 @@
       </c>
       <c r="O55"/>
       <c r="P55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R55"/>
       <c r="S55"/>
@@ -9310,19 +9049,19 @@
       </c>
       <c r="O56"/>
       <c r="P56" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>404</v>
+      </c>
+      <c r="R56" t="s">
+        <v>405</v>
+      </c>
+      <c r="S56" t="s">
         <v>406</v>
       </c>
-      <c r="Q56" t="s">
-        <v>406</v>
-      </c>
-      <c r="R56" t="s">
-        <v>407</v>
-      </c>
-      <c r="S56" t="s">
-        <v>408</v>
-      </c>
       <c r="T56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -9365,19 +9104,19 @@
       </c>
       <c r="O57"/>
       <c r="P57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R57" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S57" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
@@ -9420,19 +9159,19 @@
       </c>
       <c r="O58"/>
       <c r="P58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S58" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U58"/>
       <c r="V58"/>
@@ -9471,21 +9210,21 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O59"/>
       <c r="P59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U59"/>
       <c r="V59"/>
@@ -9510,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2">
@@ -9521,10 +9260,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -9532,10 +9271,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
@@ -9543,10 +9282,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -9554,10 +9293,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -9565,10 +9304,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
@@ -9576,10 +9315,10 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
@@ -9587,10 +9326,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
@@ -9598,10 +9337,10 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
@@ -9609,10 +9348,10 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11">
@@ -9620,10 +9359,10 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
@@ -9631,10 +9370,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
@@ -9642,10 +9381,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
@@ -9653,10 +9392,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">
@@ -9664,10 +9403,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16">
@@ -9675,10 +9414,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17">
@@ -9686,10 +9425,10 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18">
@@ -9697,10 +9436,10 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19">
@@ -9708,10 +9447,10 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20">
@@ -9719,10 +9458,10 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21">
@@ -9730,10 +9469,10 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22">
@@ -9741,10 +9480,10 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23">
@@ -9752,10 +9491,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24">
@@ -9763,10 +9502,10 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25">
@@ -9774,10 +9513,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26">
@@ -9785,10 +9524,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27">
@@ -9796,10 +9535,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28">
@@ -9807,10 +9546,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
@@ -9818,10 +9557,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -9829,10 +9568,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -9840,10 +9579,10 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -9851,10 +9590,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
@@ -9862,10 +9601,10 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -9873,10 +9612,10 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35">
@@ -9884,10 +9623,10 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
@@ -9895,10 +9634,10 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
@@ -9906,10 +9645,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38">
@@ -9917,10 +9656,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -9928,10 +9667,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
@@ -9939,10 +9678,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -9950,10 +9689,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
@@ -9961,10 +9700,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
@@ -9972,10 +9711,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
@@ -9983,10 +9722,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
@@ -9994,10 +9733,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
@@ -10005,10 +9744,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47">
@@ -10016,10 +9755,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48">
@@ -10027,10 +9766,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49">
@@ -10038,10 +9777,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50">
@@ -10049,10 +9788,10 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
@@ -10060,10 +9799,10 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52">
@@ -10071,10 +9810,10 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53">
@@ -10082,10 +9821,10 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54">
@@ -10093,10 +9832,10 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55">
@@ -10104,10 +9843,10 @@
         <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56">
@@ -10115,10 +9854,10 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57">
@@ -10126,10 +9865,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58">
@@ -10137,10 +9876,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59">
@@ -10148,10 +9887,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60">
@@ -10159,10 +9898,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61">
@@ -10170,10 +9909,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62">
@@ -10181,10 +9920,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63">
@@ -10192,10 +9931,10 @@
         <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64">
@@ -10203,10 +9942,10 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C64" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65">
@@ -10214,10 +9953,10 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66">
@@ -10225,10 +9964,10 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67">
@@ -10236,10 +9975,10 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68">
@@ -10247,10 +9986,10 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69">
@@ -10258,10 +9997,10 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70">
@@ -10269,10 +10008,10 @@
         <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71">
@@ -10280,10 +10019,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72">
@@ -10291,10 +10030,10 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C72" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73">
@@ -10302,10 +10041,10 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74">
@@ -10313,10 +10052,10 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75">
@@ -10324,10 +10063,10 @@
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76">
@@ -10335,10 +10074,10 @@
         <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77">
@@ -10346,10 +10085,10 @@
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78">
@@ -10357,10 +10096,10 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79">
@@ -10368,10 +10107,10 @@
         <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80">
@@ -10379,10 +10118,10 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81">
@@ -10390,10 +10129,10 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82">
@@ -10401,10 +10140,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83">
@@ -10412,10 +10151,10 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84">
@@ -10423,10 +10162,10 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
@@ -10434,10 +10173,10 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86">
@@ -10445,10 +10184,10 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87">
@@ -10456,10 +10195,10 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C87" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88">
@@ -10467,10 +10206,10 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89">
@@ -10478,10 +10217,10 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90">
@@ -10489,10 +10228,10 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91">
@@ -10500,10 +10239,10 @@
         <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92">
@@ -10511,10 +10250,10 @@
         <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93">
@@ -10522,10 +10261,10 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
@@ -10533,10 +10272,10 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C94" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95">
@@ -10544,10 +10283,10 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C95" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96">
@@ -10555,10 +10294,10 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
@@ -10566,10 +10305,10 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98">
@@ -10577,10 +10316,10 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99">
@@ -10588,10 +10327,10 @@
         <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100">
@@ -10599,10 +10338,10 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101">
@@ -10610,10 +10349,10 @@
         <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102">
@@ -10621,10 +10360,10 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103">
@@ -10632,10 +10371,10 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104">
@@ -10643,10 +10382,10 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C104" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105">
@@ -10654,10 +10393,10 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C105" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106">
@@ -10665,10 +10404,10 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107">
@@ -10676,10 +10415,10 @@
         <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C107" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108">
@@ -10687,10 +10426,10 @@
         <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109">
@@ -10698,10 +10437,10 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110">
@@ -10709,10 +10448,10 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111">
@@ -10720,10 +10459,10 @@
         <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112">
@@ -10731,10 +10470,10 @@
         <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C112" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113">
@@ -10742,10 +10481,10 @@
         <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114">
@@ -10753,10 +10492,10 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C114" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115">
@@ -10764,10 +10503,10 @@
         <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C115" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116">
@@ -10775,10 +10514,10 @@
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117">
@@ -10786,10 +10525,10 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118">
@@ -10797,10 +10536,10 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119">
@@ -10808,10 +10547,10 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C119" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120">
@@ -10819,10 +10558,10 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="C120" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121">
@@ -10830,10 +10569,10 @@
         <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="C121" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122">
@@ -10841,10 +10580,10 @@
         <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123">
@@ -10852,10 +10591,10 @@
         <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124">
@@ -10863,10 +10602,10 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125">
@@ -10874,10 +10613,10 @@
         <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C125" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126">
@@ -10885,10 +10624,10 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127">
@@ -10896,10 +10635,10 @@
         <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128">
@@ -10907,10 +10646,10 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129">
@@ -10918,10 +10657,10 @@
         <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130">
@@ -10929,10 +10668,10 @@
         <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131">
@@ -10940,10 +10679,10 @@
         <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132">
@@ -10951,10 +10690,10 @@
         <v>62</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133">
@@ -10962,10 +10701,10 @@
         <v>62</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="C133" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134">
@@ -10973,10 +10712,10 @@
         <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135">
@@ -10984,10 +10723,10 @@
         <v>62</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C135" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136">
@@ -10995,10 +10734,10 @@
         <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C136" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137">
@@ -11006,10 +10745,10 @@
         <v>63</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138">
@@ -11017,10 +10756,10 @@
         <v>63</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -6213,48 +6213,6 @@
         <v>296</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>50</v>
-      </c>
-      <c r="B125"/>
-      <c r="C125" t="s">
-        <v>246</v>
-      </c>
-      <c r="D125"/>
-      <c r="E125" t="s">
-        <v>377</v>
-      </c>
-      <c r="F125"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>52</v>
-      </c>
-      <c r="B126"/>
-      <c r="C126" t="s">
-        <v>246</v>
-      </c>
-      <c r="D126"/>
-      <c r="E126" t="s">
-        <v>377</v>
-      </c>
-      <c r="F126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>52</v>
-      </c>
-      <c r="B127"/>
-      <c r="C127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127"/>
-      <c r="E127" t="s">
-        <v>380</v>
-      </c>
-      <c r="F127"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8444,9 +8402,7 @@
         <v>195</v>
       </c>
       <c r="K46"/>
-      <c r="L46" t="s">
-        <v>377</v>
-      </c>
+      <c r="L46"/>
       <c r="M46"/>
       <c r="N46" t="s">
         <v>191</v>
@@ -8574,9 +8530,7 @@
         <v>195</v>
       </c>
       <c r="K48"/>
-      <c r="L48" t="s">
-        <v>377</v>
-      </c>
+      <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
         <v>200</v>
@@ -8589,9 +8543,7 @@
         <v>376</v>
       </c>
       <c r="R48"/>
-      <c r="S48" t="s">
-        <v>380</v>
-      </c>
+      <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="s">
         <v>200</v>
@@ -10063,10 +10015,10 @@
         <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76">
@@ -10074,10 +10026,10 @@
         <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77">
@@ -10085,10 +10037,10 @@
         <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78">
@@ -10096,21 +10048,21 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80">
@@ -10118,10 +10070,10 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81">
@@ -10129,10 +10081,10 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C81" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82">
@@ -10140,10 +10092,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83">
@@ -10151,10 +10103,10 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C83" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84">
@@ -10162,10 +10114,10 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85">
@@ -10173,10 +10125,10 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86">
@@ -10184,21 +10136,21 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88">
@@ -10206,10 +10158,10 @@
         <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89">
@@ -10217,10 +10169,10 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90">
@@ -10228,7 +10180,7 @@
         <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C90" t="s">
         <v>376</v>
@@ -10236,35 +10188,35 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94">
@@ -10272,43 +10224,43 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C96" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C97" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98">
@@ -10316,10 +10268,10 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99">
@@ -10327,10 +10279,10 @@
         <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100">
@@ -10338,43 +10290,43 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C103" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104">
@@ -10382,43 +10334,43 @@
         <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C107" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108">
@@ -10426,10 +10378,10 @@
         <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109">
@@ -10437,10 +10389,10 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110">
@@ -10448,43 +10400,43 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C110" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114">
@@ -10492,43 +10444,43 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C114" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C115" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C116" t="s">
-        <v>387</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118">
@@ -10536,51 +10488,51 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C118" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C122" t="s">
         <v>404</v>
@@ -10588,13 +10540,13 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124">
@@ -10602,18 +10554,18 @@
         <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C125" t="s">
         <v>404</v>
@@ -10621,24 +10573,24 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128">
@@ -10646,43 +10598,43 @@
         <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132">
@@ -10690,75 +10642,42 @@
         <v>62</v>
       </c>
       <c r="B132" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
         <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
         <v>424</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>63</v>
-      </c>
-      <c r="B136" t="s">
-        <v>420</v>
-      </c>
-      <c r="C136" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>63</v>
-      </c>
-      <c r="B137" t="s">
-        <v>423</v>
-      </c>
-      <c r="C137" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>63</v>
-      </c>
-      <c r="B138" t="s">
-        <v>424</v>
-      </c>
-      <c r="C138" t="s">
         <v>296</v>
       </c>
     </row>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -14,12 +14,16 @@
     <sheet name="Crosswalk_tall" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Crosswalk" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Methods" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="samplingProtocolCV" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="samplingProtocolCW" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="samplingDesignTypeCV" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="samplingDesignTypeCW" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t xml:space="preserve">termID</t>
   </si>
@@ -787,10 +791,10 @@
     <t xml:space="preserve">program</t>
   </si>
   <si>
-    <t xml:space="preserve">orginalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orginalUnit</t>
+    <t xml:space="preserve">originalField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalUnit</t>
   </si>
   <si>
     <t xml:space="preserve">CollectionMethod</t>
@@ -1454,6 +1458,144 @@
   </si>
   <si>
     <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wadable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boatable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prairie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wadable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boatable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAT_WADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIBO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P = Prairie sites.  These, typically dry, streambeds are evaluated under a separate protocol and are not comparable to other site types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = Designated Monitoring Area (DMA). Riparian vegetation data and a subset of in-stream habitat data are collected. Sampling locations are identified by local field unit personnel as locations utilized for livestock grazing implementation monitoring (IM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = Inegrator site. Stream habitat, stream temperature, aquatic macroinvertebrate, and riparian vegetation are collected. Integrator sites are the most downstream stream segment within a randomly selected ICBEMP 6th field hydrologic unit less than 3% gradient (ideally), no tributaries, and no beaver activity when sites are established.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S = Sentinels, Type I sites that were sampled annually until 2012. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = Designated Monitoring Area (DMA). Riparian vegetation data and a subset of in-stream habitat data are collected. Sampling locations are identified by local field unit personnel as locations utilized for livestock grazing implementation monitoring (IM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = Random sites. Densified sites used as prof of concept of integrator reaches. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS_AND_TREND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatially balanced random design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">symenaticRandom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a systematic random design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">targeted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected as a targeted site to address a specific management concern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleDesignType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSGN_TYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SystematicRandom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
   </si>
 </sst>
 </file>
@@ -2258,6 +2400,619 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" t="s">
+        <v>518</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -11356,4 +12111,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -14,10 +14,11 @@
     <sheet name="Crosswalk_tall" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Crosswalk" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Methods" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="samplingProtocolCV" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="samplingProtocolCW" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="samplingDesignTypeCV" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="samplingDesignTypeCW" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="des_tall" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="samplingProtocolCV" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="samplingProtocolCW" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="samplingDesignTypeCV" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="samplingDesignTypeCW" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
@@ -2425,282 +2426,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" t="s">
-        <v>485</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2"/>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" t="s">
         <v>480</v>
       </c>
-      <c r="F2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G2"/>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" t="s">
         <v>481</v>
       </c>
-      <c r="F3" t="s">
-        <v>488</v>
-      </c>
-      <c r="G3"/>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F5" t="s">
-        <v>488</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" t="s">
         <v>482</v>
       </c>
-      <c r="F6" t="s">
-        <v>492</v>
-      </c>
-      <c r="G6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" t="s">
-        <v>480</v>
-      </c>
-      <c r="F9" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>491</v>
-      </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" t="s">
-        <v>480</v>
-      </c>
-      <c r="F10" t="s">
-        <v>499</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F11" t="s">
-        <v>500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>480</v>
-      </c>
-      <c r="F13" t="s">
-        <v>504</v>
-      </c>
-      <c r="G13" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E14" t="s">
-        <v>480</v>
-      </c>
-      <c r="F14" t="s">
-        <v>507</v>
-      </c>
-      <c r="G14"/>
+      <c r="C4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,38 +2472,282 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="F1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2"/>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="D3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>513</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="D4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2773,6 +2768,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>514</v>
       </c>
       <c r="C1" t="s">
@@ -12182,35 +12229,1347 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C3"/>
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" t="s">
+        <v>111</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" t="s">
+        <v>111</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O31" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" t="s">
+        <v>134</v>
+      </c>
+      <c r="N32" t="s">
+        <v>111</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" t="s">
+        <v>137</v>
+      </c>
+      <c r="N33" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="n">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
+++ b/Tables/Stream_Habitat_ExchangeSpecifications.xlsx
@@ -167,7 +167,7 @@
     <t xml:space="preserve">DatasetOrginizationCode</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjectName</t>
+    <t xml:space="preserve">projectName</t>
   </si>
   <si>
     <t xml:space="preserve">The name assigned by the Organization (project leader or principal investigator) to the project.</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">USFS PacFish/InFish Biological Opinion Monitoring Program</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjectCode</t>
+    <t xml:space="preserve">projectCode</t>
   </si>
   <si>
     <t xml:space="preserve">PIBO, AIM, USFS, NRSA</t>
